--- a/database/industries/siman/semazen/product/monthly.xlsx
+++ b/database/industries/siman/semazen/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\semazen\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62F9E47-615F-4A84-99F3-B479CF60B74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696DF29F-5EF9-4A6B-84E3-292A6973CE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="81">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 10 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 11 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 12 منتهی به 1401/09</t>
   </si>
   <si>
     <t>کلینکر</t>
@@ -1421,154 +1421,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>103430</v>
+        <v>90850</v>
       </c>
       <c r="F11" s="11">
-        <v>113880</v>
+        <v>71430</v>
       </c>
       <c r="G11" s="11">
-        <v>90850</v>
+        <v>100750</v>
       </c>
       <c r="H11" s="11">
-        <v>71430</v>
+        <v>100720</v>
       </c>
       <c r="I11" s="11">
-        <v>100750</v>
+        <v>95070</v>
       </c>
       <c r="J11" s="11">
-        <v>100720</v>
+        <v>76030</v>
       </c>
       <c r="K11" s="11">
-        <v>95070</v>
+        <v>175000</v>
       </c>
       <c r="L11" s="11">
-        <v>76030</v>
+        <v>224910</v>
       </c>
       <c r="M11" s="11">
-        <v>175000</v>
+        <v>217690</v>
       </c>
       <c r="N11" s="11">
-        <v>224910</v>
+        <v>223370</v>
       </c>
       <c r="O11" s="11">
-        <v>217690</v>
+        <v>175690</v>
       </c>
       <c r="P11" s="11">
-        <v>223370</v>
+        <v>158760</v>
       </c>
       <c r="Q11" s="11">
-        <v>175690</v>
+        <v>140630</v>
       </c>
       <c r="R11" s="11">
-        <v>158760</v>
+        <v>102460</v>
       </c>
       <c r="S11" s="11">
-        <v>140630</v>
+        <v>98410</v>
       </c>
       <c r="T11" s="11">
-        <v>102460</v>
+        <v>99010</v>
       </c>
       <c r="U11" s="11">
-        <v>98410</v>
+        <v>96840</v>
       </c>
       <c r="V11" s="11">
-        <v>99010</v>
+        <v>94120</v>
       </c>
       <c r="W11" s="11">
-        <v>96840</v>
+        <v>161400</v>
       </c>
       <c r="X11" s="11">
-        <v>94120</v>
+        <v>136840</v>
       </c>
       <c r="Y11" s="11">
-        <v>161400</v>
+        <v>224830</v>
       </c>
       <c r="Z11" s="11">
-        <v>136840</v>
+        <v>227540</v>
       </c>
       <c r="AA11" s="11">
-        <v>224830</v>
+        <v>207720</v>
       </c>
       <c r="AB11" s="11">
-        <v>227540</v>
+        <v>197560</v>
       </c>
       <c r="AC11" s="11">
-        <v>207720</v>
+        <v>180800</v>
       </c>
       <c r="AD11" s="11">
-        <v>197560</v>
+        <v>163760</v>
       </c>
       <c r="AE11" s="11">
-        <v>180800</v>
+        <v>78840</v>
       </c>
       <c r="AF11" s="11">
-        <v>163760</v>
+        <v>109700</v>
       </c>
       <c r="AG11" s="11">
-        <v>78840</v>
+        <v>220450</v>
       </c>
       <c r="AH11" s="11">
-        <v>109700</v>
+        <v>227560</v>
       </c>
       <c r="AI11" s="11">
-        <v>220450</v>
+        <v>211440</v>
       </c>
       <c r="AJ11" s="11">
-        <v>227560</v>
+        <v>149740</v>
       </c>
       <c r="AK11" s="11">
-        <v>211440</v>
+        <v>84760</v>
       </c>
       <c r="AL11" s="11">
-        <v>149740</v>
+        <v>96900</v>
       </c>
       <c r="AM11" s="11">
-        <v>84760</v>
+        <v>132730</v>
       </c>
       <c r="AN11" s="11">
-        <v>96900</v>
+        <v>214160</v>
       </c>
       <c r="AO11" s="11">
-        <v>132730</v>
+        <v>218350</v>
       </c>
       <c r="AP11" s="11">
-        <v>214160</v>
+        <v>166550</v>
       </c>
       <c r="AQ11" s="11">
-        <v>218350</v>
+        <v>168620</v>
       </c>
       <c r="AR11" s="11">
-        <v>166550</v>
+        <v>114940</v>
       </c>
       <c r="AS11" s="11">
-        <v>168620</v>
+        <v>213490</v>
       </c>
       <c r="AT11" s="11">
-        <v>114940</v>
+        <v>191470</v>
       </c>
       <c r="AU11" s="11">
-        <v>213490</v>
+        <v>226080</v>
       </c>
       <c r="AV11" s="11">
-        <v>191470</v>
+        <v>219950</v>
       </c>
       <c r="AW11" s="11">
-        <v>226080</v>
+        <v>122390</v>
       </c>
       <c r="AX11" s="11">
-        <v>219950</v>
+        <v>103130</v>
       </c>
       <c r="AY11" s="11">
-        <v>122390</v>
+        <v>117210</v>
       </c>
       <c r="AZ11" s="11">
-        <v>103130</v>
+        <v>218140</v>
       </c>
       <c r="BA11" s="11">
-        <v>117210</v>
+        <v>210040</v>
       </c>
       <c r="BB11" s="11">
-        <v>218140</v>
+        <v>208060</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1702,32 +1702,32 @@
       <c r="AS12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV12" s="13" t="s">
-        <v>58</v>
+      <c r="AT12" s="13">
+        <v>5741</v>
+      </c>
+      <c r="AU12" s="13">
+        <v>13395</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>11670</v>
       </c>
       <c r="AW12" s="13">
-        <v>13395</v>
+        <v>20194</v>
       </c>
       <c r="AX12" s="13">
-        <v>11670</v>
+        <v>22598</v>
       </c>
       <c r="AY12" s="13">
-        <v>20194</v>
+        <v>11807</v>
       </c>
       <c r="AZ12" s="13">
-        <v>22598</v>
+        <v>21898</v>
       </c>
       <c r="BA12" s="13">
-        <v>11807</v>
+        <v>20862</v>
       </c>
       <c r="BB12" s="13">
-        <v>21898</v>
+        <v>15675</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1739,28 +1739,28 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>55233</v>
+        <v>64506</v>
       </c>
       <c r="F13" s="11">
-        <v>81021</v>
+        <v>68019</v>
       </c>
       <c r="G13" s="11">
-        <v>64506</v>
+        <v>67084</v>
       </c>
       <c r="H13" s="11">
-        <v>68019</v>
+        <v>82025</v>
       </c>
       <c r="I13" s="11">
-        <v>67084</v>
+        <v>96209</v>
       </c>
       <c r="J13" s="11">
-        <v>82025</v>
+        <v>41883</v>
       </c>
       <c r="K13" s="11">
-        <v>96209</v>
+        <v>0</v>
       </c>
       <c r="L13" s="11">
-        <v>41883</v>
+        <v>0</v>
       </c>
       <c r="M13" s="11">
         <v>0</v>
@@ -1780,11 +1780,11 @@
       <c r="R13" s="11">
         <v>0</v>
       </c>
-      <c r="S13" s="11">
-        <v>0</v>
-      </c>
-      <c r="T13" s="11">
-        <v>0</v>
+      <c r="S13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="U13" s="11" t="s">
         <v>58</v>
@@ -1816,59 +1816,59 @@
       <c r="AD13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF13" s="11" t="s">
-        <v>58</v>
+      <c r="AE13" s="11">
+        <v>90300</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>109292</v>
       </c>
       <c r="AG13" s="11">
-        <v>90300</v>
+        <v>114851</v>
       </c>
       <c r="AH13" s="11">
-        <v>109292</v>
+        <v>103044</v>
       </c>
       <c r="AI13" s="11">
-        <v>114851</v>
+        <v>112753</v>
       </c>
       <c r="AJ13" s="11">
-        <v>103044</v>
+        <v>101486</v>
       </c>
       <c r="AK13" s="11">
-        <v>112753</v>
+        <v>74042</v>
       </c>
       <c r="AL13" s="11">
-        <v>101486</v>
+        <v>50045</v>
       </c>
       <c r="AM13" s="11">
-        <v>74042</v>
+        <v>103027</v>
       </c>
       <c r="AN13" s="11">
-        <v>50045</v>
+        <v>74815</v>
       </c>
       <c r="AO13" s="11">
-        <v>103027</v>
+        <v>75623</v>
       </c>
       <c r="AP13" s="11">
-        <v>74815</v>
+        <v>80101</v>
       </c>
       <c r="AQ13" s="11">
-        <v>75623</v>
+        <v>72874</v>
       </c>
       <c r="AR13" s="11">
-        <v>80101</v>
+        <v>75685</v>
       </c>
       <c r="AS13" s="11">
-        <v>72874</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>75685</v>
-      </c>
-      <c r="AU13" s="11">
         <v>79060</v>
       </c>
-      <c r="AV13" s="11">
-        <v>58313</v>
+      <c r="AT13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW13" s="11" t="s">
         <v>58</v>
@@ -1898,28 +1898,28 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>38707</v>
+        <v>41234</v>
       </c>
       <c r="F14" s="13">
-        <v>41429</v>
+        <v>36551</v>
       </c>
       <c r="G14" s="13">
-        <v>41234</v>
+        <v>32096</v>
       </c>
       <c r="H14" s="13">
-        <v>36551</v>
+        <v>45665</v>
       </c>
       <c r="I14" s="13">
-        <v>32096</v>
+        <v>79794</v>
       </c>
       <c r="J14" s="13">
-        <v>45665</v>
+        <v>43703</v>
       </c>
       <c r="K14" s="13">
-        <v>79794</v>
+        <v>0</v>
       </c>
       <c r="L14" s="13">
-        <v>43703</v>
+        <v>0</v>
       </c>
       <c r="M14" s="13">
         <v>0</v>
@@ -1939,11 +1939,11 @@
       <c r="R14" s="13">
         <v>0</v>
       </c>
-      <c r="S14" s="13">
-        <v>0</v>
-      </c>
-      <c r="T14" s="13">
-        <v>0</v>
+      <c r="S14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="U14" s="13" t="s">
         <v>58</v>
@@ -1975,59 +1975,59 @@
       <c r="AD14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF14" s="13" t="s">
-        <v>58</v>
+      <c r="AE14" s="13">
+        <v>83686</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>95299</v>
       </c>
       <c r="AG14" s="13">
-        <v>83686</v>
+        <v>103899</v>
       </c>
       <c r="AH14" s="13">
-        <v>95299</v>
+        <v>73138</v>
       </c>
       <c r="AI14" s="13">
-        <v>103899</v>
+        <v>85540</v>
       </c>
       <c r="AJ14" s="13">
-        <v>73138</v>
+        <v>88404</v>
       </c>
       <c r="AK14" s="13">
-        <v>85540</v>
+        <v>57942</v>
       </c>
       <c r="AL14" s="13">
-        <v>88404</v>
+        <v>50935</v>
       </c>
       <c r="AM14" s="13">
-        <v>57942</v>
+        <v>73980</v>
       </c>
       <c r="AN14" s="13">
-        <v>50935</v>
+        <v>71950</v>
       </c>
       <c r="AO14" s="13">
-        <v>73980</v>
+        <v>77849</v>
       </c>
       <c r="AP14" s="13">
-        <v>71950</v>
+        <v>88574</v>
       </c>
       <c r="AQ14" s="13">
-        <v>77849</v>
+        <v>73342</v>
       </c>
       <c r="AR14" s="13">
-        <v>88574</v>
+        <v>76170</v>
       </c>
       <c r="AS14" s="13">
-        <v>73342</v>
-      </c>
-      <c r="AT14" s="13">
-        <v>76170</v>
-      </c>
-      <c r="AU14" s="13">
         <v>84686</v>
       </c>
-      <c r="AV14" s="13">
-        <v>73346</v>
+      <c r="AT14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW14" s="13" t="s">
         <v>58</v>
@@ -2179,32 +2179,32 @@
       <c r="AS15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV15" s="11" t="s">
-        <v>58</v>
+      <c r="AT15" s="11">
+        <v>58313</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>87370</v>
+      </c>
+      <c r="AV15" s="11">
+        <v>67637</v>
       </c>
       <c r="AW15" s="11">
-        <v>87370</v>
+        <v>83560</v>
       </c>
       <c r="AX15" s="11">
-        <v>67637</v>
+        <v>84944</v>
       </c>
       <c r="AY15" s="11">
-        <v>83560</v>
+        <v>83014</v>
       </c>
       <c r="AZ15" s="11">
-        <v>84944</v>
+        <v>70044</v>
       </c>
       <c r="BA15" s="11">
-        <v>83014</v>
+        <v>80984</v>
       </c>
       <c r="BB15" s="11">
-        <v>70044</v>
+        <v>72890</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2338,32 +2338,32 @@
       <c r="AS16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV16" s="13" t="s">
-        <v>58</v>
+      <c r="AT16" s="13">
+        <v>73346</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>93815</v>
+      </c>
+      <c r="AV16" s="13">
+        <v>66563</v>
       </c>
       <c r="AW16" s="13">
-        <v>93815</v>
+        <v>75086</v>
       </c>
       <c r="AX16" s="13">
-        <v>66563</v>
+        <v>86238</v>
       </c>
       <c r="AY16" s="13">
-        <v>75086</v>
+        <v>94969</v>
       </c>
       <c r="AZ16" s="13">
-        <v>86238</v>
+        <v>102885</v>
       </c>
       <c r="BA16" s="13">
-        <v>94969</v>
+        <v>91383</v>
       </c>
       <c r="BB16" s="13">
-        <v>102885</v>
+        <v>97245</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2380,23 +2380,23 @@
       <c r="F17" s="11">
         <v>0</v>
       </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
+      <c r="G17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>58</v>
+      <c r="J17" s="11">
+        <v>12967</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
       </c>
       <c r="L17" s="11">
-        <v>12967</v>
+        <v>0</v>
       </c>
       <c r="M17" s="11">
         <v>0</v>
@@ -2416,11 +2416,11 @@
       <c r="R17" s="11">
         <v>0</v>
       </c>
-      <c r="S17" s="11">
-        <v>0</v>
-      </c>
-      <c r="T17" s="11">
-        <v>0</v>
+      <c r="S17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="U17" s="11" t="s">
         <v>58</v>
@@ -2452,59 +2452,59 @@
       <c r="AD17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF17" s="11" t="s">
-        <v>58</v>
+      <c r="AE17" s="11">
+        <v>3164</v>
+      </c>
+      <c r="AF17" s="11">
+        <v>4639</v>
       </c>
       <c r="AG17" s="11">
-        <v>3164</v>
+        <v>14170</v>
       </c>
       <c r="AH17" s="11">
-        <v>4639</v>
+        <v>52358</v>
       </c>
       <c r="AI17" s="11">
-        <v>14170</v>
+        <v>26167</v>
       </c>
       <c r="AJ17" s="11">
-        <v>52358</v>
+        <v>2190</v>
       </c>
       <c r="AK17" s="11">
-        <v>26167</v>
+        <v>2786</v>
       </c>
       <c r="AL17" s="11">
-        <v>2190</v>
+        <v>4870</v>
       </c>
       <c r="AM17" s="11">
-        <v>2786</v>
+        <v>4283</v>
       </c>
       <c r="AN17" s="11">
-        <v>4870</v>
+        <v>8354</v>
       </c>
       <c r="AO17" s="11">
-        <v>4283</v>
+        <v>10568</v>
       </c>
       <c r="AP17" s="11">
-        <v>8354</v>
+        <v>11526</v>
       </c>
       <c r="AQ17" s="11">
-        <v>10568</v>
+        <v>3154</v>
       </c>
       <c r="AR17" s="11">
-        <v>11526</v>
+        <v>3275</v>
       </c>
       <c r="AS17" s="11">
-        <v>3154</v>
-      </c>
-      <c r="AT17" s="11">
-        <v>3275</v>
-      </c>
-      <c r="AU17" s="11">
         <v>6874</v>
       </c>
-      <c r="AV17" s="11">
-        <v>5741</v>
+      <c r="AT17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW17" s="11" t="s">
         <v>58</v>
@@ -2551,71 +2551,71 @@
       <c r="J18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>58</v>
+      <c r="K18" s="13">
+        <v>202784</v>
+      </c>
+      <c r="L18" s="13">
+        <v>178230</v>
       </c>
       <c r="M18" s="13">
-        <v>202784</v>
+        <v>159630</v>
       </c>
       <c r="N18" s="13">
-        <v>178230</v>
+        <v>136490</v>
       </c>
       <c r="O18" s="13">
-        <v>159630</v>
+        <v>145580</v>
       </c>
       <c r="P18" s="13">
-        <v>136490</v>
+        <v>150730</v>
       </c>
       <c r="Q18" s="13">
-        <v>145580</v>
+        <v>135820</v>
       </c>
       <c r="R18" s="13">
-        <v>150730</v>
+        <v>132770</v>
       </c>
       <c r="S18" s="13">
-        <v>135820</v>
+        <v>154100</v>
       </c>
       <c r="T18" s="13">
-        <v>132770</v>
+        <v>141300</v>
       </c>
       <c r="U18" s="13">
-        <v>154100</v>
+        <v>181230</v>
       </c>
       <c r="V18" s="13">
-        <v>141300</v>
+        <v>104070</v>
       </c>
       <c r="W18" s="13">
-        <v>181230</v>
+        <v>153100</v>
       </c>
       <c r="X18" s="13">
-        <v>104070</v>
+        <v>207550</v>
       </c>
       <c r="Y18" s="13">
-        <v>153100</v>
+        <v>214300</v>
       </c>
       <c r="Z18" s="13">
-        <v>207550</v>
+        <v>166780</v>
       </c>
       <c r="AA18" s="13">
-        <v>214300</v>
+        <v>170240</v>
       </c>
       <c r="AB18" s="13">
-        <v>166780</v>
+        <v>204470</v>
       </c>
       <c r="AC18" s="13">
-        <v>170240</v>
+        <v>239770</v>
       </c>
       <c r="AD18" s="13">
-        <v>204470</v>
-      </c>
-      <c r="AE18" s="13">
-        <v>239770</v>
-      </c>
-      <c r="AF18" s="13">
         <v>184000</v>
+      </c>
+      <c r="AE18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG18" s="13" t="s">
         <v>58</v>
@@ -2806,14 +2806,14 @@
       <c r="AP19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ19" s="11" t="s">
-        <v>58</v>
+      <c r="AQ19" s="11">
+        <v>0</v>
       </c>
       <c r="AR19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS19" s="11">
-        <v>0</v>
+      <c r="AS19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT19" s="11" t="s">
         <v>58</v>
@@ -2984,11 +2984,11 @@
       <c r="AD21" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AE21" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF21" s="17" t="s">
-        <v>58</v>
+      <c r="AE21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="17">
+        <v>0</v>
       </c>
       <c r="AG21" s="17">
         <v>0</v>
@@ -3064,154 +3064,154 @@
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19">
-        <v>197370</v>
+        <v>196590</v>
       </c>
       <c r="F22" s="19">
-        <v>236330</v>
+        <v>176000</v>
       </c>
       <c r="G22" s="19">
-        <v>196590</v>
+        <v>199930</v>
       </c>
       <c r="H22" s="19">
-        <v>176000</v>
+        <v>228410</v>
       </c>
       <c r="I22" s="19">
-        <v>199930</v>
+        <v>271073</v>
       </c>
       <c r="J22" s="19">
-        <v>228410</v>
+        <v>174583</v>
       </c>
       <c r="K22" s="19">
-        <v>271073</v>
+        <v>377784</v>
       </c>
       <c r="L22" s="19">
-        <v>174583</v>
+        <v>403140</v>
       </c>
       <c r="M22" s="19">
-        <v>377784</v>
+        <v>377320</v>
       </c>
       <c r="N22" s="19">
-        <v>403140</v>
+        <v>359860</v>
       </c>
       <c r="O22" s="19">
-        <v>377320</v>
+        <v>321270</v>
       </c>
       <c r="P22" s="19">
-        <v>359860</v>
+        <v>309490</v>
       </c>
       <c r="Q22" s="19">
-        <v>321270</v>
+        <v>276450</v>
       </c>
       <c r="R22" s="19">
-        <v>309490</v>
+        <v>235230</v>
       </c>
       <c r="S22" s="19">
-        <v>276450</v>
+        <v>252510</v>
       </c>
       <c r="T22" s="19">
-        <v>235230</v>
+        <v>240310</v>
       </c>
       <c r="U22" s="19">
-        <v>252510</v>
+        <v>278070</v>
       </c>
       <c r="V22" s="19">
-        <v>240310</v>
+        <v>198190</v>
       </c>
       <c r="W22" s="19">
-        <v>278070</v>
+        <v>314500</v>
       </c>
       <c r="X22" s="19">
-        <v>198190</v>
+        <v>344390</v>
       </c>
       <c r="Y22" s="19">
-        <v>314500</v>
+        <v>439130</v>
       </c>
       <c r="Z22" s="19">
-        <v>344390</v>
+        <v>394320</v>
       </c>
       <c r="AA22" s="19">
-        <v>439130</v>
+        <v>377960</v>
       </c>
       <c r="AB22" s="19">
-        <v>394320</v>
+        <v>402030</v>
       </c>
       <c r="AC22" s="19">
-        <v>377960</v>
+        <v>420570</v>
       </c>
       <c r="AD22" s="19">
-        <v>402030</v>
+        <v>347760</v>
       </c>
       <c r="AE22" s="19">
-        <v>420570</v>
+        <v>255990</v>
       </c>
       <c r="AF22" s="19">
-        <v>347760</v>
+        <v>318930</v>
       </c>
       <c r="AG22" s="19">
-        <v>255990</v>
+        <v>453370</v>
       </c>
       <c r="AH22" s="19">
-        <v>318930</v>
+        <v>456100</v>
       </c>
       <c r="AI22" s="19">
-        <v>453370</v>
+        <v>435900</v>
       </c>
       <c r="AJ22" s="19">
-        <v>456100</v>
+        <v>341820</v>
       </c>
       <c r="AK22" s="19">
-        <v>435900</v>
+        <v>219530</v>
       </c>
       <c r="AL22" s="19">
-        <v>341820</v>
+        <v>202750</v>
       </c>
       <c r="AM22" s="19">
-        <v>219530</v>
+        <v>314020</v>
       </c>
       <c r="AN22" s="19">
-        <v>202750</v>
+        <v>369279</v>
       </c>
       <c r="AO22" s="19">
-        <v>314020</v>
+        <v>382390</v>
       </c>
       <c r="AP22" s="19">
-        <v>369279</v>
+        <v>346751</v>
       </c>
       <c r="AQ22" s="19">
-        <v>382390</v>
+        <v>317990</v>
       </c>
       <c r="AR22" s="19">
-        <v>346751</v>
+        <v>270070</v>
       </c>
       <c r="AS22" s="19">
-        <v>317990</v>
+        <v>384110</v>
       </c>
       <c r="AT22" s="19">
-        <v>270070</v>
+        <v>328870</v>
       </c>
       <c r="AU22" s="19">
-        <v>384110</v>
+        <v>420660</v>
       </c>
       <c r="AV22" s="19">
-        <v>328870</v>
+        <v>365820</v>
       </c>
       <c r="AW22" s="19">
-        <v>420660</v>
+        <v>301230</v>
       </c>
       <c r="AX22" s="19">
-        <v>365820</v>
+        <v>296910</v>
       </c>
       <c r="AY22" s="19">
-        <v>301230</v>
+        <v>307000</v>
       </c>
       <c r="AZ22" s="19">
-        <v>296910</v>
+        <v>412966</v>
       </c>
       <c r="BA22" s="19">
-        <v>307000</v>
+        <v>403268</v>
       </c>
       <c r="BB22" s="19">
-        <v>412966</v>
+        <v>393870</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3747,22 +3747,22 @@
         <v>0</v>
       </c>
       <c r="AI29" s="11">
-        <v>0</v>
+        <v>4887</v>
       </c>
       <c r="AJ29" s="11">
-        <v>0</v>
+        <v>1912</v>
       </c>
       <c r="AK29" s="11">
-        <v>4887</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="11">
-        <v>1912</v>
+        <v>2192</v>
       </c>
       <c r="AM29" s="11">
         <v>0</v>
       </c>
       <c r="AN29" s="11">
-        <v>2192</v>
+        <v>0</v>
       </c>
       <c r="AO29" s="11">
         <v>0</v>
@@ -3786,25 +3786,25 @@
         <v>0</v>
       </c>
       <c r="AV29" s="11">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="AW29" s="11">
         <v>0</v>
       </c>
       <c r="AX29" s="11">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AY29" s="11">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="AZ29" s="11">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="BA29" s="11">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="BB29" s="11">
-        <v>3900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3938,32 +3938,32 @@
       <c r="AS30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV30" s="13" t="s">
-        <v>58</v>
+      <c r="AT30" s="13">
+        <v>5765</v>
+      </c>
+      <c r="AU30" s="13">
+        <v>12935</v>
+      </c>
+      <c r="AV30" s="13">
+        <v>12530</v>
       </c>
       <c r="AW30" s="13">
-        <v>12935</v>
+        <v>20873</v>
       </c>
       <c r="AX30" s="13">
-        <v>12530</v>
+        <v>20405</v>
       </c>
       <c r="AY30" s="13">
-        <v>20873</v>
+        <v>12269</v>
       </c>
       <c r="AZ30" s="13">
-        <v>20405</v>
+        <v>16839</v>
       </c>
       <c r="BA30" s="13">
-        <v>12269</v>
+        <v>19786</v>
       </c>
       <c r="BB30" s="13">
-        <v>16839</v>
+        <v>16397</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -3975,28 +3975,28 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>66663</v>
+        <v>69579</v>
       </c>
       <c r="F31" s="11">
-        <v>67015</v>
+        <v>50867</v>
       </c>
       <c r="G31" s="11">
-        <v>69579</v>
+        <v>65909</v>
       </c>
       <c r="H31" s="11">
-        <v>50867</v>
+        <v>80311</v>
       </c>
       <c r="I31" s="11">
-        <v>65909</v>
+        <v>98684</v>
       </c>
       <c r="J31" s="11">
-        <v>80311</v>
+        <v>48071</v>
       </c>
       <c r="K31" s="11">
-        <v>98684</v>
+        <v>0</v>
       </c>
       <c r="L31" s="11">
-        <v>48071</v>
+        <v>0</v>
       </c>
       <c r="M31" s="11">
         <v>0</v>
@@ -4016,11 +4016,11 @@
       <c r="R31" s="11">
         <v>0</v>
       </c>
-      <c r="S31" s="11">
-        <v>0</v>
-      </c>
-      <c r="T31" s="11">
-        <v>0</v>
+      <c r="S31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="U31" s="11" t="s">
         <v>58</v>
@@ -4052,59 +4052,59 @@
       <c r="AD31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF31" s="11" t="s">
-        <v>58</v>
+      <c r="AE31" s="11">
+        <v>89161</v>
+      </c>
+      <c r="AF31" s="11">
+        <v>113357</v>
       </c>
       <c r="AG31" s="11">
-        <v>89161</v>
+        <v>117578</v>
       </c>
       <c r="AH31" s="11">
-        <v>113357</v>
+        <v>94458</v>
       </c>
       <c r="AI31" s="11">
-        <v>117578</v>
+        <v>108306</v>
       </c>
       <c r="AJ31" s="11">
-        <v>94458</v>
+        <v>112681</v>
       </c>
       <c r="AK31" s="11">
-        <v>108306</v>
+        <v>66704</v>
       </c>
       <c r="AL31" s="11">
-        <v>112681</v>
+        <v>58378</v>
       </c>
       <c r="AM31" s="11">
-        <v>66704</v>
+        <v>98093</v>
       </c>
       <c r="AN31" s="11">
-        <v>58378</v>
+        <v>72987</v>
       </c>
       <c r="AO31" s="11">
-        <v>98093</v>
+        <v>78388</v>
       </c>
       <c r="AP31" s="11">
-        <v>72987</v>
+        <v>76964</v>
       </c>
       <c r="AQ31" s="11">
-        <v>78388</v>
+        <v>70245</v>
       </c>
       <c r="AR31" s="11">
-        <v>76964</v>
+        <v>70332</v>
       </c>
       <c r="AS31" s="11">
-        <v>70245</v>
-      </c>
-      <c r="AT31" s="11">
-        <v>70332</v>
-      </c>
-      <c r="AU31" s="11">
         <v>77798</v>
       </c>
-      <c r="AV31" s="11">
-        <v>58557</v>
+      <c r="AT31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW31" s="11" t="s">
         <v>58</v>
@@ -4134,28 +4134,28 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>46744</v>
+        <v>44476</v>
       </c>
       <c r="F32" s="13">
-        <v>46922</v>
+        <v>27334</v>
       </c>
       <c r="G32" s="13">
-        <v>44476</v>
+        <v>31534</v>
       </c>
       <c r="H32" s="13">
-        <v>27334</v>
+        <v>44710</v>
       </c>
       <c r="I32" s="13">
-        <v>31534</v>
+        <v>81844</v>
       </c>
       <c r="J32" s="13">
-        <v>44710</v>
+        <v>50160</v>
       </c>
       <c r="K32" s="13">
-        <v>81844</v>
+        <v>0</v>
       </c>
       <c r="L32" s="13">
-        <v>50160</v>
+        <v>0</v>
       </c>
       <c r="M32" s="13">
         <v>0</v>
@@ -4175,11 +4175,11 @@
       <c r="R32" s="13">
         <v>0</v>
       </c>
-      <c r="S32" s="13">
-        <v>0</v>
-      </c>
-      <c r="T32" s="13">
-        <v>0</v>
+      <c r="S32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="U32" s="13" t="s">
         <v>58</v>
@@ -4211,59 +4211,59 @@
       <c r="AD32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF32" s="13" t="s">
-        <v>58</v>
+      <c r="AE32" s="13">
+        <v>82630</v>
+      </c>
+      <c r="AF32" s="13">
+        <v>98843</v>
       </c>
       <c r="AG32" s="13">
-        <v>82630</v>
+        <v>106366</v>
       </c>
       <c r="AH32" s="13">
-        <v>98843</v>
+        <v>67044</v>
       </c>
       <c r="AI32" s="13">
-        <v>106366</v>
+        <v>82167</v>
       </c>
       <c r="AJ32" s="13">
-        <v>67044</v>
+        <v>98156</v>
       </c>
       <c r="AK32" s="13">
-        <v>82167</v>
+        <v>52200</v>
       </c>
       <c r="AL32" s="13">
-        <v>98156</v>
+        <v>59416</v>
       </c>
       <c r="AM32" s="13">
-        <v>52200</v>
+        <v>70437</v>
       </c>
       <c r="AN32" s="13">
-        <v>59416</v>
+        <v>70191</v>
       </c>
       <c r="AO32" s="13">
-        <v>70437</v>
+        <v>80694</v>
       </c>
       <c r="AP32" s="13">
-        <v>70191</v>
+        <v>85104</v>
       </c>
       <c r="AQ32" s="13">
-        <v>80694</v>
+        <v>70696</v>
       </c>
       <c r="AR32" s="13">
-        <v>85104</v>
+        <v>78327</v>
       </c>
       <c r="AS32" s="13">
-        <v>70696</v>
-      </c>
-      <c r="AT32" s="13">
-        <v>78327</v>
-      </c>
-      <c r="AU32" s="13">
         <v>83333</v>
       </c>
-      <c r="AV32" s="13">
-        <v>73653</v>
+      <c r="AT32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW32" s="13" t="s">
         <v>58</v>
@@ -4415,32 +4415,32 @@
       <c r="AS33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV33" s="11" t="s">
-        <v>58</v>
+      <c r="AT33" s="11">
+        <v>58557</v>
+      </c>
+      <c r="AU33" s="11">
+        <v>84374</v>
+      </c>
+      <c r="AV33" s="11">
+        <v>81661</v>
       </c>
       <c r="AW33" s="11">
-        <v>84374</v>
+        <v>80952</v>
       </c>
       <c r="AX33" s="11">
-        <v>81661</v>
+        <v>76696</v>
       </c>
       <c r="AY33" s="11">
-        <v>80952</v>
+        <v>86267</v>
       </c>
       <c r="AZ33" s="11">
-        <v>76696</v>
+        <v>75618</v>
       </c>
       <c r="BA33" s="11">
-        <v>86267</v>
+        <v>73210</v>
       </c>
       <c r="BB33" s="11">
-        <v>75618</v>
+        <v>76249</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4574,32 +4574,32 @@
       <c r="AS34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV34" s="13" t="s">
-        <v>58</v>
+      <c r="AT34" s="13">
+        <v>73653</v>
+      </c>
+      <c r="AU34" s="13">
+        <v>90595</v>
+      </c>
+      <c r="AV34" s="13">
+        <v>80455</v>
       </c>
       <c r="AW34" s="13">
-        <v>90595</v>
+        <v>72620</v>
       </c>
       <c r="AX34" s="13">
-        <v>80455</v>
+        <v>77866</v>
       </c>
       <c r="AY34" s="13">
-        <v>72620</v>
+        <v>98690</v>
       </c>
       <c r="AZ34" s="13">
-        <v>77866</v>
+        <v>100865</v>
       </c>
       <c r="BA34" s="13">
-        <v>98690</v>
+        <v>90838</v>
       </c>
       <c r="BB34" s="13">
-        <v>100865</v>
+        <v>101727</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4616,23 +4616,23 @@
       <c r="F35" s="11">
         <v>0</v>
       </c>
-      <c r="G35" s="11">
-        <v>0</v>
-      </c>
-      <c r="H35" s="11">
-        <v>0</v>
+      <c r="G35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>58</v>
+      <c r="J35" s="11">
+        <v>14880</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0</v>
       </c>
       <c r="L35" s="11">
-        <v>14880</v>
+        <v>0</v>
       </c>
       <c r="M35" s="11">
         <v>0</v>
@@ -4652,11 +4652,11 @@
       <c r="R35" s="11">
         <v>0</v>
       </c>
-      <c r="S35" s="11">
-        <v>0</v>
-      </c>
-      <c r="T35" s="11">
-        <v>0</v>
+      <c r="S35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="U35" s="11" t="s">
         <v>58</v>
@@ -4688,59 +4688,59 @@
       <c r="AD35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF35" s="11" t="s">
-        <v>58</v>
+      <c r="AE35" s="11">
+        <v>3124</v>
+      </c>
+      <c r="AF35" s="11">
+        <v>4812</v>
       </c>
       <c r="AG35" s="11">
-        <v>3124</v>
+        <v>14506</v>
       </c>
       <c r="AH35" s="11">
-        <v>4812</v>
+        <v>47996</v>
       </c>
       <c r="AI35" s="11">
-        <v>14506</v>
+        <v>25135</v>
       </c>
       <c r="AJ35" s="11">
-        <v>47996</v>
+        <v>2432</v>
       </c>
       <c r="AK35" s="11">
-        <v>25135</v>
+        <v>2510</v>
       </c>
       <c r="AL35" s="11">
-        <v>2432</v>
+        <v>5681</v>
       </c>
       <c r="AM35" s="11">
-        <v>2510</v>
+        <v>4078</v>
       </c>
       <c r="AN35" s="11">
-        <v>5681</v>
+        <v>8150</v>
       </c>
       <c r="AO35" s="11">
-        <v>4078</v>
+        <v>10954</v>
       </c>
       <c r="AP35" s="11">
-        <v>8150</v>
+        <v>11075</v>
       </c>
       <c r="AQ35" s="11">
-        <v>10954</v>
+        <v>3040</v>
       </c>
       <c r="AR35" s="11">
-        <v>11075</v>
+        <v>9186</v>
       </c>
       <c r="AS35" s="11">
-        <v>3040</v>
-      </c>
-      <c r="AT35" s="11">
-        <v>9186</v>
-      </c>
-      <c r="AU35" s="11">
         <v>6764</v>
       </c>
-      <c r="AV35" s="11">
-        <v>5765</v>
+      <c r="AT35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW35" s="11" t="s">
         <v>58</v>
@@ -4787,71 +4787,71 @@
       <c r="J36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="K36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>58</v>
+      <c r="K36" s="13">
+        <v>193985</v>
+      </c>
+      <c r="L36" s="13">
+        <v>182498</v>
       </c>
       <c r="M36" s="13">
-        <v>193985</v>
+        <v>152259</v>
       </c>
       <c r="N36" s="13">
-        <v>182498</v>
+        <v>134317</v>
       </c>
       <c r="O36" s="13">
-        <v>152259</v>
+        <v>143490</v>
       </c>
       <c r="P36" s="13">
-        <v>134317</v>
+        <v>157504</v>
       </c>
       <c r="Q36" s="13">
-        <v>143490</v>
+        <v>132389</v>
       </c>
       <c r="R36" s="13">
-        <v>157504</v>
+        <v>142453</v>
       </c>
       <c r="S36" s="13">
-        <v>132389</v>
+        <v>145859</v>
       </c>
       <c r="T36" s="13">
-        <v>142453</v>
+        <v>143747</v>
       </c>
       <c r="U36" s="13">
-        <v>145859</v>
+        <v>170938</v>
       </c>
       <c r="V36" s="13">
-        <v>143747</v>
+        <v>109594</v>
       </c>
       <c r="W36" s="13">
-        <v>170938</v>
+        <v>153036</v>
       </c>
       <c r="X36" s="13">
-        <v>109594</v>
+        <v>210053</v>
       </c>
       <c r="Y36" s="13">
-        <v>153036</v>
+        <v>211011</v>
       </c>
       <c r="Z36" s="13">
-        <v>210053</v>
+        <v>164465</v>
       </c>
       <c r="AA36" s="13">
-        <v>211011</v>
+        <v>192230</v>
       </c>
       <c r="AB36" s="13">
-        <v>164465</v>
+        <v>207251</v>
       </c>
       <c r="AC36" s="13">
-        <v>192230</v>
+        <v>230802</v>
       </c>
       <c r="AD36" s="13">
-        <v>207251</v>
-      </c>
-      <c r="AE36" s="13">
-        <v>230802</v>
-      </c>
-      <c r="AF36" s="13">
         <v>185013</v>
+      </c>
+      <c r="AE36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF36" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG36" s="13" t="s">
         <v>58</v>
@@ -5042,14 +5042,14 @@
       <c r="AP37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ37" s="11" t="s">
-        <v>58</v>
+      <c r="AQ37" s="11">
+        <v>0</v>
       </c>
       <c r="AR37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS37" s="11">
-        <v>0</v>
+      <c r="AS37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT37" s="11" t="s">
         <v>58</v>
@@ -5220,11 +5220,11 @@
       <c r="AD39" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AE39" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF39" s="17" t="s">
-        <v>58</v>
+      <c r="AE39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="17">
+        <v>0</v>
       </c>
       <c r="AG39" s="17">
         <v>0</v>
@@ -5434,11 +5434,11 @@
       <c r="AD41" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AE41" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF41" s="17" t="s">
-        <v>58</v>
+      <c r="AE41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="17">
+        <v>0</v>
       </c>
       <c r="AG41" s="17">
         <v>0</v>
@@ -5514,154 +5514,154 @@
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19">
-        <v>113407</v>
+        <v>114055</v>
       </c>
       <c r="F42" s="19">
-        <v>113937</v>
+        <v>78201</v>
       </c>
       <c r="G42" s="19">
-        <v>114055</v>
+        <v>97443</v>
       </c>
       <c r="H42" s="19">
-        <v>78201</v>
+        <v>125021</v>
       </c>
       <c r="I42" s="19">
-        <v>97443</v>
+        <v>180528</v>
       </c>
       <c r="J42" s="19">
-        <v>125021</v>
+        <v>113111</v>
       </c>
       <c r="K42" s="19">
-        <v>180528</v>
+        <v>193985</v>
       </c>
       <c r="L42" s="19">
-        <v>113111</v>
+        <v>182498</v>
       </c>
       <c r="M42" s="19">
-        <v>193985</v>
+        <v>152259</v>
       </c>
       <c r="N42" s="19">
-        <v>182498</v>
+        <v>134317</v>
       </c>
       <c r="O42" s="19">
-        <v>152259</v>
+        <v>143490</v>
       </c>
       <c r="P42" s="19">
-        <v>134317</v>
+        <v>157504</v>
       </c>
       <c r="Q42" s="19">
-        <v>143490</v>
+        <v>132389</v>
       </c>
       <c r="R42" s="19">
-        <v>157504</v>
+        <v>142453</v>
       </c>
       <c r="S42" s="19">
-        <v>132389</v>
+        <v>145859</v>
       </c>
       <c r="T42" s="19">
-        <v>142453</v>
+        <v>143747</v>
       </c>
       <c r="U42" s="19">
-        <v>145859</v>
+        <v>170938</v>
       </c>
       <c r="V42" s="19">
-        <v>143747</v>
+        <v>109594</v>
       </c>
       <c r="W42" s="19">
-        <v>170938</v>
+        <v>153036</v>
       </c>
       <c r="X42" s="19">
-        <v>109594</v>
+        <v>210053</v>
       </c>
       <c r="Y42" s="19">
-        <v>153036</v>
+        <v>211011</v>
       </c>
       <c r="Z42" s="19">
-        <v>210053</v>
+        <v>164465</v>
       </c>
       <c r="AA42" s="19">
-        <v>211011</v>
+        <v>192230</v>
       </c>
       <c r="AB42" s="19">
-        <v>164465</v>
+        <v>207251</v>
       </c>
       <c r="AC42" s="19">
-        <v>192230</v>
+        <v>230802</v>
       </c>
       <c r="AD42" s="19">
-        <v>207251</v>
+        <v>185013</v>
       </c>
       <c r="AE42" s="19">
-        <v>230802</v>
+        <v>174915</v>
       </c>
       <c r="AF42" s="19">
-        <v>185013</v>
+        <v>217012</v>
       </c>
       <c r="AG42" s="19">
-        <v>174915</v>
+        <v>238450</v>
       </c>
       <c r="AH42" s="19">
-        <v>217012</v>
+        <v>209498</v>
       </c>
       <c r="AI42" s="19">
-        <v>238450</v>
+        <v>220495</v>
       </c>
       <c r="AJ42" s="19">
-        <v>209498</v>
+        <v>215181</v>
       </c>
       <c r="AK42" s="19">
-        <v>220495</v>
+        <v>121414</v>
       </c>
       <c r="AL42" s="19">
-        <v>215181</v>
+        <v>125667</v>
       </c>
       <c r="AM42" s="19">
-        <v>121414</v>
+        <v>172608</v>
       </c>
       <c r="AN42" s="19">
-        <v>125667</v>
+        <v>151328</v>
       </c>
       <c r="AO42" s="19">
-        <v>172608</v>
+        <v>170036</v>
       </c>
       <c r="AP42" s="19">
-        <v>151328</v>
+        <v>173143</v>
       </c>
       <c r="AQ42" s="19">
-        <v>170036</v>
+        <v>143981</v>
       </c>
       <c r="AR42" s="19">
-        <v>173143</v>
+        <v>157845</v>
       </c>
       <c r="AS42" s="19">
-        <v>143981</v>
+        <v>167895</v>
       </c>
       <c r="AT42" s="19">
-        <v>157845</v>
+        <v>137975</v>
       </c>
       <c r="AU42" s="19">
-        <v>167895</v>
+        <v>187904</v>
       </c>
       <c r="AV42" s="19">
-        <v>137975</v>
+        <v>178646</v>
       </c>
       <c r="AW42" s="19">
-        <v>187904</v>
+        <v>174445</v>
       </c>
       <c r="AX42" s="19">
-        <v>178646</v>
+        <v>174967</v>
       </c>
       <c r="AY42" s="19">
-        <v>174445</v>
+        <v>202726</v>
       </c>
       <c r="AZ42" s="19">
-        <v>174967</v>
+        <v>197222</v>
       </c>
       <c r="BA42" s="19">
-        <v>202726</v>
+        <v>183835</v>
       </c>
       <c r="BB42" s="19">
-        <v>197222</v>
+        <v>194374</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -6197,22 +6197,22 @@
         <v>0</v>
       </c>
       <c r="AI49" s="11">
-        <v>0</v>
+        <v>20292</v>
       </c>
       <c r="AJ49" s="11">
-        <v>0</v>
+        <v>7945</v>
       </c>
       <c r="AK49" s="11">
-        <v>20292</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="11">
-        <v>7945</v>
+        <v>11155</v>
       </c>
       <c r="AM49" s="11">
         <v>0</v>
       </c>
       <c r="AN49" s="11">
-        <v>11155</v>
+        <v>0</v>
       </c>
       <c r="AO49" s="11">
         <v>0</v>
@@ -6236,25 +6236,25 @@
         <v>0</v>
       </c>
       <c r="AV49" s="11">
-        <v>0</v>
+        <v>32576</v>
       </c>
       <c r="AW49" s="11">
         <v>0</v>
       </c>
       <c r="AX49" s="11">
-        <v>32576</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="11">
-        <v>0</v>
+        <v>42722</v>
       </c>
       <c r="AZ49" s="11">
-        <v>0</v>
+        <v>29978</v>
       </c>
       <c r="BA49" s="11">
-        <v>42722</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="11">
-        <v>29978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6388,32 +6388,32 @@
       <c r="AS50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV50" s="13" t="s">
-        <v>58</v>
+      <c r="AT50" s="13">
+        <v>45914</v>
+      </c>
+      <c r="AU50" s="13">
+        <v>108484</v>
+      </c>
+      <c r="AV50" s="13">
+        <v>109898</v>
       </c>
       <c r="AW50" s="13">
-        <v>108484</v>
+        <v>198552</v>
       </c>
       <c r="AX50" s="13">
-        <v>109898</v>
+        <v>190889</v>
       </c>
       <c r="AY50" s="13">
-        <v>198552</v>
+        <v>117699</v>
       </c>
       <c r="AZ50" s="13">
-        <v>190889</v>
+        <v>162783</v>
       </c>
       <c r="BA50" s="13">
-        <v>117699</v>
+        <v>190653</v>
       </c>
       <c r="BB50" s="13">
-        <v>162783</v>
+        <v>156535</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -6425,28 +6425,28 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>81649</v>
+        <v>84058</v>
       </c>
       <c r="F51" s="11">
-        <v>82864</v>
+        <v>60031</v>
       </c>
       <c r="G51" s="11">
-        <v>84058</v>
+        <v>81074</v>
       </c>
       <c r="H51" s="11">
-        <v>60031</v>
+        <v>98062</v>
       </c>
       <c r="I51" s="11">
-        <v>81074</v>
+        <v>120196</v>
       </c>
       <c r="J51" s="11">
-        <v>98062</v>
+        <v>52791</v>
       </c>
       <c r="K51" s="11">
-        <v>120196</v>
+        <v>0</v>
       </c>
       <c r="L51" s="11">
-        <v>52791</v>
+        <v>0</v>
       </c>
       <c r="M51" s="11">
         <v>0</v>
@@ -6466,11 +6466,11 @@
       <c r="R51" s="11">
         <v>0</v>
       </c>
-      <c r="S51" s="11">
-        <v>0</v>
-      </c>
-      <c r="T51" s="11">
-        <v>0</v>
+      <c r="S51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="U51" s="11" t="s">
         <v>58</v>
@@ -6502,59 +6502,59 @@
       <c r="AD51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF51" s="11" t="s">
-        <v>58</v>
+      <c r="AE51" s="11">
+        <v>198101</v>
+      </c>
+      <c r="AF51" s="11">
+        <v>250404</v>
       </c>
       <c r="AG51" s="11">
-        <v>198101</v>
+        <v>259592</v>
       </c>
       <c r="AH51" s="11">
-        <v>250404</v>
+        <v>208235</v>
       </c>
       <c r="AI51" s="11">
-        <v>259592</v>
+        <v>333124</v>
       </c>
       <c r="AJ51" s="11">
-        <v>208235</v>
+        <v>346687</v>
       </c>
       <c r="AK51" s="11">
-        <v>333124</v>
+        <v>218627</v>
       </c>
       <c r="AL51" s="11">
-        <v>346687</v>
+        <v>324515</v>
       </c>
       <c r="AM51" s="11">
-        <v>218627</v>
+        <v>561291</v>
       </c>
       <c r="AN51" s="11">
-        <v>324515</v>
+        <v>306894</v>
       </c>
       <c r="AO51" s="11">
-        <v>561291</v>
+        <v>304178</v>
       </c>
       <c r="AP51" s="11">
-        <v>306894</v>
+        <v>387264</v>
       </c>
       <c r="AQ51" s="11">
-        <v>304178</v>
+        <v>330725</v>
       </c>
       <c r="AR51" s="11">
-        <v>387264</v>
+        <v>365140</v>
       </c>
       <c r="AS51" s="11">
-        <v>330725</v>
-      </c>
-      <c r="AT51" s="11">
-        <v>365140</v>
-      </c>
-      <c r="AU51" s="11">
         <v>409980</v>
       </c>
-      <c r="AV51" s="11">
-        <v>277405</v>
+      <c r="AT51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW51" s="11" t="s">
         <v>58</v>
@@ -6584,28 +6584,28 @@
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>60018</v>
+        <v>61299</v>
       </c>
       <c r="F52" s="13">
-        <v>61563</v>
+        <v>37332</v>
       </c>
       <c r="G52" s="13">
-        <v>61299</v>
+        <v>46325</v>
       </c>
       <c r="H52" s="13">
-        <v>37332</v>
+        <v>65453</v>
       </c>
       <c r="I52" s="13">
-        <v>46325</v>
+        <v>121597</v>
       </c>
       <c r="J52" s="13">
-        <v>65453</v>
+        <v>63966</v>
       </c>
       <c r="K52" s="13">
-        <v>121597</v>
+        <v>0</v>
       </c>
       <c r="L52" s="13">
-        <v>63966</v>
+        <v>0</v>
       </c>
       <c r="M52" s="13">
         <v>0</v>
@@ -6625,11 +6625,11 @@
       <c r="R52" s="13">
         <v>0</v>
       </c>
-      <c r="S52" s="13">
-        <v>0</v>
-      </c>
-      <c r="T52" s="13">
-        <v>0</v>
+      <c r="S52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="U52" s="13" t="s">
         <v>58</v>
@@ -6661,59 +6661,59 @@
       <c r="AD52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF52" s="13" t="s">
-        <v>58</v>
+      <c r="AE52" s="13">
+        <v>256539</v>
+      </c>
+      <c r="AF52" s="13">
+        <v>306680</v>
       </c>
       <c r="AG52" s="13">
-        <v>256539</v>
+        <v>330316</v>
       </c>
       <c r="AH52" s="13">
-        <v>306680</v>
+        <v>207645</v>
       </c>
       <c r="AI52" s="13">
-        <v>330316</v>
+        <v>351858</v>
       </c>
       <c r="AJ52" s="13">
-        <v>207645</v>
+        <v>423311</v>
       </c>
       <c r="AK52" s="13">
-        <v>351858</v>
+        <v>231710</v>
       </c>
       <c r="AL52" s="13">
-        <v>423311</v>
+        <v>325137</v>
       </c>
       <c r="AM52" s="13">
-        <v>231710</v>
+        <v>489315</v>
       </c>
       <c r="AN52" s="13">
-        <v>325137</v>
+        <v>392489</v>
       </c>
       <c r="AO52" s="13">
-        <v>489315</v>
+        <v>425572</v>
       </c>
       <c r="AP52" s="13">
-        <v>392489</v>
+        <v>523601</v>
       </c>
       <c r="AQ52" s="13">
-        <v>425572</v>
+        <v>413552</v>
       </c>
       <c r="AR52" s="13">
-        <v>523601</v>
+        <v>460329</v>
       </c>
       <c r="AS52" s="13">
-        <v>413552</v>
-      </c>
-      <c r="AT52" s="13">
-        <v>460329</v>
-      </c>
-      <c r="AU52" s="13">
         <v>504371</v>
       </c>
-      <c r="AV52" s="13">
-        <v>433325</v>
+      <c r="AT52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW52" s="13" t="s">
         <v>58</v>
@@ -6865,32 +6865,32 @@
       <c r="AS53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV53" s="11" t="s">
-        <v>58</v>
+      <c r="AT53" s="11">
+        <v>277405</v>
+      </c>
+      <c r="AU53" s="11">
+        <v>396597</v>
+      </c>
+      <c r="AV53" s="11">
+        <v>492554</v>
       </c>
       <c r="AW53" s="11">
-        <v>396597</v>
+        <v>638025</v>
       </c>
       <c r="AX53" s="11">
-        <v>492554</v>
+        <v>547976</v>
       </c>
       <c r="AY53" s="11">
-        <v>638025</v>
+        <v>608837</v>
       </c>
       <c r="AZ53" s="11">
-        <v>547976</v>
+        <v>521927</v>
       </c>
       <c r="BA53" s="11">
-        <v>608837</v>
+        <v>503058</v>
       </c>
       <c r="BB53" s="11">
-        <v>521927</v>
+        <v>518703</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7024,32 +7024,32 @@
       <c r="AS54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV54" s="13" t="s">
-        <v>58</v>
+      <c r="AT54" s="13">
+        <v>433325</v>
+      </c>
+      <c r="AU54" s="13">
+        <v>543797</v>
+      </c>
+      <c r="AV54" s="13">
+        <v>573285</v>
       </c>
       <c r="AW54" s="13">
-        <v>543797</v>
+        <v>599537</v>
       </c>
       <c r="AX54" s="13">
-        <v>573285</v>
+        <v>591711</v>
       </c>
       <c r="AY54" s="13">
-        <v>599537</v>
+        <v>714559</v>
       </c>
       <c r="AZ54" s="13">
-        <v>591711</v>
+        <v>737841</v>
       </c>
       <c r="BA54" s="13">
-        <v>714559</v>
+        <v>652799</v>
       </c>
       <c r="BB54" s="13">
-        <v>737841</v>
+        <v>714298</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7066,23 +7066,23 @@
       <c r="F55" s="11">
         <v>0</v>
       </c>
-      <c r="G55" s="11">
-        <v>0</v>
-      </c>
-      <c r="H55" s="11">
-        <v>0</v>
+      <c r="G55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K55" s="11" t="s">
-        <v>58</v>
+      <c r="J55" s="11">
+        <v>26604</v>
+      </c>
+      <c r="K55" s="11">
+        <v>0</v>
       </c>
       <c r="L55" s="11">
-        <v>26604</v>
+        <v>0</v>
       </c>
       <c r="M55" s="11">
         <v>0</v>
@@ -7102,11 +7102,11 @@
       <c r="R55" s="11">
         <v>0</v>
       </c>
-      <c r="S55" s="11">
-        <v>0</v>
-      </c>
-      <c r="T55" s="11">
-        <v>0</v>
+      <c r="S55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="U55" s="11" t="s">
         <v>58</v>
@@ -7138,59 +7138,59 @@
       <c r="AD55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF55" s="11" t="s">
-        <v>58</v>
+      <c r="AE55" s="11">
+        <v>17821</v>
+      </c>
+      <c r="AF55" s="11">
+        <v>26771</v>
       </c>
       <c r="AG55" s="11">
-        <v>17821</v>
+        <v>80811</v>
       </c>
       <c r="AH55" s="11">
-        <v>26771</v>
+        <v>264001</v>
       </c>
       <c r="AI55" s="11">
-        <v>80811</v>
+        <v>159120</v>
       </c>
       <c r="AJ55" s="11">
-        <v>264001</v>
+        <v>15004</v>
       </c>
       <c r="AK55" s="11">
-        <v>159120</v>
+        <v>15583</v>
       </c>
       <c r="AL55" s="11">
-        <v>15004</v>
+        <v>49149</v>
       </c>
       <c r="AM55" s="11">
-        <v>15583</v>
+        <v>34879</v>
       </c>
       <c r="AN55" s="11">
-        <v>49149</v>
+        <v>68148</v>
       </c>
       <c r="AO55" s="11">
-        <v>34879</v>
+        <v>89735</v>
       </c>
       <c r="AP55" s="11">
-        <v>68148</v>
+        <v>88788</v>
       </c>
       <c r="AQ55" s="11">
-        <v>89735</v>
+        <v>24660</v>
       </c>
       <c r="AR55" s="11">
-        <v>88788</v>
+        <v>71298</v>
       </c>
       <c r="AS55" s="11">
-        <v>24660</v>
-      </c>
-      <c r="AT55" s="11">
-        <v>71298</v>
-      </c>
-      <c r="AU55" s="11">
         <v>52640</v>
       </c>
-      <c r="AV55" s="11">
-        <v>45914</v>
+      <c r="AT55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW55" s="11" t="s">
         <v>58</v>
@@ -7237,71 +7237,71 @@
       <c r="J56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="K56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L56" s="13" t="s">
-        <v>58</v>
+      <c r="K56" s="13">
+        <v>281584</v>
+      </c>
+      <c r="L56" s="13">
+        <v>269111</v>
       </c>
       <c r="M56" s="13">
-        <v>281584</v>
+        <v>252593</v>
       </c>
       <c r="N56" s="13">
-        <v>269111</v>
+        <v>257221</v>
       </c>
       <c r="O56" s="13">
-        <v>252593</v>
+        <v>275545</v>
       </c>
       <c r="P56" s="13">
-        <v>257221</v>
+        <v>299825</v>
       </c>
       <c r="Q56" s="13">
-        <v>275545</v>
+        <v>252412</v>
       </c>
       <c r="R56" s="13">
-        <v>299825</v>
+        <v>271025</v>
       </c>
       <c r="S56" s="13">
-        <v>252412</v>
+        <v>277807</v>
       </c>
       <c r="T56" s="13">
-        <v>271025</v>
+        <v>279069</v>
       </c>
       <c r="U56" s="13">
-        <v>277807</v>
+        <v>337088</v>
       </c>
       <c r="V56" s="13">
-        <v>279069</v>
+        <v>243035</v>
       </c>
       <c r="W56" s="13">
-        <v>337088</v>
+        <v>293181</v>
       </c>
       <c r="X56" s="13">
-        <v>243035</v>
+        <v>416739</v>
       </c>
       <c r="Y56" s="13">
-        <v>293181</v>
+        <v>469882</v>
       </c>
       <c r="Z56" s="13">
-        <v>416739</v>
+        <v>405092</v>
       </c>
       <c r="AA56" s="13">
-        <v>469882</v>
+        <v>461960</v>
       </c>
       <c r="AB56" s="13">
-        <v>405092</v>
+        <v>531956</v>
       </c>
       <c r="AC56" s="13">
-        <v>461960</v>
+        <v>631830</v>
       </c>
       <c r="AD56" s="13">
-        <v>531956</v>
-      </c>
-      <c r="AE56" s="13">
-        <v>631830</v>
-      </c>
-      <c r="AF56" s="13">
         <v>492755</v>
+      </c>
+      <c r="AE56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG56" s="13" t="s">
         <v>58</v>
@@ -7492,14 +7492,14 @@
       <c r="AP57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ57" s="11" t="s">
-        <v>58</v>
+      <c r="AQ57" s="11">
+        <v>0</v>
       </c>
       <c r="AR57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS57" s="11">
-        <v>0</v>
+      <c r="AS57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT57" s="11" t="s">
         <v>58</v>
@@ -7672,11 +7672,11 @@
       <c r="AD59" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AE59" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF59" s="17" t="s">
-        <v>58</v>
+      <c r="AE59" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="17">
+        <v>0</v>
       </c>
       <c r="AG59" s="17">
         <v>0</v>
@@ -7888,11 +7888,11 @@
       <c r="AD61" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AE61" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF61" s="17" t="s">
-        <v>58</v>
+      <c r="AE61" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="17">
+        <v>0</v>
       </c>
       <c r="AG61" s="17">
         <v>0</v>
@@ -8104,11 +8104,11 @@
       <c r="AD63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF63" s="11" t="s">
-        <v>58</v>
+      <c r="AE63" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="11">
+        <v>0</v>
       </c>
       <c r="AG63" s="11">
         <v>0</v>
@@ -8184,154 +8184,154 @@
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19">
-        <v>141667</v>
+        <v>145357</v>
       </c>
       <c r="F64" s="19">
-        <v>144427</v>
+        <v>97363</v>
       </c>
       <c r="G64" s="19">
-        <v>145357</v>
+        <v>127399</v>
       </c>
       <c r="H64" s="19">
-        <v>97363</v>
+        <v>163515</v>
       </c>
       <c r="I64" s="19">
-        <v>127399</v>
+        <v>241793</v>
       </c>
       <c r="J64" s="19">
-        <v>163515</v>
+        <v>143361</v>
       </c>
       <c r="K64" s="19">
-        <v>241793</v>
+        <v>281584</v>
       </c>
       <c r="L64" s="19">
-        <v>143361</v>
+        <v>269111</v>
       </c>
       <c r="M64" s="19">
-        <v>281584</v>
+        <v>252593</v>
       </c>
       <c r="N64" s="19">
-        <v>269111</v>
+        <v>257221</v>
       </c>
       <c r="O64" s="19">
-        <v>252593</v>
+        <v>275545</v>
       </c>
       <c r="P64" s="19">
-        <v>257221</v>
+        <v>299825</v>
       </c>
       <c r="Q64" s="19">
-        <v>275545</v>
+        <v>252412</v>
       </c>
       <c r="R64" s="19">
-        <v>299825</v>
+        <v>271025</v>
       </c>
       <c r="S64" s="19">
-        <v>252412</v>
+        <v>277807</v>
       </c>
       <c r="T64" s="19">
-        <v>271025</v>
+        <v>279069</v>
       </c>
       <c r="U64" s="19">
-        <v>277807</v>
+        <v>337088</v>
       </c>
       <c r="V64" s="19">
-        <v>279069</v>
+        <v>243035</v>
       </c>
       <c r="W64" s="19">
-        <v>337088</v>
+        <v>293181</v>
       </c>
       <c r="X64" s="19">
-        <v>243035</v>
+        <v>416739</v>
       </c>
       <c r="Y64" s="19">
-        <v>293181</v>
+        <v>469882</v>
       </c>
       <c r="Z64" s="19">
-        <v>416739</v>
+        <v>405092</v>
       </c>
       <c r="AA64" s="19">
-        <v>469882</v>
+        <v>461960</v>
       </c>
       <c r="AB64" s="19">
-        <v>405092</v>
+        <v>531956</v>
       </c>
       <c r="AC64" s="19">
-        <v>461960</v>
+        <v>631830</v>
       </c>
       <c r="AD64" s="19">
-        <v>531956</v>
+        <v>492755</v>
       </c>
       <c r="AE64" s="19">
-        <v>631830</v>
+        <v>472461</v>
       </c>
       <c r="AF64" s="19">
-        <v>492755</v>
+        <v>583855</v>
       </c>
       <c r="AG64" s="19">
-        <v>472461</v>
+        <v>670719</v>
       </c>
       <c r="AH64" s="19">
-        <v>583855</v>
+        <v>679881</v>
       </c>
       <c r="AI64" s="19">
-        <v>670719</v>
+        <v>864394</v>
       </c>
       <c r="AJ64" s="19">
-        <v>679881</v>
+        <v>792947</v>
       </c>
       <c r="AK64" s="19">
-        <v>864394</v>
+        <v>465920</v>
       </c>
       <c r="AL64" s="19">
-        <v>792947</v>
+        <v>709956</v>
       </c>
       <c r="AM64" s="19">
-        <v>465920</v>
+        <v>1085485</v>
       </c>
       <c r="AN64" s="19">
-        <v>709956</v>
+        <v>767531</v>
       </c>
       <c r="AO64" s="19">
-        <v>1085485</v>
+        <v>819485</v>
       </c>
       <c r="AP64" s="19">
-        <v>767531</v>
+        <v>999653</v>
       </c>
       <c r="AQ64" s="19">
-        <v>819485</v>
+        <v>768937</v>
       </c>
       <c r="AR64" s="19">
-        <v>999653</v>
+        <v>896767</v>
       </c>
       <c r="AS64" s="19">
-        <v>768937</v>
+        <v>966991</v>
       </c>
       <c r="AT64" s="19">
-        <v>896767</v>
+        <v>756644</v>
       </c>
       <c r="AU64" s="19">
-        <v>966991</v>
+        <v>1048878</v>
       </c>
       <c r="AV64" s="19">
-        <v>756644</v>
+        <v>1208313</v>
       </c>
       <c r="AW64" s="19">
-        <v>1048878</v>
+        <v>1436114</v>
       </c>
       <c r="AX64" s="19">
-        <v>1208313</v>
+        <v>1330576</v>
       </c>
       <c r="AY64" s="19">
-        <v>1436114</v>
+        <v>1483817</v>
       </c>
       <c r="AZ64" s="19">
-        <v>1330576</v>
+        <v>1452529</v>
       </c>
       <c r="BA64" s="19">
-        <v>1483817</v>
+        <v>1346510</v>
       </c>
       <c r="BB64" s="19">
-        <v>1452529</v>
+        <v>1389536</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8854,11 +8854,11 @@
       <c r="AD71" s="11">
         <v>0</v>
       </c>
-      <c r="AE71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF71" s="11">
-        <v>0</v>
+      <c r="AE71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG71" s="11" t="s">
         <v>58</v>
@@ -8866,23 +8866,23 @@
       <c r="AH71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK71" s="11">
+      <c r="AI71" s="11">
         <v>4152241</v>
       </c>
+      <c r="AJ71" s="11">
+        <v>4155335</v>
+      </c>
+      <c r="AK71" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AL71" s="11">
-        <v>4155335</v>
+        <v>5088960</v>
       </c>
       <c r="AM71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN71" s="11">
-        <v>5088960</v>
+      <c r="AN71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO71" s="11" t="s">
         <v>58</v>
@@ -8905,26 +8905,26 @@
       <c r="AU71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV71" s="11" t="s">
-        <v>58</v>
+      <c r="AV71" s="11">
+        <v>8144000</v>
       </c>
       <c r="AW71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX71" s="11">
-        <v>8144000</v>
-      </c>
-      <c r="AY71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA71" s="11">
+      <c r="AX71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY71" s="11">
         <v>7767636</v>
       </c>
-      <c r="BB71" s="11">
+      <c r="AZ71" s="11">
         <v>7686667</v>
+      </c>
+      <c r="BA71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB71" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9058,32 +9058,32 @@
       <c r="AS72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV72" s="13" t="s">
-        <v>58</v>
+      <c r="AT72" s="13">
+        <v>7964267</v>
+      </c>
+      <c r="AU72" s="13">
+        <v>8386857</v>
+      </c>
+      <c r="AV72" s="13">
+        <v>8770790</v>
       </c>
       <c r="AW72" s="13">
-        <v>8386857</v>
+        <v>9512384</v>
       </c>
       <c r="AX72" s="13">
-        <v>8770790</v>
+        <v>9355011</v>
       </c>
       <c r="AY72" s="13">
-        <v>9512384</v>
+        <v>9593202</v>
       </c>
       <c r="AZ72" s="13">
-        <v>9355011</v>
+        <v>9667023</v>
       </c>
       <c r="BA72" s="13">
-        <v>9593202</v>
+        <v>9635606</v>
       </c>
       <c r="BB72" s="13">
-        <v>9667023</v>
+        <v>9546331</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -9095,28 +9095,28 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>1224802</v>
+        <v>1208094</v>
       </c>
       <c r="F73" s="11">
-        <v>1236499</v>
+        <v>1180156</v>
       </c>
       <c r="G73" s="11">
-        <v>1208094</v>
+        <v>1230090</v>
       </c>
       <c r="H73" s="11">
-        <v>1180156</v>
+        <v>1221028</v>
       </c>
       <c r="I73" s="11">
-        <v>1230090</v>
+        <v>1217989</v>
       </c>
       <c r="J73" s="11">
-        <v>1221028</v>
+        <v>1098188</v>
       </c>
       <c r="K73" s="11">
-        <v>1217989</v>
+        <v>0</v>
       </c>
       <c r="L73" s="11">
-        <v>1098188</v>
+        <v>0</v>
       </c>
       <c r="M73" s="11">
         <v>0</v>
@@ -9136,11 +9136,11 @@
       <c r="R73" s="11">
         <v>0</v>
       </c>
-      <c r="S73" s="11">
-        <v>0</v>
-      </c>
-      <c r="T73" s="11">
-        <v>0</v>
+      <c r="S73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="U73" s="11" t="s">
         <v>58</v>
@@ -9172,59 +9172,59 @@
       <c r="AD73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF73" s="11" t="s">
-        <v>58</v>
+      <c r="AE73" s="11">
+        <v>2221835</v>
+      </c>
+      <c r="AF73" s="11">
+        <v>2208986</v>
       </c>
       <c r="AG73" s="11">
-        <v>2221835</v>
+        <v>2207828</v>
       </c>
       <c r="AH73" s="11">
-        <v>2208986</v>
+        <v>2204525</v>
       </c>
       <c r="AI73" s="11">
-        <v>2207828</v>
+        <v>3075767</v>
       </c>
       <c r="AJ73" s="11">
-        <v>2204525</v>
+        <v>3076712</v>
       </c>
       <c r="AK73" s="11">
-        <v>3075767</v>
+        <v>3277570</v>
       </c>
       <c r="AL73" s="11">
-        <v>3076712</v>
+        <v>5558858</v>
       </c>
       <c r="AM73" s="11">
-        <v>3277570</v>
+        <v>5722029</v>
       </c>
       <c r="AN73" s="11">
-        <v>5558858</v>
+        <v>4204776</v>
       </c>
       <c r="AO73" s="11">
-        <v>5722029</v>
+        <v>3880415</v>
       </c>
       <c r="AP73" s="11">
-        <v>4204776</v>
+        <v>5031755</v>
       </c>
       <c r="AQ73" s="11">
-        <v>3880415</v>
+        <v>4708164</v>
       </c>
       <c r="AR73" s="11">
-        <v>5031755</v>
+        <v>5191662</v>
       </c>
       <c r="AS73" s="11">
-        <v>4708164</v>
-      </c>
-      <c r="AT73" s="11">
-        <v>5191662</v>
-      </c>
-      <c r="AU73" s="11">
         <v>5269801</v>
       </c>
-      <c r="AV73" s="11">
-        <v>4737350</v>
+      <c r="AT73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW73" s="11" t="s">
         <v>58</v>
@@ -9254,28 +9254,28 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>1283972</v>
+        <v>1378249</v>
       </c>
       <c r="F74" s="13">
-        <v>1312028</v>
+        <v>1365772</v>
       </c>
       <c r="G74" s="13">
-        <v>1378249</v>
+        <v>1469049</v>
       </c>
       <c r="H74" s="13">
-        <v>1365772</v>
+        <v>1463945</v>
       </c>
       <c r="I74" s="13">
-        <v>1469049</v>
+        <v>1485717</v>
       </c>
       <c r="J74" s="13">
-        <v>1463945</v>
+        <v>1275239</v>
       </c>
       <c r="K74" s="13">
-        <v>1485717</v>
+        <v>0</v>
       </c>
       <c r="L74" s="13">
-        <v>1275239</v>
+        <v>0</v>
       </c>
       <c r="M74" s="13">
         <v>0</v>
@@ -9295,11 +9295,11 @@
       <c r="R74" s="13">
         <v>0</v>
       </c>
-      <c r="S74" s="13">
-        <v>0</v>
-      </c>
-      <c r="T74" s="13">
-        <v>0</v>
+      <c r="S74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T74" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="U74" s="13" t="s">
         <v>58</v>
@@ -9331,59 +9331,59 @@
       <c r="AD74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF74" s="13" t="s">
-        <v>58</v>
+      <c r="AE74" s="13">
+        <v>3104671</v>
+      </c>
+      <c r="AF74" s="13">
+        <v>3102698</v>
       </c>
       <c r="AG74" s="13">
-        <v>3104671</v>
+        <v>3105466</v>
       </c>
       <c r="AH74" s="13">
-        <v>3102698</v>
+        <v>3097145</v>
       </c>
       <c r="AI74" s="13">
-        <v>3105466</v>
+        <v>4282230</v>
       </c>
       <c r="AJ74" s="13">
-        <v>3097145</v>
+        <v>4312635</v>
       </c>
       <c r="AK74" s="13">
-        <v>4282230</v>
+        <v>4438889</v>
       </c>
       <c r="AL74" s="13">
-        <v>4312635</v>
+        <v>5472213</v>
       </c>
       <c r="AM74" s="13">
-        <v>4438889</v>
+        <v>6946846</v>
       </c>
       <c r="AN74" s="13">
-        <v>5472213</v>
+        <v>5591728</v>
       </c>
       <c r="AO74" s="13">
-        <v>6946846</v>
+        <v>5273899</v>
       </c>
       <c r="AP74" s="13">
-        <v>5591728</v>
+        <v>6152484</v>
       </c>
       <c r="AQ74" s="13">
-        <v>5273899</v>
+        <v>5849723</v>
       </c>
       <c r="AR74" s="13">
-        <v>6152484</v>
+        <v>5877016</v>
       </c>
       <c r="AS74" s="13">
-        <v>5849723</v>
-      </c>
-      <c r="AT74" s="13">
-        <v>5877016</v>
-      </c>
-      <c r="AU74" s="13">
         <v>6052476</v>
       </c>
-      <c r="AV74" s="13">
-        <v>5883331</v>
+      <c r="AT74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV74" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW74" s="13" t="s">
         <v>58</v>
@@ -9535,32 +9535,32 @@
       <c r="AS75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV75" s="11" t="s">
-        <v>58</v>
+      <c r="AT75" s="11">
+        <v>4737350</v>
+      </c>
+      <c r="AU75" s="11">
+        <v>4700465</v>
+      </c>
+      <c r="AV75" s="11">
+        <v>6031692</v>
       </c>
       <c r="AW75" s="11">
-        <v>4700465</v>
+        <v>7881522</v>
       </c>
       <c r="AX75" s="11">
-        <v>6031692</v>
+        <v>7144779</v>
       </c>
       <c r="AY75" s="11">
-        <v>7881522</v>
+        <v>7057589</v>
       </c>
       <c r="AZ75" s="11">
-        <v>7144779</v>
+        <v>6902147</v>
       </c>
       <c r="BA75" s="11">
-        <v>7057589</v>
+        <v>6871438</v>
       </c>
       <c r="BB75" s="11">
-        <v>6902147</v>
+        <v>6802727</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -9694,32 +9694,32 @@
       <c r="AS76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV76" s="13" t="s">
-        <v>58</v>
+      <c r="AT76" s="13">
+        <v>5883331</v>
+      </c>
+      <c r="AU76" s="13">
+        <v>6002506</v>
+      </c>
+      <c r="AV76" s="13">
+        <v>7125536</v>
       </c>
       <c r="AW76" s="13">
-        <v>6002506</v>
+        <v>8255811</v>
       </c>
       <c r="AX76" s="13">
-        <v>7125536</v>
+        <v>7599093</v>
       </c>
       <c r="AY76" s="13">
-        <v>8255811</v>
+        <v>7240440</v>
       </c>
       <c r="AZ76" s="13">
-        <v>7599093</v>
+        <v>7315112</v>
       </c>
       <c r="BA76" s="13">
-        <v>7240440</v>
+        <v>7186385</v>
       </c>
       <c r="BB76" s="13">
-        <v>7315112</v>
+        <v>7021715</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -9736,23 +9736,23 @@
       <c r="F77" s="11">
         <v>0</v>
       </c>
-      <c r="G77" s="11">
-        <v>0</v>
-      </c>
-      <c r="H77" s="11">
-        <v>0</v>
+      <c r="G77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="I77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K77" s="11" t="s">
-        <v>58</v>
+      <c r="J77" s="11">
+        <v>1787903</v>
+      </c>
+      <c r="K77" s="11">
+        <v>0</v>
       </c>
       <c r="L77" s="11">
-        <v>1787903</v>
+        <v>0</v>
       </c>
       <c r="M77" s="11">
         <v>0</v>
@@ -9772,11 +9772,11 @@
       <c r="R77" s="11">
         <v>0</v>
       </c>
-      <c r="S77" s="11">
-        <v>0</v>
-      </c>
-      <c r="T77" s="11">
-        <v>0</v>
+      <c r="S77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="U77" s="11" t="s">
         <v>58</v>
@@ -9808,59 +9808,59 @@
       <c r="AD77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF77" s="11" t="s">
-        <v>58</v>
+      <c r="AE77" s="11">
+        <v>5704545</v>
+      </c>
+      <c r="AF77" s="11">
+        <v>5563383</v>
       </c>
       <c r="AG77" s="11">
-        <v>5704545</v>
+        <v>5570867</v>
       </c>
       <c r="AH77" s="11">
-        <v>5563383</v>
+        <v>5500479</v>
       </c>
       <c r="AI77" s="11">
-        <v>5570867</v>
+        <v>6330615</v>
       </c>
       <c r="AJ77" s="11">
-        <v>5500479</v>
+        <v>6169408</v>
       </c>
       <c r="AK77" s="11">
-        <v>6330615</v>
+        <v>6208367</v>
       </c>
       <c r="AL77" s="11">
-        <v>6169408</v>
+        <v>8651470</v>
       </c>
       <c r="AM77" s="11">
-        <v>6208367</v>
+        <v>8552967</v>
       </c>
       <c r="AN77" s="11">
-        <v>8651470</v>
+        <v>8361718</v>
       </c>
       <c r="AO77" s="11">
-        <v>8552967</v>
+        <v>8191985</v>
       </c>
       <c r="AP77" s="11">
-        <v>8361718</v>
+        <v>8016975</v>
       </c>
       <c r="AQ77" s="11">
-        <v>8191985</v>
+        <v>8111842</v>
       </c>
       <c r="AR77" s="11">
-        <v>8016975</v>
+        <v>7761594</v>
       </c>
       <c r="AS77" s="11">
-        <v>8111842</v>
-      </c>
-      <c r="AT77" s="11">
-        <v>7761594</v>
-      </c>
-      <c r="AU77" s="11">
         <v>7782377</v>
       </c>
-      <c r="AV77" s="11">
-        <v>7964267</v>
+      <c r="AT77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW77" s="11" t="s">
         <v>58</v>
@@ -9907,71 +9907,71 @@
       <c r="J78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="K78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L78" s="13" t="s">
-        <v>58</v>
+      <c r="K78" s="13">
+        <v>1451576</v>
+      </c>
+      <c r="L78" s="13">
+        <v>1474597</v>
       </c>
       <c r="M78" s="13">
-        <v>1451576</v>
+        <v>1658969</v>
       </c>
       <c r="N78" s="13">
-        <v>1474597</v>
+        <v>1915029</v>
       </c>
       <c r="O78" s="13">
-        <v>1658969</v>
+        <v>1920308</v>
       </c>
       <c r="P78" s="13">
-        <v>1915029</v>
+        <v>1903602</v>
       </c>
       <c r="Q78" s="13">
-        <v>1920308</v>
+        <v>1906593</v>
       </c>
       <c r="R78" s="13">
-        <v>1903602</v>
+        <v>1902557</v>
       </c>
       <c r="S78" s="13">
-        <v>1906593</v>
+        <v>1904627</v>
       </c>
       <c r="T78" s="13">
-        <v>1902557</v>
+        <v>1941390</v>
       </c>
       <c r="U78" s="13">
-        <v>1904627</v>
+        <v>1971990</v>
       </c>
       <c r="V78" s="13">
-        <v>1941390</v>
+        <v>2217594</v>
       </c>
       <c r="W78" s="13">
-        <v>1971990</v>
+        <v>1915765</v>
       </c>
       <c r="X78" s="13">
-        <v>2217594</v>
+        <v>1983971</v>
       </c>
       <c r="Y78" s="13">
-        <v>1915765</v>
+        <v>2226813</v>
       </c>
       <c r="Z78" s="13">
-        <v>1983971</v>
+        <v>2463089</v>
       </c>
       <c r="AA78" s="13">
-        <v>2226813</v>
+        <v>2403163</v>
       </c>
       <c r="AB78" s="13">
-        <v>2463089</v>
+        <v>2566723</v>
       </c>
       <c r="AC78" s="13">
-        <v>2403163</v>
+        <v>2737541</v>
       </c>
       <c r="AD78" s="13">
-        <v>2566723</v>
-      </c>
-      <c r="AE78" s="13">
-        <v>2737541</v>
-      </c>
-      <c r="AF78" s="13">
         <v>2663353</v>
+      </c>
+      <c r="AE78" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF78" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG78" s="13" t="s">
         <v>58</v>

--- a/database/industries/siman/semazen/product/monthly.xlsx
+++ b/database/industries/siman/semazen/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\semazen\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\semazen\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696DF29F-5EF9-4A6B-84E3-292A6973CE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E514251D-959D-4A1B-91C4-2F4BF060FA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="81">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سمازن-سیمان‌مازندران‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 11 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 1 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 12 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 1 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1401/11</t>
   </si>
   <si>
     <t>کلینکر</t>
@@ -745,12 +745,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -805,7 +805,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,7 +862,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -919,7 +919,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -974,7 +974,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1031,7 +1031,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1088,7 +1088,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1143,7 +1143,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1355,7 +1355,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1421,157 +1421,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>90850</v>
+        <v>100750</v>
       </c>
       <c r="F11" s="11">
-        <v>71430</v>
+        <v>100720</v>
       </c>
       <c r="G11" s="11">
-        <v>100750</v>
+        <v>95070</v>
       </c>
       <c r="H11" s="11">
-        <v>100720</v>
+        <v>76030</v>
       </c>
       <c r="I11" s="11">
-        <v>95070</v>
+        <v>175000</v>
       </c>
       <c r="J11" s="11">
-        <v>76030</v>
+        <v>224910</v>
       </c>
       <c r="K11" s="11">
-        <v>175000</v>
+        <v>217690</v>
       </c>
       <c r="L11" s="11">
-        <v>224910</v>
+        <v>223370</v>
       </c>
       <c r="M11" s="11">
-        <v>217690</v>
+        <v>175690</v>
       </c>
       <c r="N11" s="11">
-        <v>223370</v>
+        <v>158760</v>
       </c>
       <c r="O11" s="11">
-        <v>175690</v>
+        <v>140630</v>
       </c>
       <c r="P11" s="11">
-        <v>158760</v>
+        <v>102460</v>
       </c>
       <c r="Q11" s="11">
-        <v>140630</v>
+        <v>98410</v>
       </c>
       <c r="R11" s="11">
-        <v>102460</v>
+        <v>99010</v>
       </c>
       <c r="S11" s="11">
-        <v>98410</v>
+        <v>96840</v>
       </c>
       <c r="T11" s="11">
-        <v>99010</v>
+        <v>94120</v>
       </c>
       <c r="U11" s="11">
-        <v>96840</v>
+        <v>161400</v>
       </c>
       <c r="V11" s="11">
-        <v>94120</v>
+        <v>136840</v>
       </c>
       <c r="W11" s="11">
-        <v>161400</v>
+        <v>224830</v>
       </c>
       <c r="X11" s="11">
-        <v>136840</v>
+        <v>227540</v>
       </c>
       <c r="Y11" s="11">
-        <v>224830</v>
+        <v>207720</v>
       </c>
       <c r="Z11" s="11">
-        <v>227540</v>
+        <v>197560</v>
       </c>
       <c r="AA11" s="11">
-        <v>207720</v>
+        <v>180800</v>
       </c>
       <c r="AB11" s="11">
-        <v>197560</v>
+        <v>163760</v>
       </c>
       <c r="AC11" s="11">
-        <v>180800</v>
+        <v>78840</v>
       </c>
       <c r="AD11" s="11">
-        <v>163760</v>
+        <v>109700</v>
       </c>
       <c r="AE11" s="11">
-        <v>78840</v>
+        <v>220450</v>
       </c>
       <c r="AF11" s="11">
-        <v>109700</v>
+        <v>227560</v>
       </c>
       <c r="AG11" s="11">
-        <v>220450</v>
+        <v>211440</v>
       </c>
       <c r="AH11" s="11">
-        <v>227560</v>
+        <v>149740</v>
       </c>
       <c r="AI11" s="11">
-        <v>211440</v>
+        <v>84760</v>
       </c>
       <c r="AJ11" s="11">
-        <v>149740</v>
+        <v>96900</v>
       </c>
       <c r="AK11" s="11">
-        <v>84760</v>
+        <v>132730</v>
       </c>
       <c r="AL11" s="11">
-        <v>96900</v>
+        <v>214160</v>
       </c>
       <c r="AM11" s="11">
-        <v>132730</v>
+        <v>218350</v>
       </c>
       <c r="AN11" s="11">
-        <v>214160</v>
+        <v>166550</v>
       </c>
       <c r="AO11" s="11">
-        <v>218350</v>
+        <v>168620</v>
       </c>
       <c r="AP11" s="11">
-        <v>166550</v>
+        <v>114940</v>
       </c>
       <c r="AQ11" s="11">
-        <v>168620</v>
+        <v>213490</v>
       </c>
       <c r="AR11" s="11">
-        <v>114940</v>
+        <v>191470</v>
       </c>
       <c r="AS11" s="11">
-        <v>213490</v>
+        <v>226080</v>
       </c>
       <c r="AT11" s="11">
-        <v>191470</v>
+        <v>219950</v>
       </c>
       <c r="AU11" s="11">
-        <v>226080</v>
+        <v>122390</v>
       </c>
       <c r="AV11" s="11">
-        <v>219950</v>
+        <v>103130</v>
       </c>
       <c r="AW11" s="11">
-        <v>122390</v>
+        <v>117210</v>
       </c>
       <c r="AX11" s="11">
-        <v>103130</v>
+        <v>218140</v>
       </c>
       <c r="AY11" s="11">
-        <v>117210</v>
+        <v>210040</v>
       </c>
       <c r="AZ11" s="11">
-        <v>218140</v>
+        <v>208060</v>
       </c>
       <c r="BA11" s="11">
-        <v>210040</v>
+        <v>121180</v>
       </c>
       <c r="BB11" s="11">
-        <v>208060</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1696,41 +1696,41 @@
       <c r="AQ12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS12" s="13" t="s">
-        <v>58</v>
+      <c r="AR12" s="13">
+        <v>5741</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>13395</v>
       </c>
       <c r="AT12" s="13">
-        <v>5741</v>
+        <v>11670</v>
       </c>
       <c r="AU12" s="13">
-        <v>13395</v>
+        <v>20194</v>
       </c>
       <c r="AV12" s="13">
-        <v>11670</v>
+        <v>22598</v>
       </c>
       <c r="AW12" s="13">
-        <v>20194</v>
+        <v>11807</v>
       </c>
       <c r="AX12" s="13">
-        <v>22598</v>
+        <v>21898</v>
       </c>
       <c r="AY12" s="13">
-        <v>11807</v>
+        <v>20862</v>
       </c>
       <c r="AZ12" s="13">
-        <v>21898</v>
+        <v>15675</v>
       </c>
       <c r="BA12" s="13">
-        <v>20862</v>
+        <v>455</v>
       </c>
       <c r="BB12" s="13">
-        <v>15675</v>
+        <v>2982</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1739,22 +1739,22 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>64506</v>
+        <v>67084</v>
       </c>
       <c r="F13" s="11">
-        <v>68019</v>
+        <v>82025</v>
       </c>
       <c r="G13" s="11">
-        <v>67084</v>
+        <v>96209</v>
       </c>
       <c r="H13" s="11">
-        <v>82025</v>
+        <v>41883</v>
       </c>
       <c r="I13" s="11">
-        <v>96209</v>
+        <v>0</v>
       </c>
       <c r="J13" s="11">
-        <v>41883</v>
+        <v>0</v>
       </c>
       <c r="K13" s="11">
         <v>0</v>
@@ -1774,11 +1774,11 @@
       <c r="P13" s="11">
         <v>0</v>
       </c>
-      <c r="Q13" s="11">
-        <v>0</v>
-      </c>
-      <c r="R13" s="11">
-        <v>0</v>
+      <c r="Q13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>58</v>
@@ -1810,57 +1810,57 @@
       <c r="AB13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD13" s="11" t="s">
-        <v>58</v>
+      <c r="AC13" s="11">
+        <v>90300</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>109292</v>
       </c>
       <c r="AE13" s="11">
-        <v>90300</v>
+        <v>114851</v>
       </c>
       <c r="AF13" s="11">
-        <v>109292</v>
+        <v>103044</v>
       </c>
       <c r="AG13" s="11">
-        <v>114851</v>
+        <v>112753</v>
       </c>
       <c r="AH13" s="11">
-        <v>103044</v>
+        <v>101486</v>
       </c>
       <c r="AI13" s="11">
-        <v>112753</v>
+        <v>74042</v>
       </c>
       <c r="AJ13" s="11">
-        <v>101486</v>
+        <v>50045</v>
       </c>
       <c r="AK13" s="11">
-        <v>74042</v>
+        <v>103027</v>
       </c>
       <c r="AL13" s="11">
-        <v>50045</v>
+        <v>74815</v>
       </c>
       <c r="AM13" s="11">
-        <v>103027</v>
+        <v>75623</v>
       </c>
       <c r="AN13" s="11">
-        <v>74815</v>
+        <v>80101</v>
       </c>
       <c r="AO13" s="11">
-        <v>75623</v>
+        <v>72874</v>
       </c>
       <c r="AP13" s="11">
-        <v>80101</v>
+        <v>75685</v>
       </c>
       <c r="AQ13" s="11">
-        <v>72874</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>75685</v>
-      </c>
-      <c r="AS13" s="11">
         <v>79060</v>
       </c>
+      <c r="AR13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS13" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT13" s="11" t="s">
         <v>58</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1898,22 +1898,22 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>41234</v>
+        <v>32096</v>
       </c>
       <c r="F14" s="13">
-        <v>36551</v>
+        <v>45665</v>
       </c>
       <c r="G14" s="13">
-        <v>32096</v>
+        <v>79794</v>
       </c>
       <c r="H14" s="13">
-        <v>45665</v>
+        <v>43703</v>
       </c>
       <c r="I14" s="13">
-        <v>79794</v>
+        <v>0</v>
       </c>
       <c r="J14" s="13">
-        <v>43703</v>
+        <v>0</v>
       </c>
       <c r="K14" s="13">
         <v>0</v>
@@ -1933,11 +1933,11 @@
       <c r="P14" s="13">
         <v>0</v>
       </c>
-      <c r="Q14" s="13">
-        <v>0</v>
-      </c>
-      <c r="R14" s="13">
-        <v>0</v>
+      <c r="Q14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="S14" s="13" t="s">
         <v>58</v>
@@ -1969,57 +1969,57 @@
       <c r="AB14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD14" s="13" t="s">
-        <v>58</v>
+      <c r="AC14" s="13">
+        <v>83686</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>95299</v>
       </c>
       <c r="AE14" s="13">
-        <v>83686</v>
+        <v>103899</v>
       </c>
       <c r="AF14" s="13">
-        <v>95299</v>
+        <v>73138</v>
       </c>
       <c r="AG14" s="13">
-        <v>103899</v>
+        <v>85540</v>
       </c>
       <c r="AH14" s="13">
-        <v>73138</v>
+        <v>88404</v>
       </c>
       <c r="AI14" s="13">
-        <v>85540</v>
+        <v>57942</v>
       </c>
       <c r="AJ14" s="13">
-        <v>88404</v>
+        <v>50935</v>
       </c>
       <c r="AK14" s="13">
-        <v>57942</v>
+        <v>73980</v>
       </c>
       <c r="AL14" s="13">
-        <v>50935</v>
+        <v>71950</v>
       </c>
       <c r="AM14" s="13">
-        <v>73980</v>
+        <v>77849</v>
       </c>
       <c r="AN14" s="13">
-        <v>71950</v>
+        <v>88574</v>
       </c>
       <c r="AO14" s="13">
-        <v>77849</v>
+        <v>73342</v>
       </c>
       <c r="AP14" s="13">
-        <v>88574</v>
+        <v>76170</v>
       </c>
       <c r="AQ14" s="13">
-        <v>73342</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>76170</v>
-      </c>
-      <c r="AS14" s="13">
         <v>84686</v>
       </c>
+      <c r="AR14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS14" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT14" s="13" t="s">
         <v>58</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2173,41 +2173,41 @@
       <c r="AQ15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS15" s="11" t="s">
-        <v>58</v>
+      <c r="AR15" s="11">
+        <v>58313</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>87370</v>
       </c>
       <c r="AT15" s="11">
-        <v>58313</v>
+        <v>67637</v>
       </c>
       <c r="AU15" s="11">
-        <v>87370</v>
+        <v>83560</v>
       </c>
       <c r="AV15" s="11">
-        <v>67637</v>
+        <v>84944</v>
       </c>
       <c r="AW15" s="11">
-        <v>83560</v>
+        <v>83014</v>
       </c>
       <c r="AX15" s="11">
-        <v>84944</v>
+        <v>70044</v>
       </c>
       <c r="AY15" s="11">
-        <v>83014</v>
+        <v>80984</v>
       </c>
       <c r="AZ15" s="11">
-        <v>70044</v>
+        <v>72890</v>
       </c>
       <c r="BA15" s="11">
-        <v>80984</v>
+        <v>67144</v>
       </c>
       <c r="BB15" s="11">
-        <v>72890</v>
+        <v>77170</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2332,41 +2332,41 @@
       <c r="AQ16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS16" s="13" t="s">
-        <v>58</v>
+      <c r="AR16" s="13">
+        <v>73346</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>93815</v>
       </c>
       <c r="AT16" s="13">
-        <v>73346</v>
+        <v>66563</v>
       </c>
       <c r="AU16" s="13">
-        <v>93815</v>
+        <v>75086</v>
       </c>
       <c r="AV16" s="13">
-        <v>66563</v>
+        <v>86238</v>
       </c>
       <c r="AW16" s="13">
-        <v>75086</v>
+        <v>94969</v>
       </c>
       <c r="AX16" s="13">
-        <v>86238</v>
+        <v>102885</v>
       </c>
       <c r="AY16" s="13">
-        <v>94969</v>
+        <v>91383</v>
       </c>
       <c r="AZ16" s="13">
-        <v>102885</v>
+        <v>97245</v>
       </c>
       <c r="BA16" s="13">
-        <v>91383</v>
+        <v>74061</v>
       </c>
       <c r="BB16" s="13">
-        <v>97245</v>
+        <v>68983</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2374,23 +2374,23 @@
         <v>56</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
+      <c r="E17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>58</v>
+      <c r="H17" s="11">
+        <v>12967</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
       </c>
       <c r="J17" s="11">
-        <v>12967</v>
+        <v>0</v>
       </c>
       <c r="K17" s="11">
         <v>0</v>
@@ -2410,11 +2410,11 @@
       <c r="P17" s="11">
         <v>0</v>
       </c>
-      <c r="Q17" s="11">
-        <v>0</v>
-      </c>
-      <c r="R17" s="11">
-        <v>0</v>
+      <c r="Q17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>58</v>
@@ -2446,57 +2446,57 @@
       <c r="AB17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD17" s="11" t="s">
-        <v>58</v>
+      <c r="AC17" s="11">
+        <v>3164</v>
+      </c>
+      <c r="AD17" s="11">
+        <v>4639</v>
       </c>
       <c r="AE17" s="11">
-        <v>3164</v>
+        <v>14170</v>
       </c>
       <c r="AF17" s="11">
-        <v>4639</v>
+        <v>52358</v>
       </c>
       <c r="AG17" s="11">
-        <v>14170</v>
+        <v>26167</v>
       </c>
       <c r="AH17" s="11">
-        <v>52358</v>
+        <v>2190</v>
       </c>
       <c r="AI17" s="11">
-        <v>26167</v>
+        <v>2786</v>
       </c>
       <c r="AJ17" s="11">
-        <v>2190</v>
+        <v>4870</v>
       </c>
       <c r="AK17" s="11">
-        <v>2786</v>
+        <v>4283</v>
       </c>
       <c r="AL17" s="11">
-        <v>4870</v>
+        <v>8354</v>
       </c>
       <c r="AM17" s="11">
-        <v>4283</v>
+        <v>10568</v>
       </c>
       <c r="AN17" s="11">
-        <v>8354</v>
+        <v>11526</v>
       </c>
       <c r="AO17" s="11">
-        <v>10568</v>
+        <v>3154</v>
       </c>
       <c r="AP17" s="11">
-        <v>11526</v>
+        <v>3275</v>
       </c>
       <c r="AQ17" s="11">
-        <v>3154</v>
-      </c>
-      <c r="AR17" s="11">
-        <v>3275</v>
-      </c>
-      <c r="AS17" s="11">
         <v>6874</v>
       </c>
+      <c r="AR17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS17" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT17" s="11" t="s">
         <v>58</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2545,72 +2545,72 @@
       <c r="H18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>58</v>
+      <c r="I18" s="13">
+        <v>202784</v>
+      </c>
+      <c r="J18" s="13">
+        <v>178230</v>
       </c>
       <c r="K18" s="13">
-        <v>202784</v>
+        <v>159630</v>
       </c>
       <c r="L18" s="13">
-        <v>178230</v>
+        <v>136490</v>
       </c>
       <c r="M18" s="13">
-        <v>159630</v>
+        <v>145580</v>
       </c>
       <c r="N18" s="13">
-        <v>136490</v>
+        <v>150730</v>
       </c>
       <c r="O18" s="13">
-        <v>145580</v>
+        <v>135820</v>
       </c>
       <c r="P18" s="13">
-        <v>150730</v>
+        <v>132770</v>
       </c>
       <c r="Q18" s="13">
-        <v>135820</v>
+        <v>154100</v>
       </c>
       <c r="R18" s="13">
-        <v>132770</v>
+        <v>141300</v>
       </c>
       <c r="S18" s="13">
-        <v>154100</v>
+        <v>181230</v>
       </c>
       <c r="T18" s="13">
-        <v>141300</v>
+        <v>104070</v>
       </c>
       <c r="U18" s="13">
-        <v>181230</v>
+        <v>153100</v>
       </c>
       <c r="V18" s="13">
-        <v>104070</v>
+        <v>207550</v>
       </c>
       <c r="W18" s="13">
-        <v>153100</v>
+        <v>214300</v>
       </c>
       <c r="X18" s="13">
-        <v>207550</v>
+        <v>166780</v>
       </c>
       <c r="Y18" s="13">
-        <v>214300</v>
+        <v>170240</v>
       </c>
       <c r="Z18" s="13">
-        <v>166780</v>
+        <v>204470</v>
       </c>
       <c r="AA18" s="13">
-        <v>170240</v>
+        <v>239770</v>
       </c>
       <c r="AB18" s="13">
-        <v>204470</v>
-      </c>
-      <c r="AC18" s="13">
-        <v>239770</v>
-      </c>
-      <c r="AD18" s="13">
         <v>184000</v>
       </c>
+      <c r="AC18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD18" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE18" s="13" t="s">
         <v>58</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2800,14 +2800,14 @@
       <c r="AN19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO19" s="11" t="s">
-        <v>58</v>
+      <c r="AO19" s="11">
+        <v>0</v>
       </c>
       <c r="AP19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ19" s="11">
-        <v>0</v>
+      <c r="AQ19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR19" s="11" t="s">
         <v>58</v>
@@ -2843,7 +2843,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>66</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="BA20" s="15"/>
       <c r="BB20" s="15"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>67</v>
       </c>
@@ -2978,11 +2978,11 @@
       <c r="AB21" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AC21" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD21" s="17" t="s">
-        <v>58</v>
+      <c r="AC21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="17">
+        <v>0</v>
       </c>
       <c r="AE21" s="17">
         <v>0</v>
@@ -3057,164 +3057,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19">
-        <v>196590</v>
+        <v>199930</v>
       </c>
       <c r="F22" s="19">
-        <v>176000</v>
+        <v>228410</v>
       </c>
       <c r="G22" s="19">
-        <v>199930</v>
+        <v>271073</v>
       </c>
       <c r="H22" s="19">
-        <v>228410</v>
+        <v>174583</v>
       </c>
       <c r="I22" s="19">
-        <v>271073</v>
+        <v>377784</v>
       </c>
       <c r="J22" s="19">
-        <v>174583</v>
+        <v>403140</v>
       </c>
       <c r="K22" s="19">
-        <v>377784</v>
+        <v>377320</v>
       </c>
       <c r="L22" s="19">
-        <v>403140</v>
+        <v>359860</v>
       </c>
       <c r="M22" s="19">
-        <v>377320</v>
+        <v>321270</v>
       </c>
       <c r="N22" s="19">
-        <v>359860</v>
+        <v>309490</v>
       </c>
       <c r="O22" s="19">
-        <v>321270</v>
+        <v>276450</v>
       </c>
       <c r="P22" s="19">
-        <v>309490</v>
+        <v>235230</v>
       </c>
       <c r="Q22" s="19">
-        <v>276450</v>
+        <v>252510</v>
       </c>
       <c r="R22" s="19">
-        <v>235230</v>
+        <v>240310</v>
       </c>
       <c r="S22" s="19">
-        <v>252510</v>
+        <v>278070</v>
       </c>
       <c r="T22" s="19">
-        <v>240310</v>
+        <v>198190</v>
       </c>
       <c r="U22" s="19">
-        <v>278070</v>
+        <v>314500</v>
       </c>
       <c r="V22" s="19">
-        <v>198190</v>
+        <v>344390</v>
       </c>
       <c r="W22" s="19">
-        <v>314500</v>
+        <v>439130</v>
       </c>
       <c r="X22" s="19">
-        <v>344390</v>
+        <v>394320</v>
       </c>
       <c r="Y22" s="19">
-        <v>439130</v>
+        <v>377960</v>
       </c>
       <c r="Z22" s="19">
-        <v>394320</v>
+        <v>402030</v>
       </c>
       <c r="AA22" s="19">
-        <v>377960</v>
+        <v>420570</v>
       </c>
       <c r="AB22" s="19">
-        <v>402030</v>
+        <v>347760</v>
       </c>
       <c r="AC22" s="19">
-        <v>420570</v>
+        <v>255990</v>
       </c>
       <c r="AD22" s="19">
-        <v>347760</v>
+        <v>318930</v>
       </c>
       <c r="AE22" s="19">
-        <v>255990</v>
+        <v>453370</v>
       </c>
       <c r="AF22" s="19">
-        <v>318930</v>
+        <v>456100</v>
       </c>
       <c r="AG22" s="19">
-        <v>453370</v>
+        <v>435900</v>
       </c>
       <c r="AH22" s="19">
-        <v>456100</v>
+        <v>341820</v>
       </c>
       <c r="AI22" s="19">
-        <v>435900</v>
+        <v>219530</v>
       </c>
       <c r="AJ22" s="19">
-        <v>341820</v>
+        <v>202750</v>
       </c>
       <c r="AK22" s="19">
-        <v>219530</v>
+        <v>314020</v>
       </c>
       <c r="AL22" s="19">
-        <v>202750</v>
+        <v>369279</v>
       </c>
       <c r="AM22" s="19">
-        <v>314020</v>
+        <v>382390</v>
       </c>
       <c r="AN22" s="19">
-        <v>369279</v>
+        <v>346751</v>
       </c>
       <c r="AO22" s="19">
-        <v>382390</v>
+        <v>317990</v>
       </c>
       <c r="AP22" s="19">
-        <v>346751</v>
+        <v>270070</v>
       </c>
       <c r="AQ22" s="19">
-        <v>317990</v>
+        <v>384110</v>
       </c>
       <c r="AR22" s="19">
-        <v>270070</v>
+        <v>328870</v>
       </c>
       <c r="AS22" s="19">
-        <v>384110</v>
+        <v>420660</v>
       </c>
       <c r="AT22" s="19">
-        <v>328870</v>
+        <v>365820</v>
       </c>
       <c r="AU22" s="19">
-        <v>420660</v>
+        <v>301230</v>
       </c>
       <c r="AV22" s="19">
-        <v>365820</v>
+        <v>296910</v>
       </c>
       <c r="AW22" s="19">
-        <v>301230</v>
+        <v>307000</v>
       </c>
       <c r="AX22" s="19">
-        <v>296910</v>
+        <v>412966</v>
       </c>
       <c r="AY22" s="19">
-        <v>307000</v>
+        <v>403268</v>
       </c>
       <c r="AZ22" s="19">
-        <v>412966</v>
+        <v>393870</v>
       </c>
       <c r="BA22" s="19">
-        <v>403268</v>
+        <v>262840</v>
       </c>
       <c r="BB22" s="19">
-        <v>393870</v>
+        <v>149135</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3269,7 +3269,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3324,7 +3324,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3379,7 +3379,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>69</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3591,7 +3591,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>69</v>
       </c>
@@ -3648,7 +3648,7 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>55</v>
       </c>
@@ -3741,22 +3741,22 @@
         <v>0</v>
       </c>
       <c r="AG29" s="11">
-        <v>0</v>
+        <v>4887</v>
       </c>
       <c r="AH29" s="11">
-        <v>0</v>
+        <v>1912</v>
       </c>
       <c r="AI29" s="11">
-        <v>4887</v>
+        <v>0</v>
       </c>
       <c r="AJ29" s="11">
-        <v>1912</v>
+        <v>2192</v>
       </c>
       <c r="AK29" s="11">
         <v>0</v>
       </c>
       <c r="AL29" s="11">
-        <v>2192</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="11">
         <v>0</v>
@@ -3780,25 +3780,25 @@
         <v>0</v>
       </c>
       <c r="AT29" s="11">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="AU29" s="11">
         <v>0</v>
       </c>
       <c r="AV29" s="11">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AW29" s="11">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="AX29" s="11">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="AY29" s="11">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="AZ29" s="11">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="11">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>57</v>
       </c>
@@ -3932,41 +3932,41 @@
       <c r="AQ30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS30" s="13" t="s">
-        <v>58</v>
+      <c r="AR30" s="13">
+        <v>5765</v>
+      </c>
+      <c r="AS30" s="13">
+        <v>12935</v>
       </c>
       <c r="AT30" s="13">
-        <v>5765</v>
+        <v>12530</v>
       </c>
       <c r="AU30" s="13">
-        <v>12935</v>
+        <v>20873</v>
       </c>
       <c r="AV30" s="13">
-        <v>12530</v>
+        <v>20405</v>
       </c>
       <c r="AW30" s="13">
-        <v>20873</v>
+        <v>12269</v>
       </c>
       <c r="AX30" s="13">
-        <v>20405</v>
+        <v>16839</v>
       </c>
       <c r="AY30" s="13">
-        <v>12269</v>
+        <v>19786</v>
       </c>
       <c r="AZ30" s="13">
-        <v>16839</v>
+        <v>16397</v>
       </c>
       <c r="BA30" s="13">
-        <v>19786</v>
+        <v>502</v>
       </c>
       <c r="BB30" s="13">
-        <v>16397</v>
+        <v>3000</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>59</v>
       </c>
@@ -3975,22 +3975,22 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>69579</v>
+        <v>65909</v>
       </c>
       <c r="F31" s="11">
-        <v>50867</v>
+        <v>80311</v>
       </c>
       <c r="G31" s="11">
-        <v>65909</v>
+        <v>98684</v>
       </c>
       <c r="H31" s="11">
-        <v>80311</v>
+        <v>48071</v>
       </c>
       <c r="I31" s="11">
-        <v>98684</v>
+        <v>0</v>
       </c>
       <c r="J31" s="11">
-        <v>48071</v>
+        <v>0</v>
       </c>
       <c r="K31" s="11">
         <v>0</v>
@@ -4010,11 +4010,11 @@
       <c r="P31" s="11">
         <v>0</v>
       </c>
-      <c r="Q31" s="11">
-        <v>0</v>
-      </c>
-      <c r="R31" s="11">
-        <v>0</v>
+      <c r="Q31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="S31" s="11" t="s">
         <v>58</v>
@@ -4046,57 +4046,57 @@
       <c r="AB31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD31" s="11" t="s">
-        <v>58</v>
+      <c r="AC31" s="11">
+        <v>89161</v>
+      </c>
+      <c r="AD31" s="11">
+        <v>113357</v>
       </c>
       <c r="AE31" s="11">
-        <v>89161</v>
+        <v>117578</v>
       </c>
       <c r="AF31" s="11">
-        <v>113357</v>
+        <v>94458</v>
       </c>
       <c r="AG31" s="11">
-        <v>117578</v>
+        <v>108306</v>
       </c>
       <c r="AH31" s="11">
-        <v>94458</v>
+        <v>112681</v>
       </c>
       <c r="AI31" s="11">
-        <v>108306</v>
+        <v>66704</v>
       </c>
       <c r="AJ31" s="11">
-        <v>112681</v>
+        <v>58378</v>
       </c>
       <c r="AK31" s="11">
-        <v>66704</v>
+        <v>98093</v>
       </c>
       <c r="AL31" s="11">
-        <v>58378</v>
+        <v>72987</v>
       </c>
       <c r="AM31" s="11">
-        <v>98093</v>
+        <v>78388</v>
       </c>
       <c r="AN31" s="11">
-        <v>72987</v>
+        <v>76964</v>
       </c>
       <c r="AO31" s="11">
-        <v>78388</v>
+        <v>70245</v>
       </c>
       <c r="AP31" s="11">
-        <v>76964</v>
+        <v>70332</v>
       </c>
       <c r="AQ31" s="11">
-        <v>70245</v>
-      </c>
-      <c r="AR31" s="11">
-        <v>70332</v>
-      </c>
-      <c r="AS31" s="11">
         <v>77798</v>
       </c>
+      <c r="AR31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS31" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT31" s="11" t="s">
         <v>58</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>60</v>
       </c>
@@ -4134,22 +4134,22 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>44476</v>
+        <v>31534</v>
       </c>
       <c r="F32" s="13">
-        <v>27334</v>
+        <v>44710</v>
       </c>
       <c r="G32" s="13">
-        <v>31534</v>
+        <v>81844</v>
       </c>
       <c r="H32" s="13">
-        <v>44710</v>
+        <v>50160</v>
       </c>
       <c r="I32" s="13">
-        <v>81844</v>
+        <v>0</v>
       </c>
       <c r="J32" s="13">
-        <v>50160</v>
+        <v>0</v>
       </c>
       <c r="K32" s="13">
         <v>0</v>
@@ -4169,11 +4169,11 @@
       <c r="P32" s="13">
         <v>0</v>
       </c>
-      <c r="Q32" s="13">
-        <v>0</v>
-      </c>
-      <c r="R32" s="13">
-        <v>0</v>
+      <c r="Q32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="S32" s="13" t="s">
         <v>58</v>
@@ -4205,57 +4205,57 @@
       <c r="AB32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD32" s="13" t="s">
-        <v>58</v>
+      <c r="AC32" s="13">
+        <v>82630</v>
+      </c>
+      <c r="AD32" s="13">
+        <v>98843</v>
       </c>
       <c r="AE32" s="13">
-        <v>82630</v>
+        <v>106366</v>
       </c>
       <c r="AF32" s="13">
-        <v>98843</v>
+        <v>67044</v>
       </c>
       <c r="AG32" s="13">
-        <v>106366</v>
+        <v>82167</v>
       </c>
       <c r="AH32" s="13">
-        <v>67044</v>
+        <v>98156</v>
       </c>
       <c r="AI32" s="13">
-        <v>82167</v>
+        <v>52200</v>
       </c>
       <c r="AJ32" s="13">
-        <v>98156</v>
+        <v>59416</v>
       </c>
       <c r="AK32" s="13">
-        <v>52200</v>
+        <v>70437</v>
       </c>
       <c r="AL32" s="13">
-        <v>59416</v>
+        <v>70191</v>
       </c>
       <c r="AM32" s="13">
-        <v>70437</v>
+        <v>80694</v>
       </c>
       <c r="AN32" s="13">
-        <v>70191</v>
+        <v>85104</v>
       </c>
       <c r="AO32" s="13">
-        <v>80694</v>
+        <v>70696</v>
       </c>
       <c r="AP32" s="13">
-        <v>85104</v>
+        <v>78327</v>
       </c>
       <c r="AQ32" s="13">
-        <v>70696</v>
-      </c>
-      <c r="AR32" s="13">
-        <v>78327</v>
-      </c>
-      <c r="AS32" s="13">
         <v>83333</v>
       </c>
+      <c r="AR32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS32" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT32" s="13" t="s">
         <v>58</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>61</v>
       </c>
@@ -4409,41 +4409,41 @@
       <c r="AQ33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS33" s="11" t="s">
-        <v>58</v>
+      <c r="AR33" s="11">
+        <v>58557</v>
+      </c>
+      <c r="AS33" s="11">
+        <v>84374</v>
       </c>
       <c r="AT33" s="11">
-        <v>58557</v>
+        <v>81661</v>
       </c>
       <c r="AU33" s="11">
-        <v>84374</v>
+        <v>80952</v>
       </c>
       <c r="AV33" s="11">
-        <v>81661</v>
+        <v>76696</v>
       </c>
       <c r="AW33" s="11">
-        <v>80952</v>
+        <v>86267</v>
       </c>
       <c r="AX33" s="11">
-        <v>76696</v>
+        <v>75618</v>
       </c>
       <c r="AY33" s="11">
-        <v>86267</v>
+        <v>73210</v>
       </c>
       <c r="AZ33" s="11">
-        <v>75618</v>
+        <v>76249</v>
       </c>
       <c r="BA33" s="11">
-        <v>73210</v>
+        <v>73961</v>
       </c>
       <c r="BB33" s="11">
-        <v>76249</v>
+        <v>77641</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>62</v>
       </c>
@@ -4568,41 +4568,41 @@
       <c r="AQ34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS34" s="13" t="s">
-        <v>58</v>
+      <c r="AR34" s="13">
+        <v>73653</v>
+      </c>
+      <c r="AS34" s="13">
+        <v>90595</v>
       </c>
       <c r="AT34" s="13">
-        <v>73653</v>
+        <v>80455</v>
       </c>
       <c r="AU34" s="13">
-        <v>90595</v>
+        <v>72620</v>
       </c>
       <c r="AV34" s="13">
-        <v>80455</v>
+        <v>77866</v>
       </c>
       <c r="AW34" s="13">
-        <v>72620</v>
+        <v>98690</v>
       </c>
       <c r="AX34" s="13">
-        <v>77866</v>
+        <v>100865</v>
       </c>
       <c r="AY34" s="13">
-        <v>98690</v>
+        <v>90838</v>
       </c>
       <c r="AZ34" s="13">
-        <v>100865</v>
+        <v>101727</v>
       </c>
       <c r="BA34" s="13">
-        <v>90838</v>
+        <v>81580</v>
       </c>
       <c r="BB34" s="13">
-        <v>101727</v>
+        <v>69405</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>63</v>
       </c>
@@ -4610,23 +4610,23 @@
         <v>56</v>
       </c>
       <c r="D35" s="11"/>
-      <c r="E35" s="11">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11">
-        <v>0</v>
+      <c r="E35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>58</v>
+      <c r="H35" s="11">
+        <v>14880</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0</v>
       </c>
       <c r="J35" s="11">
-        <v>14880</v>
+        <v>0</v>
       </c>
       <c r="K35" s="11">
         <v>0</v>
@@ -4646,11 +4646,11 @@
       <c r="P35" s="11">
         <v>0</v>
       </c>
-      <c r="Q35" s="11">
-        <v>0</v>
-      </c>
-      <c r="R35" s="11">
-        <v>0</v>
+      <c r="Q35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="S35" s="11" t="s">
         <v>58</v>
@@ -4682,57 +4682,57 @@
       <c r="AB35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD35" s="11" t="s">
-        <v>58</v>
+      <c r="AC35" s="11">
+        <v>3124</v>
+      </c>
+      <c r="AD35" s="11">
+        <v>4812</v>
       </c>
       <c r="AE35" s="11">
-        <v>3124</v>
+        <v>14506</v>
       </c>
       <c r="AF35" s="11">
-        <v>4812</v>
+        <v>47996</v>
       </c>
       <c r="AG35" s="11">
-        <v>14506</v>
+        <v>25135</v>
       </c>
       <c r="AH35" s="11">
-        <v>47996</v>
+        <v>2432</v>
       </c>
       <c r="AI35" s="11">
-        <v>25135</v>
+        <v>2510</v>
       </c>
       <c r="AJ35" s="11">
-        <v>2432</v>
+        <v>5681</v>
       </c>
       <c r="AK35" s="11">
-        <v>2510</v>
+        <v>4078</v>
       </c>
       <c r="AL35" s="11">
-        <v>5681</v>
+        <v>8150</v>
       </c>
       <c r="AM35" s="11">
-        <v>4078</v>
+        <v>10954</v>
       </c>
       <c r="AN35" s="11">
-        <v>8150</v>
+        <v>11075</v>
       </c>
       <c r="AO35" s="11">
-        <v>10954</v>
+        <v>3040</v>
       </c>
       <c r="AP35" s="11">
-        <v>11075</v>
+        <v>9186</v>
       </c>
       <c r="AQ35" s="11">
-        <v>3040</v>
-      </c>
-      <c r="AR35" s="11">
-        <v>9186</v>
-      </c>
-      <c r="AS35" s="11">
         <v>6764</v>
       </c>
+      <c r="AR35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS35" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT35" s="11" t="s">
         <v>58</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>64</v>
       </c>
@@ -4781,72 +4781,72 @@
       <c r="H36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>58</v>
+      <c r="I36" s="13">
+        <v>193985</v>
+      </c>
+      <c r="J36" s="13">
+        <v>182498</v>
       </c>
       <c r="K36" s="13">
-        <v>193985</v>
+        <v>152259</v>
       </c>
       <c r="L36" s="13">
-        <v>182498</v>
+        <v>134317</v>
       </c>
       <c r="M36" s="13">
-        <v>152259</v>
+        <v>143490</v>
       </c>
       <c r="N36" s="13">
-        <v>134317</v>
+        <v>157504</v>
       </c>
       <c r="O36" s="13">
-        <v>143490</v>
+        <v>132389</v>
       </c>
       <c r="P36" s="13">
-        <v>157504</v>
+        <v>142453</v>
       </c>
       <c r="Q36" s="13">
-        <v>132389</v>
+        <v>145859</v>
       </c>
       <c r="R36" s="13">
-        <v>142453</v>
+        <v>143747</v>
       </c>
       <c r="S36" s="13">
-        <v>145859</v>
+        <v>170938</v>
       </c>
       <c r="T36" s="13">
-        <v>143747</v>
+        <v>109594</v>
       </c>
       <c r="U36" s="13">
-        <v>170938</v>
+        <v>153036</v>
       </c>
       <c r="V36" s="13">
-        <v>109594</v>
+        <v>210053</v>
       </c>
       <c r="W36" s="13">
-        <v>153036</v>
+        <v>211011</v>
       </c>
       <c r="X36" s="13">
-        <v>210053</v>
+        <v>164465</v>
       </c>
       <c r="Y36" s="13">
-        <v>211011</v>
+        <v>192230</v>
       </c>
       <c r="Z36" s="13">
-        <v>164465</v>
+        <v>207251</v>
       </c>
       <c r="AA36" s="13">
-        <v>192230</v>
+        <v>230802</v>
       </c>
       <c r="AB36" s="13">
-        <v>207251</v>
-      </c>
-      <c r="AC36" s="13">
-        <v>230802</v>
-      </c>
-      <c r="AD36" s="13">
         <v>185013</v>
       </c>
+      <c r="AC36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD36" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE36" s="13" t="s">
         <v>58</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>65</v>
       </c>
@@ -5036,14 +5036,14 @@
       <c r="AN37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO37" s="11" t="s">
-        <v>58</v>
+      <c r="AO37" s="11">
+        <v>0</v>
       </c>
       <c r="AP37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ37" s="11">
-        <v>0</v>
+      <c r="AQ37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR37" s="11" t="s">
         <v>58</v>
@@ -5079,7 +5079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>66</v>
       </c>
@@ -5136,7 +5136,7 @@
       <c r="BA38" s="15"/>
       <c r="BB38" s="15"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>67</v>
       </c>
@@ -5214,11 +5214,11 @@
       <c r="AB39" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AC39" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD39" s="17" t="s">
-        <v>58</v>
+      <c r="AC39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="17">
+        <v>0</v>
       </c>
       <c r="AE39" s="17">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
         <v>70</v>
       </c>
@@ -5350,7 +5350,7 @@
       <c r="BA40" s="15"/>
       <c r="BB40" s="15"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>71</v>
       </c>
@@ -5428,11 +5428,11 @@
       <c r="AB41" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AC41" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD41" s="17" t="s">
-        <v>58</v>
+      <c r="AC41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="17">
+        <v>0</v>
       </c>
       <c r="AE41" s="17">
         <v>0</v>
@@ -5507,164 +5507,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19">
-        <v>114055</v>
+        <v>97443</v>
       </c>
       <c r="F42" s="19">
-        <v>78201</v>
+        <v>125021</v>
       </c>
       <c r="G42" s="19">
-        <v>97443</v>
+        <v>180528</v>
       </c>
       <c r="H42" s="19">
-        <v>125021</v>
+        <v>113111</v>
       </c>
       <c r="I42" s="19">
-        <v>180528</v>
+        <v>193985</v>
       </c>
       <c r="J42" s="19">
-        <v>113111</v>
+        <v>182498</v>
       </c>
       <c r="K42" s="19">
-        <v>193985</v>
+        <v>152259</v>
       </c>
       <c r="L42" s="19">
-        <v>182498</v>
+        <v>134317</v>
       </c>
       <c r="M42" s="19">
-        <v>152259</v>
+        <v>143490</v>
       </c>
       <c r="N42" s="19">
-        <v>134317</v>
+        <v>157504</v>
       </c>
       <c r="O42" s="19">
-        <v>143490</v>
+        <v>132389</v>
       </c>
       <c r="P42" s="19">
-        <v>157504</v>
+        <v>142453</v>
       </c>
       <c r="Q42" s="19">
-        <v>132389</v>
+        <v>145859</v>
       </c>
       <c r="R42" s="19">
-        <v>142453</v>
+        <v>143747</v>
       </c>
       <c r="S42" s="19">
-        <v>145859</v>
+        <v>170938</v>
       </c>
       <c r="T42" s="19">
-        <v>143747</v>
+        <v>109594</v>
       </c>
       <c r="U42" s="19">
-        <v>170938</v>
+        <v>153036</v>
       </c>
       <c r="V42" s="19">
-        <v>109594</v>
+        <v>210053</v>
       </c>
       <c r="W42" s="19">
-        <v>153036</v>
+        <v>211011</v>
       </c>
       <c r="X42" s="19">
-        <v>210053</v>
+        <v>164465</v>
       </c>
       <c r="Y42" s="19">
-        <v>211011</v>
+        <v>192230</v>
       </c>
       <c r="Z42" s="19">
-        <v>164465</v>
+        <v>207251</v>
       </c>
       <c r="AA42" s="19">
-        <v>192230</v>
+        <v>230802</v>
       </c>
       <c r="AB42" s="19">
-        <v>207251</v>
+        <v>185013</v>
       </c>
       <c r="AC42" s="19">
-        <v>230802</v>
+        <v>174915</v>
       </c>
       <c r="AD42" s="19">
-        <v>185013</v>
+        <v>217012</v>
       </c>
       <c r="AE42" s="19">
-        <v>174915</v>
+        <v>238450</v>
       </c>
       <c r="AF42" s="19">
-        <v>217012</v>
+        <v>209498</v>
       </c>
       <c r="AG42" s="19">
-        <v>238450</v>
+        <v>220495</v>
       </c>
       <c r="AH42" s="19">
-        <v>209498</v>
+        <v>215181</v>
       </c>
       <c r="AI42" s="19">
-        <v>220495</v>
+        <v>121414</v>
       </c>
       <c r="AJ42" s="19">
-        <v>215181</v>
+        <v>125667</v>
       </c>
       <c r="AK42" s="19">
-        <v>121414</v>
+        <v>172608</v>
       </c>
       <c r="AL42" s="19">
-        <v>125667</v>
+        <v>151328</v>
       </c>
       <c r="AM42" s="19">
-        <v>172608</v>
+        <v>170036</v>
       </c>
       <c r="AN42" s="19">
-        <v>151328</v>
+        <v>173143</v>
       </c>
       <c r="AO42" s="19">
-        <v>170036</v>
+        <v>143981</v>
       </c>
       <c r="AP42" s="19">
-        <v>173143</v>
+        <v>157845</v>
       </c>
       <c r="AQ42" s="19">
-        <v>143981</v>
+        <v>167895</v>
       </c>
       <c r="AR42" s="19">
-        <v>157845</v>
+        <v>137975</v>
       </c>
       <c r="AS42" s="19">
-        <v>167895</v>
+        <v>187904</v>
       </c>
       <c r="AT42" s="19">
-        <v>137975</v>
+        <v>178646</v>
       </c>
       <c r="AU42" s="19">
-        <v>187904</v>
+        <v>174445</v>
       </c>
       <c r="AV42" s="19">
-        <v>178646</v>
+        <v>174967</v>
       </c>
       <c r="AW42" s="19">
-        <v>174445</v>
+        <v>202726</v>
       </c>
       <c r="AX42" s="19">
-        <v>174967</v>
+        <v>197222</v>
       </c>
       <c r="AY42" s="19">
-        <v>202726</v>
+        <v>183835</v>
       </c>
       <c r="AZ42" s="19">
-        <v>197222</v>
+        <v>194374</v>
       </c>
       <c r="BA42" s="19">
-        <v>183835</v>
+        <v>156042</v>
       </c>
       <c r="BB42" s="19">
-        <v>194374</v>
+        <v>150046</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5719,7 +5719,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5774,7 +5774,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5829,7 +5829,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>72</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6041,7 +6041,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>72</v>
       </c>
@@ -6098,7 +6098,7 @@
       <c r="BA48" s="9"/>
       <c r="BB48" s="9"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>55</v>
       </c>
@@ -6191,22 +6191,22 @@
         <v>0</v>
       </c>
       <c r="AG49" s="11">
-        <v>0</v>
+        <v>20292</v>
       </c>
       <c r="AH49" s="11">
-        <v>0</v>
+        <v>7945</v>
       </c>
       <c r="AI49" s="11">
-        <v>20292</v>
+        <v>0</v>
       </c>
       <c r="AJ49" s="11">
-        <v>7945</v>
+        <v>11155</v>
       </c>
       <c r="AK49" s="11">
         <v>0</v>
       </c>
       <c r="AL49" s="11">
-        <v>11155</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="11">
         <v>0</v>
@@ -6230,25 +6230,25 @@
         <v>0</v>
       </c>
       <c r="AT49" s="11">
-        <v>0</v>
+        <v>32576</v>
       </c>
       <c r="AU49" s="11">
         <v>0</v>
       </c>
       <c r="AV49" s="11">
-        <v>32576</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="11">
-        <v>0</v>
+        <v>42722</v>
       </c>
       <c r="AX49" s="11">
-        <v>0</v>
+        <v>29978</v>
       </c>
       <c r="AY49" s="11">
-        <v>42722</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="11">
-        <v>29978</v>
+        <v>0</v>
       </c>
       <c r="BA49" s="11">
         <v>0</v>
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>57</v>
       </c>
@@ -6382,41 +6382,41 @@
       <c r="AQ50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS50" s="13" t="s">
-        <v>58</v>
+      <c r="AR50" s="13">
+        <v>45914</v>
+      </c>
+      <c r="AS50" s="13">
+        <v>108484</v>
       </c>
       <c r="AT50" s="13">
-        <v>45914</v>
+        <v>109898</v>
       </c>
       <c r="AU50" s="13">
-        <v>108484</v>
+        <v>198552</v>
       </c>
       <c r="AV50" s="13">
-        <v>109898</v>
+        <v>190889</v>
       </c>
       <c r="AW50" s="13">
-        <v>198552</v>
+        <v>117699</v>
       </c>
       <c r="AX50" s="13">
-        <v>190889</v>
+        <v>162783</v>
       </c>
       <c r="AY50" s="13">
-        <v>117699</v>
+        <v>190653</v>
       </c>
       <c r="AZ50" s="13">
-        <v>162783</v>
+        <v>156537</v>
       </c>
       <c r="BA50" s="13">
-        <v>190653</v>
+        <v>5338</v>
       </c>
       <c r="BB50" s="13">
-        <v>156535</v>
+        <v>29780</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>59</v>
       </c>
@@ -6425,22 +6425,22 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>84058</v>
+        <v>81074</v>
       </c>
       <c r="F51" s="11">
-        <v>60031</v>
+        <v>98062</v>
       </c>
       <c r="G51" s="11">
-        <v>81074</v>
+        <v>120196</v>
       </c>
       <c r="H51" s="11">
-        <v>98062</v>
+        <v>52791</v>
       </c>
       <c r="I51" s="11">
-        <v>120196</v>
+        <v>0</v>
       </c>
       <c r="J51" s="11">
-        <v>52791</v>
+        <v>0</v>
       </c>
       <c r="K51" s="11">
         <v>0</v>
@@ -6460,11 +6460,11 @@
       <c r="P51" s="11">
         <v>0</v>
       </c>
-      <c r="Q51" s="11">
-        <v>0</v>
-      </c>
-      <c r="R51" s="11">
-        <v>0</v>
+      <c r="Q51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="S51" s="11" t="s">
         <v>58</v>
@@ -6496,57 +6496,57 @@
       <c r="AB51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD51" s="11" t="s">
-        <v>58</v>
+      <c r="AC51" s="11">
+        <v>198101</v>
+      </c>
+      <c r="AD51" s="11">
+        <v>250404</v>
       </c>
       <c r="AE51" s="11">
-        <v>198101</v>
+        <v>259592</v>
       </c>
       <c r="AF51" s="11">
-        <v>250404</v>
+        <v>208235</v>
       </c>
       <c r="AG51" s="11">
-        <v>259592</v>
+        <v>333124</v>
       </c>
       <c r="AH51" s="11">
-        <v>208235</v>
+        <v>346687</v>
       </c>
       <c r="AI51" s="11">
-        <v>333124</v>
+        <v>218627</v>
       </c>
       <c r="AJ51" s="11">
-        <v>346687</v>
+        <v>324515</v>
       </c>
       <c r="AK51" s="11">
-        <v>218627</v>
+        <v>561291</v>
       </c>
       <c r="AL51" s="11">
-        <v>324515</v>
+        <v>306894</v>
       </c>
       <c r="AM51" s="11">
-        <v>561291</v>
+        <v>304178</v>
       </c>
       <c r="AN51" s="11">
-        <v>306894</v>
+        <v>387264</v>
       </c>
       <c r="AO51" s="11">
-        <v>304178</v>
+        <v>330725</v>
       </c>
       <c r="AP51" s="11">
-        <v>387264</v>
+        <v>365140</v>
       </c>
       <c r="AQ51" s="11">
-        <v>330725</v>
-      </c>
-      <c r="AR51" s="11">
-        <v>365140</v>
-      </c>
-      <c r="AS51" s="11">
         <v>409980</v>
       </c>
+      <c r="AR51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS51" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT51" s="11" t="s">
         <v>58</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>60</v>
       </c>
@@ -6584,22 +6584,22 @@
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>61299</v>
+        <v>46325</v>
       </c>
       <c r="F52" s="13">
-        <v>37332</v>
+        <v>65453</v>
       </c>
       <c r="G52" s="13">
-        <v>46325</v>
+        <v>121597</v>
       </c>
       <c r="H52" s="13">
-        <v>65453</v>
+        <v>63966</v>
       </c>
       <c r="I52" s="13">
-        <v>121597</v>
+        <v>0</v>
       </c>
       <c r="J52" s="13">
-        <v>63966</v>
+        <v>0</v>
       </c>
       <c r="K52" s="13">
         <v>0</v>
@@ -6619,11 +6619,11 @@
       <c r="P52" s="13">
         <v>0</v>
       </c>
-      <c r="Q52" s="13">
-        <v>0</v>
-      </c>
-      <c r="R52" s="13">
-        <v>0</v>
+      <c r="Q52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="S52" s="13" t="s">
         <v>58</v>
@@ -6655,57 +6655,57 @@
       <c r="AB52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD52" s="13" t="s">
-        <v>58</v>
+      <c r="AC52" s="13">
+        <v>256539</v>
+      </c>
+      <c r="AD52" s="13">
+        <v>306680</v>
       </c>
       <c r="AE52" s="13">
-        <v>256539</v>
+        <v>330316</v>
       </c>
       <c r="AF52" s="13">
-        <v>306680</v>
+        <v>207645</v>
       </c>
       <c r="AG52" s="13">
-        <v>330316</v>
+        <v>351858</v>
       </c>
       <c r="AH52" s="13">
-        <v>207645</v>
+        <v>423311</v>
       </c>
       <c r="AI52" s="13">
-        <v>351858</v>
+        <v>231710</v>
       </c>
       <c r="AJ52" s="13">
-        <v>423311</v>
+        <v>325137</v>
       </c>
       <c r="AK52" s="13">
-        <v>231710</v>
+        <v>489315</v>
       </c>
       <c r="AL52" s="13">
-        <v>325137</v>
+        <v>392489</v>
       </c>
       <c r="AM52" s="13">
-        <v>489315</v>
+        <v>425572</v>
       </c>
       <c r="AN52" s="13">
-        <v>392489</v>
+        <v>523601</v>
       </c>
       <c r="AO52" s="13">
-        <v>425572</v>
+        <v>413552</v>
       </c>
       <c r="AP52" s="13">
-        <v>523601</v>
+        <v>460329</v>
       </c>
       <c r="AQ52" s="13">
-        <v>413552</v>
-      </c>
-      <c r="AR52" s="13">
-        <v>460329</v>
-      </c>
-      <c r="AS52" s="13">
         <v>504371</v>
       </c>
+      <c r="AR52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS52" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT52" s="13" t="s">
         <v>58</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>61</v>
       </c>
@@ -6859,41 +6859,41 @@
       <c r="AQ53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS53" s="11" t="s">
-        <v>58</v>
+      <c r="AR53" s="11">
+        <v>277405</v>
+      </c>
+      <c r="AS53" s="11">
+        <v>396597</v>
       </c>
       <c r="AT53" s="11">
-        <v>277405</v>
+        <v>492554</v>
       </c>
       <c r="AU53" s="11">
-        <v>396597</v>
+        <v>638025</v>
       </c>
       <c r="AV53" s="11">
-        <v>492554</v>
+        <v>547976</v>
       </c>
       <c r="AW53" s="11">
-        <v>638025</v>
+        <v>608837</v>
       </c>
       <c r="AX53" s="11">
-        <v>547976</v>
+        <v>521927</v>
       </c>
       <c r="AY53" s="11">
-        <v>608837</v>
+        <v>503058</v>
       </c>
       <c r="AZ53" s="11">
-        <v>521927</v>
+        <v>518705</v>
       </c>
       <c r="BA53" s="11">
-        <v>503058</v>
+        <v>471146</v>
       </c>
       <c r="BB53" s="11">
-        <v>518703</v>
+        <v>508335</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>62</v>
       </c>
@@ -7018,41 +7018,41 @@
       <c r="AQ54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS54" s="13" t="s">
-        <v>58</v>
+      <c r="AR54" s="13">
+        <v>433325</v>
+      </c>
+      <c r="AS54" s="13">
+        <v>543797</v>
       </c>
       <c r="AT54" s="13">
-        <v>433325</v>
+        <v>573285</v>
       </c>
       <c r="AU54" s="13">
-        <v>543797</v>
+        <v>599537</v>
       </c>
       <c r="AV54" s="13">
-        <v>573285</v>
+        <v>591711</v>
       </c>
       <c r="AW54" s="13">
-        <v>599537</v>
+        <v>714559</v>
       </c>
       <c r="AX54" s="13">
-        <v>591711</v>
+        <v>737841</v>
       </c>
       <c r="AY54" s="13">
-        <v>714559</v>
+        <v>652799</v>
       </c>
       <c r="AZ54" s="13">
-        <v>737841</v>
+        <v>714297</v>
       </c>
       <c r="BA54" s="13">
-        <v>652799</v>
+        <v>579466</v>
       </c>
       <c r="BB54" s="13">
-        <v>714298</v>
+        <v>516710</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>63</v>
       </c>
@@ -7060,23 +7060,23 @@
         <v>73</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11">
-        <v>0</v>
-      </c>
-      <c r="F55" s="11">
-        <v>0</v>
+      <c r="E55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>58</v>
+      <c r="H55" s="11">
+        <v>26604</v>
+      </c>
+      <c r="I55" s="11">
+        <v>0</v>
       </c>
       <c r="J55" s="11">
-        <v>26604</v>
+        <v>0</v>
       </c>
       <c r="K55" s="11">
         <v>0</v>
@@ -7096,11 +7096,11 @@
       <c r="P55" s="11">
         <v>0</v>
       </c>
-      <c r="Q55" s="11">
-        <v>0</v>
-      </c>
-      <c r="R55" s="11">
-        <v>0</v>
+      <c r="Q55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="S55" s="11" t="s">
         <v>58</v>
@@ -7132,57 +7132,57 @@
       <c r="AB55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD55" s="11" t="s">
-        <v>58</v>
+      <c r="AC55" s="11">
+        <v>17821</v>
+      </c>
+      <c r="AD55" s="11">
+        <v>26771</v>
       </c>
       <c r="AE55" s="11">
-        <v>17821</v>
+        <v>80811</v>
       </c>
       <c r="AF55" s="11">
-        <v>26771</v>
+        <v>264001</v>
       </c>
       <c r="AG55" s="11">
-        <v>80811</v>
+        <v>159120</v>
       </c>
       <c r="AH55" s="11">
-        <v>264001</v>
+        <v>15004</v>
       </c>
       <c r="AI55" s="11">
-        <v>159120</v>
+        <v>15583</v>
       </c>
       <c r="AJ55" s="11">
-        <v>15004</v>
+        <v>49149</v>
       </c>
       <c r="AK55" s="11">
-        <v>15583</v>
+        <v>34879</v>
       </c>
       <c r="AL55" s="11">
-        <v>49149</v>
+        <v>68148</v>
       </c>
       <c r="AM55" s="11">
-        <v>34879</v>
+        <v>89735</v>
       </c>
       <c r="AN55" s="11">
-        <v>68148</v>
+        <v>88788</v>
       </c>
       <c r="AO55" s="11">
-        <v>89735</v>
+        <v>24660</v>
       </c>
       <c r="AP55" s="11">
-        <v>88788</v>
+        <v>71298</v>
       </c>
       <c r="AQ55" s="11">
-        <v>24660</v>
-      </c>
-      <c r="AR55" s="11">
-        <v>71298</v>
-      </c>
-      <c r="AS55" s="11">
         <v>52640</v>
       </c>
+      <c r="AR55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS55" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT55" s="11" t="s">
         <v>58</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>64</v>
       </c>
@@ -7231,72 +7231,72 @@
       <c r="H56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J56" s="13" t="s">
-        <v>58</v>
+      <c r="I56" s="13">
+        <v>281584</v>
+      </c>
+      <c r="J56" s="13">
+        <v>269111</v>
       </c>
       <c r="K56" s="13">
-        <v>281584</v>
+        <v>252593</v>
       </c>
       <c r="L56" s="13">
-        <v>269111</v>
+        <v>257221</v>
       </c>
       <c r="M56" s="13">
-        <v>252593</v>
+        <v>275545</v>
       </c>
       <c r="N56" s="13">
-        <v>257221</v>
+        <v>299825</v>
       </c>
       <c r="O56" s="13">
-        <v>275545</v>
+        <v>252412</v>
       </c>
       <c r="P56" s="13">
-        <v>299825</v>
+        <v>271025</v>
       </c>
       <c r="Q56" s="13">
-        <v>252412</v>
+        <v>277807</v>
       </c>
       <c r="R56" s="13">
-        <v>271025</v>
+        <v>279069</v>
       </c>
       <c r="S56" s="13">
-        <v>277807</v>
+        <v>337088</v>
       </c>
       <c r="T56" s="13">
-        <v>279069</v>
+        <v>243035</v>
       </c>
       <c r="U56" s="13">
-        <v>337088</v>
+        <v>293181</v>
       </c>
       <c r="V56" s="13">
-        <v>243035</v>
+        <v>416739</v>
       </c>
       <c r="W56" s="13">
-        <v>293181</v>
+        <v>469882</v>
       </c>
       <c r="X56" s="13">
-        <v>416739</v>
+        <v>405092</v>
       </c>
       <c r="Y56" s="13">
-        <v>469882</v>
+        <v>461960</v>
       </c>
       <c r="Z56" s="13">
-        <v>405092</v>
+        <v>531956</v>
       </c>
       <c r="AA56" s="13">
-        <v>461960</v>
+        <v>631830</v>
       </c>
       <c r="AB56" s="13">
-        <v>531956</v>
-      </c>
-      <c r="AC56" s="13">
-        <v>631830</v>
-      </c>
-      <c r="AD56" s="13">
         <v>492755</v>
       </c>
+      <c r="AC56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD56" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE56" s="13" t="s">
         <v>58</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>65</v>
       </c>
@@ -7486,14 +7486,14 @@
       <c r="AN57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO57" s="11" t="s">
-        <v>58</v>
+      <c r="AO57" s="11">
+        <v>0</v>
       </c>
       <c r="AP57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ57" s="11">
-        <v>0</v>
+      <c r="AQ57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR57" s="11" t="s">
         <v>58</v>
@@ -7529,7 +7529,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
         <v>74</v>
       </c>
@@ -7586,7 +7586,7 @@
       <c r="BA58" s="15"/>
       <c r="BB58" s="15"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>67</v>
       </c>
@@ -7666,11 +7666,11 @@
       <c r="AB59" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AC59" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD59" s="17" t="s">
-        <v>58</v>
+      <c r="AC59" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="17">
+        <v>0</v>
       </c>
       <c r="AE59" s="17">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>75</v>
       </c>
@@ -7802,7 +7802,7 @@
       <c r="BA60" s="15"/>
       <c r="BB60" s="15"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>71</v>
       </c>
@@ -7882,11 +7882,11 @@
       <c r="AB61" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AC61" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD61" s="17" t="s">
-        <v>58</v>
+      <c r="AC61" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="17">
+        <v>0</v>
       </c>
       <c r="AE61" s="17">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>76</v>
       </c>
@@ -8018,7 +8018,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>77</v>
       </c>
@@ -8098,11 +8098,11 @@
       <c r="AB63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD63" s="11" t="s">
-        <v>58</v>
+      <c r="AC63" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="11">
+        <v>0</v>
       </c>
       <c r="AE63" s="11">
         <v>0</v>
@@ -8177,164 +8177,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19">
-        <v>145357</v>
+        <v>127399</v>
       </c>
       <c r="F64" s="19">
-        <v>97363</v>
+        <v>163515</v>
       </c>
       <c r="G64" s="19">
-        <v>127399</v>
+        <v>241793</v>
       </c>
       <c r="H64" s="19">
-        <v>163515</v>
+        <v>143361</v>
       </c>
       <c r="I64" s="19">
-        <v>241793</v>
+        <v>281584</v>
       </c>
       <c r="J64" s="19">
-        <v>143361</v>
+        <v>269111</v>
       </c>
       <c r="K64" s="19">
-        <v>281584</v>
+        <v>252593</v>
       </c>
       <c r="L64" s="19">
-        <v>269111</v>
+        <v>257221</v>
       </c>
       <c r="M64" s="19">
-        <v>252593</v>
+        <v>275545</v>
       </c>
       <c r="N64" s="19">
-        <v>257221</v>
+        <v>299825</v>
       </c>
       <c r="O64" s="19">
-        <v>275545</v>
+        <v>252412</v>
       </c>
       <c r="P64" s="19">
-        <v>299825</v>
+        <v>271025</v>
       </c>
       <c r="Q64" s="19">
-        <v>252412</v>
+        <v>277807</v>
       </c>
       <c r="R64" s="19">
-        <v>271025</v>
+        <v>279069</v>
       </c>
       <c r="S64" s="19">
-        <v>277807</v>
+        <v>337088</v>
       </c>
       <c r="T64" s="19">
-        <v>279069</v>
+        <v>243035</v>
       </c>
       <c r="U64" s="19">
-        <v>337088</v>
+        <v>293181</v>
       </c>
       <c r="V64" s="19">
-        <v>243035</v>
+        <v>416739</v>
       </c>
       <c r="W64" s="19">
-        <v>293181</v>
+        <v>469882</v>
       </c>
       <c r="X64" s="19">
-        <v>416739</v>
+        <v>405092</v>
       </c>
       <c r="Y64" s="19">
-        <v>469882</v>
+        <v>461960</v>
       </c>
       <c r="Z64" s="19">
-        <v>405092</v>
+        <v>531956</v>
       </c>
       <c r="AA64" s="19">
-        <v>461960</v>
+        <v>631830</v>
       </c>
       <c r="AB64" s="19">
-        <v>531956</v>
+        <v>492755</v>
       </c>
       <c r="AC64" s="19">
-        <v>631830</v>
+        <v>472461</v>
       </c>
       <c r="AD64" s="19">
-        <v>492755</v>
+        <v>583855</v>
       </c>
       <c r="AE64" s="19">
-        <v>472461</v>
+        <v>670719</v>
       </c>
       <c r="AF64" s="19">
-        <v>583855</v>
+        <v>679881</v>
       </c>
       <c r="AG64" s="19">
-        <v>670719</v>
+        <v>864394</v>
       </c>
       <c r="AH64" s="19">
-        <v>679881</v>
+        <v>792947</v>
       </c>
       <c r="AI64" s="19">
-        <v>864394</v>
+        <v>465920</v>
       </c>
       <c r="AJ64" s="19">
-        <v>792947</v>
+        <v>709956</v>
       </c>
       <c r="AK64" s="19">
-        <v>465920</v>
+        <v>1085485</v>
       </c>
       <c r="AL64" s="19">
-        <v>709956</v>
+        <v>767531</v>
       </c>
       <c r="AM64" s="19">
-        <v>1085485</v>
+        <v>819485</v>
       </c>
       <c r="AN64" s="19">
-        <v>767531</v>
+        <v>999653</v>
       </c>
       <c r="AO64" s="19">
-        <v>819485</v>
+        <v>768937</v>
       </c>
       <c r="AP64" s="19">
-        <v>999653</v>
+        <v>896767</v>
       </c>
       <c r="AQ64" s="19">
-        <v>768937</v>
+        <v>966991</v>
       </c>
       <c r="AR64" s="19">
-        <v>896767</v>
+        <v>756644</v>
       </c>
       <c r="AS64" s="19">
-        <v>966991</v>
+        <v>1048878</v>
       </c>
       <c r="AT64" s="19">
-        <v>756644</v>
+        <v>1208313</v>
       </c>
       <c r="AU64" s="19">
-        <v>1048878</v>
+        <v>1436114</v>
       </c>
       <c r="AV64" s="19">
-        <v>1208313</v>
+        <v>1330576</v>
       </c>
       <c r="AW64" s="19">
-        <v>1436114</v>
+        <v>1483817</v>
       </c>
       <c r="AX64" s="19">
-        <v>1330576</v>
+        <v>1452529</v>
       </c>
       <c r="AY64" s="19">
-        <v>1483817</v>
+        <v>1346510</v>
       </c>
       <c r="AZ64" s="19">
-        <v>1452529</v>
+        <v>1389539</v>
       </c>
       <c r="BA64" s="19">
-        <v>1346510</v>
+        <v>1055950</v>
       </c>
       <c r="BB64" s="19">
-        <v>1389536</v>
+        <v>1054825</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -8389,7 +8389,7 @@
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -8444,7 +8444,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -8499,7 +8499,7 @@
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
     </row>
-    <row r="68" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>78</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -8711,7 +8711,7 @@
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>79</v>
       </c>
@@ -8768,7 +8768,7 @@
       <c r="BA70" s="9"/>
       <c r="BB70" s="9"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>55</v>
       </c>
@@ -8848,11 +8848,11 @@
       <c r="AB71" s="11">
         <v>0</v>
       </c>
-      <c r="AC71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD71" s="11">
-        <v>0</v>
+      <c r="AC71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AE71" s="11" t="s">
         <v>58</v>
@@ -8860,23 +8860,23 @@
       <c r="AF71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI71" s="11">
+      <c r="AG71" s="11">
         <v>4152241</v>
       </c>
+      <c r="AH71" s="11">
+        <v>4155335</v>
+      </c>
+      <c r="AI71" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ71" s="11">
-        <v>4155335</v>
+        <v>5088960</v>
       </c>
       <c r="AK71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL71" s="11">
-        <v>5088960</v>
+      <c r="AL71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM71" s="11" t="s">
         <v>58</v>
@@ -8899,27 +8899,27 @@
       <c r="AS71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT71" s="11" t="s">
-        <v>58</v>
+      <c r="AT71" s="11">
+        <v>8144000</v>
       </c>
       <c r="AU71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV71" s="11">
-        <v>8144000</v>
-      </c>
-      <c r="AW71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY71" s="11">
+      <c r="AV71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW71" s="11">
         <v>7767636</v>
       </c>
-      <c r="AZ71" s="11">
+      <c r="AX71" s="11">
         <v>7686667</v>
       </c>
+      <c r="AY71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ71" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="BA71" s="11" t="s">
         <v>58</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>57</v>
       </c>
@@ -9052,41 +9052,41 @@
       <c r="AQ72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS72" s="13" t="s">
-        <v>58</v>
+      <c r="AR72" s="13">
+        <v>7964267</v>
+      </c>
+      <c r="AS72" s="13">
+        <v>8386857</v>
       </c>
       <c r="AT72" s="13">
-        <v>7964267</v>
+        <v>8770790</v>
       </c>
       <c r="AU72" s="13">
-        <v>8386857</v>
+        <v>9512384</v>
       </c>
       <c r="AV72" s="13">
-        <v>8770790</v>
+        <v>9355011</v>
       </c>
       <c r="AW72" s="13">
-        <v>9512384</v>
+        <v>9593202</v>
       </c>
       <c r="AX72" s="13">
-        <v>9355011</v>
+        <v>9667023</v>
       </c>
       <c r="AY72" s="13">
-        <v>9593202</v>
+        <v>9635606</v>
       </c>
       <c r="AZ72" s="13">
-        <v>9667023</v>
+        <v>9546452</v>
       </c>
       <c r="BA72" s="13">
-        <v>9635606</v>
+        <v>10641946</v>
       </c>
       <c r="BB72" s="13">
-        <v>9546331</v>
+        <v>9926667</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>59</v>
       </c>
@@ -9095,22 +9095,22 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>1208094</v>
+        <v>1230090</v>
       </c>
       <c r="F73" s="11">
-        <v>1180156</v>
+        <v>1221028</v>
       </c>
       <c r="G73" s="11">
-        <v>1230090</v>
+        <v>1217989</v>
       </c>
       <c r="H73" s="11">
-        <v>1221028</v>
+        <v>1098188</v>
       </c>
       <c r="I73" s="11">
-        <v>1217989</v>
+        <v>0</v>
       </c>
       <c r="J73" s="11">
-        <v>1098188</v>
+        <v>0</v>
       </c>
       <c r="K73" s="11">
         <v>0</v>
@@ -9130,11 +9130,11 @@
       <c r="P73" s="11">
         <v>0</v>
       </c>
-      <c r="Q73" s="11">
-        <v>0</v>
-      </c>
-      <c r="R73" s="11">
-        <v>0</v>
+      <c r="Q73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="S73" s="11" t="s">
         <v>58</v>
@@ -9166,57 +9166,57 @@
       <c r="AB73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD73" s="11" t="s">
-        <v>58</v>
+      <c r="AC73" s="11">
+        <v>2221835</v>
+      </c>
+      <c r="AD73" s="11">
+        <v>2208986</v>
       </c>
       <c r="AE73" s="11">
-        <v>2221835</v>
+        <v>2207828</v>
       </c>
       <c r="AF73" s="11">
-        <v>2208986</v>
+        <v>2204525</v>
       </c>
       <c r="AG73" s="11">
-        <v>2207828</v>
+        <v>3075767</v>
       </c>
       <c r="AH73" s="11">
-        <v>2204525</v>
+        <v>3076712</v>
       </c>
       <c r="AI73" s="11">
-        <v>3075767</v>
+        <v>3277570</v>
       </c>
       <c r="AJ73" s="11">
-        <v>3076712</v>
+        <v>5558858</v>
       </c>
       <c r="AK73" s="11">
-        <v>3277570</v>
+        <v>5722029</v>
       </c>
       <c r="AL73" s="11">
-        <v>5558858</v>
+        <v>4204776</v>
       </c>
       <c r="AM73" s="11">
-        <v>5722029</v>
+        <v>3880415</v>
       </c>
       <c r="AN73" s="11">
-        <v>4204776</v>
+        <v>5031755</v>
       </c>
       <c r="AO73" s="11">
-        <v>3880415</v>
+        <v>4708164</v>
       </c>
       <c r="AP73" s="11">
-        <v>5031755</v>
+        <v>5191662</v>
       </c>
       <c r="AQ73" s="11">
-        <v>4708164</v>
-      </c>
-      <c r="AR73" s="11">
-        <v>5191662</v>
-      </c>
-      <c r="AS73" s="11">
         <v>5269801</v>
       </c>
+      <c r="AR73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS73" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT73" s="11" t="s">
         <v>58</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>60</v>
       </c>
@@ -9254,22 +9254,22 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>1378249</v>
+        <v>1469049</v>
       </c>
       <c r="F74" s="13">
-        <v>1365772</v>
+        <v>1463945</v>
       </c>
       <c r="G74" s="13">
-        <v>1469049</v>
+        <v>1485717</v>
       </c>
       <c r="H74" s="13">
-        <v>1463945</v>
+        <v>1275239</v>
       </c>
       <c r="I74" s="13">
-        <v>1485717</v>
+        <v>0</v>
       </c>
       <c r="J74" s="13">
-        <v>1275239</v>
+        <v>0</v>
       </c>
       <c r="K74" s="13">
         <v>0</v>
@@ -9289,11 +9289,11 @@
       <c r="P74" s="13">
         <v>0</v>
       </c>
-      <c r="Q74" s="13">
-        <v>0</v>
-      </c>
-      <c r="R74" s="13">
-        <v>0</v>
+      <c r="Q74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R74" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="S74" s="13" t="s">
         <v>58</v>
@@ -9325,57 +9325,57 @@
       <c r="AB74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD74" s="13" t="s">
-        <v>58</v>
+      <c r="AC74" s="13">
+        <v>3104671</v>
+      </c>
+      <c r="AD74" s="13">
+        <v>3102698</v>
       </c>
       <c r="AE74" s="13">
-        <v>3104671</v>
+        <v>3105466</v>
       </c>
       <c r="AF74" s="13">
-        <v>3102698</v>
+        <v>3097145</v>
       </c>
       <c r="AG74" s="13">
-        <v>3105466</v>
+        <v>4282230</v>
       </c>
       <c r="AH74" s="13">
-        <v>3097145</v>
+        <v>4312635</v>
       </c>
       <c r="AI74" s="13">
-        <v>4282230</v>
+        <v>4438889</v>
       </c>
       <c r="AJ74" s="13">
-        <v>4312635</v>
+        <v>5472213</v>
       </c>
       <c r="AK74" s="13">
-        <v>4438889</v>
+        <v>6946846</v>
       </c>
       <c r="AL74" s="13">
-        <v>5472213</v>
+        <v>5591728</v>
       </c>
       <c r="AM74" s="13">
-        <v>6946846</v>
+        <v>5273899</v>
       </c>
       <c r="AN74" s="13">
-        <v>5591728</v>
+        <v>6152484</v>
       </c>
       <c r="AO74" s="13">
-        <v>5273899</v>
+        <v>5849723</v>
       </c>
       <c r="AP74" s="13">
-        <v>6152484</v>
+        <v>5877016</v>
       </c>
       <c r="AQ74" s="13">
-        <v>5849723</v>
-      </c>
-      <c r="AR74" s="13">
-        <v>5877016</v>
-      </c>
-      <c r="AS74" s="13">
         <v>6052476</v>
       </c>
+      <c r="AR74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS74" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT74" s="13" t="s">
         <v>58</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>61</v>
       </c>
@@ -9529,41 +9529,41 @@
       <c r="AQ75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS75" s="11" t="s">
-        <v>58</v>
+      <c r="AR75" s="11">
+        <v>4737350</v>
+      </c>
+      <c r="AS75" s="11">
+        <v>4700465</v>
       </c>
       <c r="AT75" s="11">
-        <v>4737350</v>
+        <v>6031692</v>
       </c>
       <c r="AU75" s="11">
-        <v>4700465</v>
+        <v>7881522</v>
       </c>
       <c r="AV75" s="11">
-        <v>6031692</v>
+        <v>7144779</v>
       </c>
       <c r="AW75" s="11">
-        <v>7881522</v>
+        <v>7057589</v>
       </c>
       <c r="AX75" s="11">
-        <v>7144779</v>
+        <v>6902147</v>
       </c>
       <c r="AY75" s="11">
-        <v>7057589</v>
+        <v>6871438</v>
       </c>
       <c r="AZ75" s="11">
-        <v>6902147</v>
+        <v>6802753</v>
       </c>
       <c r="BA75" s="11">
-        <v>6871438</v>
+        <v>6370231</v>
       </c>
       <c r="BB75" s="11">
-        <v>6802727</v>
+        <v>6547212</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>62</v>
       </c>
@@ -9688,41 +9688,41 @@
       <c r="AQ76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS76" s="13" t="s">
-        <v>58</v>
+      <c r="AR76" s="13">
+        <v>5883331</v>
+      </c>
+      <c r="AS76" s="13">
+        <v>6002506</v>
       </c>
       <c r="AT76" s="13">
-        <v>5883331</v>
+        <v>7125536</v>
       </c>
       <c r="AU76" s="13">
-        <v>6002506</v>
+        <v>8255811</v>
       </c>
       <c r="AV76" s="13">
-        <v>7125536</v>
+        <v>7599093</v>
       </c>
       <c r="AW76" s="13">
-        <v>8255811</v>
+        <v>7240440</v>
       </c>
       <c r="AX76" s="13">
-        <v>7599093</v>
+        <v>7315112</v>
       </c>
       <c r="AY76" s="13">
-        <v>7240440</v>
+        <v>7186385</v>
       </c>
       <c r="AZ76" s="13">
-        <v>7315112</v>
+        <v>7021705</v>
       </c>
       <c r="BA76" s="13">
-        <v>7186385</v>
+        <v>7103057</v>
       </c>
       <c r="BB76" s="13">
-        <v>7021715</v>
+        <v>7444853</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>63</v>
       </c>
@@ -9730,23 +9730,23 @@
         <v>80</v>
       </c>
       <c r="D77" s="11"/>
-      <c r="E77" s="11">
-        <v>0</v>
-      </c>
-      <c r="F77" s="11">
-        <v>0</v>
+      <c r="E77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>58</v>
+      <c r="H77" s="11">
+        <v>1787903</v>
+      </c>
+      <c r="I77" s="11">
+        <v>0</v>
       </c>
       <c r="J77" s="11">
-        <v>1787903</v>
+        <v>0</v>
       </c>
       <c r="K77" s="11">
         <v>0</v>
@@ -9766,11 +9766,11 @@
       <c r="P77" s="11">
         <v>0</v>
       </c>
-      <c r="Q77" s="11">
-        <v>0</v>
-      </c>
-      <c r="R77" s="11">
-        <v>0</v>
+      <c r="Q77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="S77" s="11" t="s">
         <v>58</v>
@@ -9802,57 +9802,57 @@
       <c r="AB77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD77" s="11" t="s">
-        <v>58</v>
+      <c r="AC77" s="11">
+        <v>5704545</v>
+      </c>
+      <c r="AD77" s="11">
+        <v>5563383</v>
       </c>
       <c r="AE77" s="11">
-        <v>5704545</v>
+        <v>5570867</v>
       </c>
       <c r="AF77" s="11">
-        <v>5563383</v>
+        <v>5500479</v>
       </c>
       <c r="AG77" s="11">
-        <v>5570867</v>
+        <v>6330615</v>
       </c>
       <c r="AH77" s="11">
-        <v>5500479</v>
+        <v>6169408</v>
       </c>
       <c r="AI77" s="11">
-        <v>6330615</v>
+        <v>6208367</v>
       </c>
       <c r="AJ77" s="11">
-        <v>6169408</v>
+        <v>8651470</v>
       </c>
       <c r="AK77" s="11">
-        <v>6208367</v>
+        <v>8552967</v>
       </c>
       <c r="AL77" s="11">
-        <v>8651470</v>
+        <v>8361718</v>
       </c>
       <c r="AM77" s="11">
-        <v>8552967</v>
+        <v>8191985</v>
       </c>
       <c r="AN77" s="11">
-        <v>8361718</v>
+        <v>8016975</v>
       </c>
       <c r="AO77" s="11">
-        <v>8191985</v>
+        <v>8111842</v>
       </c>
       <c r="AP77" s="11">
-        <v>8016975</v>
+        <v>7761594</v>
       </c>
       <c r="AQ77" s="11">
-        <v>8111842</v>
-      </c>
-      <c r="AR77" s="11">
-        <v>7761594</v>
-      </c>
-      <c r="AS77" s="11">
         <v>7782377</v>
       </c>
+      <c r="AR77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS77" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT77" s="11" t="s">
         <v>58</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>64</v>
       </c>
@@ -9901,71 +9901,71 @@
       <c r="H78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J78" s="13" t="s">
-        <v>58</v>
+      <c r="I78" s="13">
+        <v>1451576</v>
+      </c>
+      <c r="J78" s="13">
+        <v>1474597</v>
       </c>
       <c r="K78" s="13">
-        <v>1451576</v>
+        <v>1658969</v>
       </c>
       <c r="L78" s="13">
-        <v>1474597</v>
+        <v>1915029</v>
       </c>
       <c r="M78" s="13">
-        <v>1658969</v>
+        <v>1920308</v>
       </c>
       <c r="N78" s="13">
-        <v>1915029</v>
+        <v>1903602</v>
       </c>
       <c r="O78" s="13">
-        <v>1920308</v>
+        <v>1906593</v>
       </c>
       <c r="P78" s="13">
-        <v>1903602</v>
+        <v>1902557</v>
       </c>
       <c r="Q78" s="13">
-        <v>1906593</v>
+        <v>1904627</v>
       </c>
       <c r="R78" s="13">
-        <v>1902557</v>
+        <v>1941390</v>
       </c>
       <c r="S78" s="13">
-        <v>1904627</v>
+        <v>1971990</v>
       </c>
       <c r="T78" s="13">
-        <v>1941390</v>
+        <v>2217594</v>
       </c>
       <c r="U78" s="13">
-        <v>1971990</v>
+        <v>1915765</v>
       </c>
       <c r="V78" s="13">
-        <v>2217594</v>
+        <v>1983971</v>
       </c>
       <c r="W78" s="13">
-        <v>1915765</v>
+        <v>2226813</v>
       </c>
       <c r="X78" s="13">
-        <v>1983971</v>
+        <v>2463089</v>
       </c>
       <c r="Y78" s="13">
-        <v>2226813</v>
+        <v>2403163</v>
       </c>
       <c r="Z78" s="13">
-        <v>2463089</v>
+        <v>2566723</v>
       </c>
       <c r="AA78" s="13">
-        <v>2403163</v>
+        <v>2737541</v>
       </c>
       <c r="AB78" s="13">
-        <v>2566723</v>
-      </c>
-      <c r="AC78" s="13">
-        <v>2737541</v>
-      </c>
-      <c r="AD78" s="13">
         <v>2663353</v>
+      </c>
+      <c r="AC78" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD78" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE78" s="13" t="s">
         <v>58</v>

--- a/database/industries/siman/semazen/product/monthly.xlsx
+++ b/database/industries/siman/semazen/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="81">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3228,154 +3228,154 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>100720</v>
+        <v>95070</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>95070</v>
+        <v>76030</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>76030</v>
+        <v>175000</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>175000</v>
+        <v>224910</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>224910</v>
+        <v>217690</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>217690</v>
+        <v>223370</v>
       </c>
       <c r="K11" s="12" t="n">
-        <v>223370</v>
+        <v>175690</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>175690</v>
+        <v>158760</v>
       </c>
       <c r="M11" s="12" t="n">
-        <v>158760</v>
+        <v>140630</v>
       </c>
       <c r="N11" s="12" t="n">
-        <v>140630</v>
+        <v>102460</v>
       </c>
       <c r="O11" s="12" t="n">
-        <v>102460</v>
+        <v>98410</v>
       </c>
       <c r="P11" s="12" t="n">
-        <v>98410</v>
+        <v>99010</v>
       </c>
       <c r="Q11" s="12" t="n">
-        <v>99010</v>
+        <v>96840</v>
       </c>
       <c r="R11" s="12" t="n">
-        <v>96840</v>
+        <v>94120</v>
       </c>
       <c r="S11" s="12" t="n">
-        <v>94120</v>
+        <v>161400</v>
       </c>
       <c r="T11" s="12" t="n">
-        <v>161400</v>
+        <v>136840</v>
       </c>
       <c r="U11" s="12" t="n">
-        <v>136840</v>
+        <v>224830</v>
       </c>
       <c r="V11" s="12" t="n">
-        <v>224830</v>
+        <v>227540</v>
       </c>
       <c r="W11" s="12" t="n">
-        <v>227540</v>
+        <v>207720</v>
       </c>
       <c r="X11" s="12" t="n">
-        <v>207720</v>
+        <v>197560</v>
       </c>
       <c r="Y11" s="12" t="n">
-        <v>197560</v>
+        <v>180800</v>
       </c>
       <c r="Z11" s="12" t="n">
-        <v>180800</v>
+        <v>163760</v>
       </c>
       <c r="AA11" s="12" t="n">
-        <v>163760</v>
+        <v>78840</v>
       </c>
       <c r="AB11" s="12" t="n">
-        <v>78840</v>
+        <v>109700</v>
       </c>
       <c r="AC11" s="12" t="n">
-        <v>109700</v>
+        <v>220450</v>
       </c>
       <c r="AD11" s="12" t="n">
-        <v>220450</v>
+        <v>227560</v>
       </c>
       <c r="AE11" s="12" t="n">
-        <v>227560</v>
+        <v>211440</v>
       </c>
       <c r="AF11" s="12" t="n">
-        <v>211440</v>
+        <v>149740</v>
       </c>
       <c r="AG11" s="12" t="n">
-        <v>149740</v>
+        <v>84760</v>
       </c>
       <c r="AH11" s="12" t="n">
-        <v>84760</v>
+        <v>96900</v>
       </c>
       <c r="AI11" s="12" t="n">
-        <v>96900</v>
+        <v>132730</v>
       </c>
       <c r="AJ11" s="12" t="n">
-        <v>132730</v>
+        <v>214160</v>
       </c>
       <c r="AK11" s="12" t="n">
-        <v>214160</v>
+        <v>218350</v>
       </c>
       <c r="AL11" s="12" t="n">
-        <v>218350</v>
+        <v>166550</v>
       </c>
       <c r="AM11" s="12" t="n">
-        <v>166550</v>
+        <v>168620</v>
       </c>
       <c r="AN11" s="12" t="n">
-        <v>168620</v>
+        <v>114940</v>
       </c>
       <c r="AO11" s="12" t="n">
-        <v>114940</v>
+        <v>213490</v>
       </c>
       <c r="AP11" s="12" t="n">
-        <v>213490</v>
+        <v>191470</v>
       </c>
       <c r="AQ11" s="12" t="n">
-        <v>191470</v>
+        <v>226080</v>
       </c>
       <c r="AR11" s="12" t="n">
-        <v>226080</v>
+        <v>219950</v>
       </c>
       <c r="AS11" s="12" t="n">
-        <v>219950</v>
+        <v>122390</v>
       </c>
       <c r="AT11" s="12" t="n">
-        <v>122390</v>
+        <v>103130</v>
       </c>
       <c r="AU11" s="12" t="n">
-        <v>103130</v>
+        <v>117210</v>
       </c>
       <c r="AV11" s="12" t="n">
-        <v>117210</v>
+        <v>218140</v>
       </c>
       <c r="AW11" s="12" t="n">
-        <v>218140</v>
+        <v>210040</v>
       </c>
       <c r="AX11" s="12" t="n">
-        <v>210040</v>
+        <v>208060</v>
       </c>
       <c r="AY11" s="12" t="n">
-        <v>208060</v>
+        <v>121180</v>
       </c>
       <c r="AZ11" s="12" t="n">
-        <v>121180</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="12" t="n">
-        <v>0</v>
+        <v>138345</v>
       </c>
       <c r="BB11" s="12" t="n">
-        <v>138345</v>
+        <v>227175</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3497,44 +3497,44 @@
       <c r="AO12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP12" s="15" t="s">
-        <v>58</v>
+      <c r="AP12" s="15" t="n">
+        <v>5741</v>
       </c>
       <c r="AQ12" s="15" t="n">
-        <v>5741</v>
+        <v>13395</v>
       </c>
       <c r="AR12" s="15" t="n">
-        <v>13395</v>
+        <v>11670</v>
       </c>
       <c r="AS12" s="15" t="n">
-        <v>11670</v>
+        <v>20194</v>
       </c>
       <c r="AT12" s="15" t="n">
-        <v>20194</v>
+        <v>22598</v>
       </c>
       <c r="AU12" s="15" t="n">
-        <v>22598</v>
+        <v>11807</v>
       </c>
       <c r="AV12" s="15" t="n">
-        <v>11807</v>
+        <v>21898</v>
       </c>
       <c r="AW12" s="15" t="n">
-        <v>21898</v>
+        <v>20862</v>
       </c>
       <c r="AX12" s="15" t="n">
-        <v>20862</v>
+        <v>15675</v>
       </c>
       <c r="AY12" s="15" t="n">
-        <v>15675</v>
+        <v>455</v>
       </c>
       <c r="AZ12" s="15" t="n">
-        <v>455</v>
+        <v>2982</v>
       </c>
       <c r="BA12" s="15" t="n">
-        <v>2982</v>
+        <v>6302</v>
       </c>
       <c r="BB12" s="15" t="n">
-        <v>6302</v>
+        <v>23597</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3546,13 +3546,13 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="n">
-        <v>82025</v>
+        <v>96209</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>96209</v>
+        <v>41883</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>41883</v>
+        <v>0</v>
       </c>
       <c r="H13" s="12" t="n">
         <v>0</v>
@@ -3575,8 +3575,8 @@
       <c r="N13" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="O13" s="12" t="n">
-        <v>0</v>
+      <c r="O13" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="P13" s="16" t="s">
         <v>58</v>
@@ -3611,53 +3611,53 @@
       <c r="Z13" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA13" s="16" t="s">
-        <v>58</v>
+      <c r="AA13" s="16" t="n">
+        <v>90300</v>
       </c>
       <c r="AB13" s="16" t="n">
-        <v>90300</v>
+        <v>109292</v>
       </c>
       <c r="AC13" s="16" t="n">
-        <v>109292</v>
+        <v>114851</v>
       </c>
       <c r="AD13" s="16" t="n">
-        <v>114851</v>
+        <v>103044</v>
       </c>
       <c r="AE13" s="16" t="n">
-        <v>103044</v>
+        <v>112753</v>
       </c>
       <c r="AF13" s="16" t="n">
-        <v>112753</v>
+        <v>101486</v>
       </c>
       <c r="AG13" s="16" t="n">
-        <v>101486</v>
+        <v>74042</v>
       </c>
       <c r="AH13" s="16" t="n">
-        <v>74042</v>
+        <v>50045</v>
       </c>
       <c r="AI13" s="16" t="n">
-        <v>50045</v>
+        <v>103027</v>
       </c>
       <c r="AJ13" s="16" t="n">
-        <v>103027</v>
+        <v>74815</v>
       </c>
       <c r="AK13" s="16" t="n">
-        <v>74815</v>
+        <v>75623</v>
       </c>
       <c r="AL13" s="16" t="n">
-        <v>75623</v>
+        <v>80101</v>
       </c>
       <c r="AM13" s="16" t="n">
-        <v>80101</v>
+        <v>72874</v>
       </c>
       <c r="AN13" s="16" t="n">
-        <v>72874</v>
+        <v>75685</v>
       </c>
       <c r="AO13" s="16" t="n">
-        <v>75685</v>
-      </c>
-      <c r="AP13" s="16" t="n">
         <v>79060</v>
+      </c>
+      <c r="AP13" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ13" s="16" t="s">
         <v>58</v>
@@ -3705,13 +3705,13 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="n">
-        <v>45665</v>
+        <v>79794</v>
       </c>
       <c r="F14" s="15" t="n">
-        <v>79794</v>
+        <v>43703</v>
       </c>
       <c r="G14" s="15" t="n">
-        <v>43703</v>
+        <v>0</v>
       </c>
       <c r="H14" s="15" t="n">
         <v>0</v>
@@ -3734,8 +3734,8 @@
       <c r="N14" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="O14" s="15" t="n">
-        <v>0</v>
+      <c r="O14" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>58</v>
@@ -3770,53 +3770,53 @@
       <c r="Z14" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AA14" s="15" t="s">
-        <v>58</v>
+      <c r="AA14" s="15" t="n">
+        <v>83686</v>
       </c>
       <c r="AB14" s="15" t="n">
-        <v>83686</v>
+        <v>95299</v>
       </c>
       <c r="AC14" s="15" t="n">
-        <v>95299</v>
+        <v>103899</v>
       </c>
       <c r="AD14" s="15" t="n">
-        <v>103899</v>
+        <v>73138</v>
       </c>
       <c r="AE14" s="15" t="n">
-        <v>73138</v>
+        <v>85540</v>
       </c>
       <c r="AF14" s="15" t="n">
-        <v>85540</v>
+        <v>88404</v>
       </c>
       <c r="AG14" s="15" t="n">
-        <v>88404</v>
+        <v>57942</v>
       </c>
       <c r="AH14" s="15" t="n">
-        <v>57942</v>
+        <v>50935</v>
       </c>
       <c r="AI14" s="15" t="n">
-        <v>50935</v>
+        <v>73980</v>
       </c>
       <c r="AJ14" s="15" t="n">
-        <v>73980</v>
+        <v>71950</v>
       </c>
       <c r="AK14" s="15" t="n">
-        <v>71950</v>
+        <v>77849</v>
       </c>
       <c r="AL14" s="15" t="n">
-        <v>77849</v>
+        <v>88574</v>
       </c>
       <c r="AM14" s="15" t="n">
-        <v>88574</v>
+        <v>73342</v>
       </c>
       <c r="AN14" s="15" t="n">
-        <v>73342</v>
+        <v>76170</v>
       </c>
       <c r="AO14" s="15" t="n">
-        <v>76170</v>
-      </c>
-      <c r="AP14" s="15" t="n">
         <v>84686</v>
+      </c>
+      <c r="AP14" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AQ14" s="15" t="s">
         <v>58</v>
@@ -3974,44 +3974,44 @@
       <c r="AO15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP15" s="16" t="s">
-        <v>58</v>
+      <c r="AP15" s="16" t="n">
+        <v>58313</v>
       </c>
       <c r="AQ15" s="16" t="n">
-        <v>58313</v>
+        <v>87370</v>
       </c>
       <c r="AR15" s="16" t="n">
-        <v>87370</v>
+        <v>67637</v>
       </c>
       <c r="AS15" s="16" t="n">
-        <v>67637</v>
+        <v>83560</v>
       </c>
       <c r="AT15" s="16" t="n">
-        <v>83560</v>
+        <v>84944</v>
       </c>
       <c r="AU15" s="16" t="n">
-        <v>84944</v>
+        <v>83014</v>
       </c>
       <c r="AV15" s="16" t="n">
-        <v>83014</v>
+        <v>70044</v>
       </c>
       <c r="AW15" s="16" t="n">
-        <v>70044</v>
+        <v>80984</v>
       </c>
       <c r="AX15" s="16" t="n">
-        <v>80984</v>
+        <v>72890</v>
       </c>
       <c r="AY15" s="16" t="n">
-        <v>72890</v>
+        <v>67144</v>
       </c>
       <c r="AZ15" s="16" t="n">
-        <v>67144</v>
+        <v>77170</v>
       </c>
       <c r="BA15" s="16" t="n">
-        <v>77170</v>
+        <v>67639</v>
       </c>
       <c r="BB15" s="16" t="n">
-        <v>67639</v>
+        <v>85912</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4133,44 +4133,44 @@
       <c r="AO16" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP16" s="15" t="s">
-        <v>58</v>
+      <c r="AP16" s="15" t="n">
+        <v>73346</v>
       </c>
       <c r="AQ16" s="15" t="n">
-        <v>73346</v>
+        <v>93815</v>
       </c>
       <c r="AR16" s="15" t="n">
-        <v>93815</v>
+        <v>66563</v>
       </c>
       <c r="AS16" s="15" t="n">
-        <v>66563</v>
+        <v>75086</v>
       </c>
       <c r="AT16" s="15" t="n">
-        <v>75086</v>
+        <v>86238</v>
       </c>
       <c r="AU16" s="15" t="n">
-        <v>86238</v>
+        <v>94969</v>
       </c>
       <c r="AV16" s="15" t="n">
-        <v>94969</v>
+        <v>102885</v>
       </c>
       <c r="AW16" s="15" t="n">
-        <v>102885</v>
+        <v>91383</v>
       </c>
       <c r="AX16" s="15" t="n">
-        <v>91383</v>
+        <v>97245</v>
       </c>
       <c r="AY16" s="15" t="n">
-        <v>97245</v>
+        <v>74061</v>
       </c>
       <c r="AZ16" s="15" t="n">
-        <v>74061</v>
+        <v>68983</v>
       </c>
       <c r="BA16" s="15" t="n">
-        <v>68983</v>
+        <v>71040</v>
       </c>
       <c r="BB16" s="15" t="n">
-        <v>71040</v>
+        <v>69637</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,11 +4184,11 @@
       <c r="E17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>58</v>
+      <c r="F17" s="16" t="n">
+        <v>12967</v>
       </c>
       <c r="G17" s="16" t="n">
-        <v>12967</v>
+        <v>0</v>
       </c>
       <c r="H17" s="16" t="n">
         <v>0</v>
@@ -4211,8 +4211,8 @@
       <c r="N17" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="O17" s="16" t="n">
-        <v>0</v>
+      <c r="O17" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="P17" s="16" t="s">
         <v>58</v>
@@ -4247,53 +4247,53 @@
       <c r="Z17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA17" s="16" t="s">
-        <v>58</v>
+      <c r="AA17" s="16" t="n">
+        <v>3164</v>
       </c>
       <c r="AB17" s="16" t="n">
-        <v>3164</v>
+        <v>4639</v>
       </c>
       <c r="AC17" s="16" t="n">
-        <v>4639</v>
+        <v>14170</v>
       </c>
       <c r="AD17" s="16" t="n">
-        <v>14170</v>
+        <v>52358</v>
       </c>
       <c r="AE17" s="16" t="n">
-        <v>52358</v>
+        <v>26167</v>
       </c>
       <c r="AF17" s="16" t="n">
-        <v>26167</v>
+        <v>2190</v>
       </c>
       <c r="AG17" s="16" t="n">
-        <v>2190</v>
+        <v>2786</v>
       </c>
       <c r="AH17" s="16" t="n">
-        <v>2786</v>
+        <v>4870</v>
       </c>
       <c r="AI17" s="16" t="n">
-        <v>4870</v>
+        <v>4283</v>
       </c>
       <c r="AJ17" s="16" t="n">
-        <v>4283</v>
+        <v>8354</v>
       </c>
       <c r="AK17" s="16" t="n">
-        <v>8354</v>
+        <v>10568</v>
       </c>
       <c r="AL17" s="16" t="n">
-        <v>10568</v>
+        <v>11526</v>
       </c>
       <c r="AM17" s="16" t="n">
-        <v>11526</v>
+        <v>3154</v>
       </c>
       <c r="AN17" s="16" t="n">
-        <v>3154</v>
+        <v>3275</v>
       </c>
       <c r="AO17" s="16" t="n">
-        <v>3275</v>
-      </c>
-      <c r="AP17" s="16" t="n">
         <v>6874</v>
+      </c>
+      <c r="AP17" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ17" s="16" t="s">
         <v>58</v>
@@ -4346,68 +4346,68 @@
       <c r="F18" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>58</v>
+      <c r="G18" s="15" t="n">
+        <v>202784</v>
       </c>
       <c r="H18" s="15" t="n">
-        <v>202784</v>
+        <v>178230</v>
       </c>
       <c r="I18" s="15" t="n">
-        <v>178230</v>
+        <v>159630</v>
       </c>
       <c r="J18" s="15" t="n">
-        <v>159630</v>
+        <v>136490</v>
       </c>
       <c r="K18" s="15" t="n">
-        <v>136490</v>
+        <v>145580</v>
       </c>
       <c r="L18" s="15" t="n">
-        <v>145580</v>
+        <v>150730</v>
       </c>
       <c r="M18" s="15" t="n">
-        <v>150730</v>
+        <v>135820</v>
       </c>
       <c r="N18" s="15" t="n">
-        <v>135820</v>
+        <v>132770</v>
       </c>
       <c r="O18" s="15" t="n">
-        <v>132770</v>
+        <v>154100</v>
       </c>
       <c r="P18" s="15" t="n">
-        <v>154100</v>
+        <v>141300</v>
       </c>
       <c r="Q18" s="15" t="n">
-        <v>141300</v>
+        <v>181230</v>
       </c>
       <c r="R18" s="15" t="n">
-        <v>181230</v>
+        <v>104070</v>
       </c>
       <c r="S18" s="15" t="n">
-        <v>104070</v>
+        <v>153100</v>
       </c>
       <c r="T18" s="15" t="n">
-        <v>153100</v>
+        <v>207550</v>
       </c>
       <c r="U18" s="15" t="n">
-        <v>207550</v>
+        <v>214300</v>
       </c>
       <c r="V18" s="15" t="n">
-        <v>214300</v>
+        <v>166780</v>
       </c>
       <c r="W18" s="15" t="n">
-        <v>166780</v>
+        <v>170240</v>
       </c>
       <c r="X18" s="15" t="n">
-        <v>170240</v>
+        <v>204470</v>
       </c>
       <c r="Y18" s="15" t="n">
-        <v>204470</v>
+        <v>239770</v>
       </c>
       <c r="Z18" s="15" t="n">
-        <v>239770</v>
-      </c>
-      <c r="AA18" s="15" t="n">
         <v>184000</v>
+      </c>
+      <c r="AA18" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AB18" s="15" t="s">
         <v>58</v>
@@ -4601,11 +4601,11 @@
       <c r="AL19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN19" s="16" t="n">
-        <v>0</v>
+      <c r="AM19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AO19" s="16" t="s">
         <v>58</v>
@@ -4779,8 +4779,8 @@
       <c r="Z21" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AA21" s="20" t="s">
-        <v>58</v>
+      <c r="AA21" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="AB21" s="20" t="n">
         <v>0</v>
@@ -4871,154 +4871,154 @@
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="n">
-        <v>228410</v>
+        <v>271073</v>
       </c>
       <c r="F22" s="22" t="n">
-        <v>271073</v>
+        <v>174583</v>
       </c>
       <c r="G22" s="22" t="n">
-        <v>174583</v>
+        <v>377784</v>
       </c>
       <c r="H22" s="22" t="n">
-        <v>377784</v>
+        <v>403140</v>
       </c>
       <c r="I22" s="22" t="n">
-        <v>403140</v>
+        <v>377320</v>
       </c>
       <c r="J22" s="22" t="n">
-        <v>377320</v>
+        <v>359860</v>
       </c>
       <c r="K22" s="22" t="n">
-        <v>359860</v>
+        <v>321270</v>
       </c>
       <c r="L22" s="22" t="n">
-        <v>321270</v>
+        <v>309490</v>
       </c>
       <c r="M22" s="22" t="n">
-        <v>309490</v>
+        <v>276450</v>
       </c>
       <c r="N22" s="22" t="n">
-        <v>276450</v>
+        <v>235230</v>
       </c>
       <c r="O22" s="22" t="n">
-        <v>235230</v>
+        <v>252510</v>
       </c>
       <c r="P22" s="22" t="n">
-        <v>252510</v>
+        <v>240310</v>
       </c>
       <c r="Q22" s="22" t="n">
-        <v>240310</v>
+        <v>278070</v>
       </c>
       <c r="R22" s="22" t="n">
-        <v>278070</v>
+        <v>198190</v>
       </c>
       <c r="S22" s="22" t="n">
-        <v>198190</v>
+        <v>314500</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>314500</v>
+        <v>344390</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>344390</v>
+        <v>439130</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>439130</v>
+        <v>394320</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>394320</v>
+        <v>377960</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>377960</v>
+        <v>402030</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>402030</v>
+        <v>420570</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>420570</v>
+        <v>347760</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>347760</v>
+        <v>255990</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>255990</v>
+        <v>318930</v>
       </c>
       <c r="AC22" s="22" t="n">
-        <v>318930</v>
+        <v>453370</v>
       </c>
       <c r="AD22" s="22" t="n">
-        <v>453370</v>
+        <v>456100</v>
       </c>
       <c r="AE22" s="22" t="n">
-        <v>456100</v>
+        <v>435900</v>
       </c>
       <c r="AF22" s="22" t="n">
-        <v>435900</v>
+        <v>341820</v>
       </c>
       <c r="AG22" s="22" t="n">
-        <v>341820</v>
+        <v>219530</v>
       </c>
       <c r="AH22" s="22" t="n">
-        <v>219530</v>
+        <v>202750</v>
       </c>
       <c r="AI22" s="22" t="n">
-        <v>202750</v>
+        <v>314020</v>
       </c>
       <c r="AJ22" s="22" t="n">
-        <v>314020</v>
+        <v>369279</v>
       </c>
       <c r="AK22" s="22" t="n">
-        <v>369279</v>
+        <v>382390</v>
       </c>
       <c r="AL22" s="22" t="n">
-        <v>382390</v>
+        <v>346751</v>
       </c>
       <c r="AM22" s="22" t="n">
-        <v>346751</v>
+        <v>317990</v>
       </c>
       <c r="AN22" s="22" t="n">
-        <v>317990</v>
+        <v>270070</v>
       </c>
       <c r="AO22" s="22" t="n">
-        <v>270070</v>
+        <v>384110</v>
       </c>
       <c r="AP22" s="22" t="n">
-        <v>384110</v>
+        <v>328870</v>
       </c>
       <c r="AQ22" s="22" t="n">
-        <v>328870</v>
+        <v>420660</v>
       </c>
       <c r="AR22" s="22" t="n">
-        <v>420660</v>
+        <v>365820</v>
       </c>
       <c r="AS22" s="22" t="n">
-        <v>365820</v>
+        <v>301230</v>
       </c>
       <c r="AT22" s="22" t="n">
-        <v>301230</v>
+        <v>296910</v>
       </c>
       <c r="AU22" s="22" t="n">
-        <v>296910</v>
+        <v>307000</v>
       </c>
       <c r="AV22" s="22" t="n">
-        <v>307000</v>
+        <v>412966</v>
       </c>
       <c r="AW22" s="22" t="n">
-        <v>412966</v>
+        <v>403268</v>
       </c>
       <c r="AX22" s="22" t="n">
-        <v>403268</v>
+        <v>393870</v>
       </c>
       <c r="AY22" s="22" t="n">
-        <v>393870</v>
+        <v>262840</v>
       </c>
       <c r="AZ22" s="22" t="n">
-        <v>262840</v>
+        <v>149135</v>
       </c>
       <c r="BA22" s="22" t="n">
-        <v>149135</v>
+        <v>283325</v>
       </c>
       <c r="BB22" s="22" t="n">
-        <v>283325</v>
+        <v>406320</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5542,19 +5542,19 @@
         <v>0</v>
       </c>
       <c r="AE29" s="16" t="n">
-        <v>0</v>
+        <v>4887</v>
       </c>
       <c r="AF29" s="16" t="n">
-        <v>4887</v>
+        <v>1912</v>
       </c>
       <c r="AG29" s="16" t="n">
-        <v>1912</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="16" t="n">
-        <v>0</v>
+        <v>2192</v>
       </c>
       <c r="AI29" s="16" t="n">
-        <v>2192</v>
+        <v>0</v>
       </c>
       <c r="AJ29" s="16" t="n">
         <v>0</v>
@@ -5581,22 +5581,22 @@
         <v>0</v>
       </c>
       <c r="AR29" s="16" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="AS29" s="16" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AU29" s="16" t="n">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="AV29" s="16" t="n">
-        <v>5500</v>
+        <v>3900</v>
       </c>
       <c r="AW29" s="16" t="n">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="AX29" s="16" t="n">
         <v>0</v>
@@ -5608,10 +5608,10 @@
         <v>0</v>
       </c>
       <c r="BA29" s="16" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="BB29" s="16" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5733,44 +5733,44 @@
       <c r="AO30" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP30" s="15" t="s">
-        <v>58</v>
+      <c r="AP30" s="15" t="n">
+        <v>5765</v>
       </c>
       <c r="AQ30" s="15" t="n">
-        <v>5765</v>
+        <v>12935</v>
       </c>
       <c r="AR30" s="15" t="n">
-        <v>12935</v>
+        <v>12530</v>
       </c>
       <c r="AS30" s="15" t="n">
-        <v>12530</v>
+        <v>20873</v>
       </c>
       <c r="AT30" s="15" t="n">
-        <v>20873</v>
+        <v>20405</v>
       </c>
       <c r="AU30" s="15" t="n">
-        <v>20405</v>
+        <v>12269</v>
       </c>
       <c r="AV30" s="15" t="n">
-        <v>12269</v>
+        <v>16839</v>
       </c>
       <c r="AW30" s="15" t="n">
-        <v>16839</v>
+        <v>19786</v>
       </c>
       <c r="AX30" s="15" t="n">
-        <v>19786</v>
+        <v>16397</v>
       </c>
       <c r="AY30" s="15" t="n">
-        <v>16397</v>
+        <v>502</v>
       </c>
       <c r="AZ30" s="15" t="n">
-        <v>502</v>
+        <v>3000</v>
       </c>
       <c r="BA30" s="15" t="n">
-        <v>3000</v>
+        <v>6302</v>
       </c>
       <c r="BB30" s="15" t="n">
-        <v>6302</v>
+        <v>23597</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5782,13 +5782,13 @@
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16" t="n">
-        <v>80311</v>
+        <v>98684</v>
       </c>
       <c r="F31" s="16" t="n">
-        <v>98684</v>
+        <v>48071</v>
       </c>
       <c r="G31" s="16" t="n">
-        <v>48071</v>
+        <v>0</v>
       </c>
       <c r="H31" s="16" t="n">
         <v>0</v>
@@ -5811,8 +5811,8 @@
       <c r="N31" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="O31" s="16" t="n">
-        <v>0</v>
+      <c r="O31" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="P31" s="16" t="s">
         <v>58</v>
@@ -5847,53 +5847,53 @@
       <c r="Z31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA31" s="16" t="s">
-        <v>58</v>
+      <c r="AA31" s="16" t="n">
+        <v>89161</v>
       </c>
       <c r="AB31" s="16" t="n">
-        <v>89161</v>
+        <v>113357</v>
       </c>
       <c r="AC31" s="16" t="n">
-        <v>113357</v>
+        <v>117578</v>
       </c>
       <c r="AD31" s="16" t="n">
-        <v>117578</v>
+        <v>94458</v>
       </c>
       <c r="AE31" s="16" t="n">
-        <v>94458</v>
+        <v>108306</v>
       </c>
       <c r="AF31" s="16" t="n">
-        <v>108306</v>
+        <v>112681</v>
       </c>
       <c r="AG31" s="16" t="n">
-        <v>112681</v>
+        <v>66704</v>
       </c>
       <c r="AH31" s="16" t="n">
-        <v>66704</v>
+        <v>58378</v>
       </c>
       <c r="AI31" s="16" t="n">
-        <v>58378</v>
+        <v>98093</v>
       </c>
       <c r="AJ31" s="16" t="n">
-        <v>98093</v>
+        <v>72987</v>
       </c>
       <c r="AK31" s="16" t="n">
-        <v>72987</v>
+        <v>78388</v>
       </c>
       <c r="AL31" s="16" t="n">
-        <v>78388</v>
+        <v>76964</v>
       </c>
       <c r="AM31" s="16" t="n">
-        <v>76964</v>
+        <v>70245</v>
       </c>
       <c r="AN31" s="16" t="n">
-        <v>70245</v>
+        <v>70332</v>
       </c>
       <c r="AO31" s="16" t="n">
-        <v>70332</v>
-      </c>
-      <c r="AP31" s="16" t="n">
         <v>77798</v>
+      </c>
+      <c r="AP31" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ31" s="16" t="s">
         <v>58</v>
@@ -5941,13 +5941,13 @@
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="15" t="n">
-        <v>44710</v>
+        <v>81844</v>
       </c>
       <c r="F32" s="15" t="n">
-        <v>81844</v>
+        <v>50160</v>
       </c>
       <c r="G32" s="15" t="n">
-        <v>50160</v>
+        <v>0</v>
       </c>
       <c r="H32" s="15" t="n">
         <v>0</v>
@@ -5970,8 +5970,8 @@
       <c r="N32" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="O32" s="15" t="n">
-        <v>0</v>
+      <c r="O32" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>58</v>
@@ -6006,53 +6006,53 @@
       <c r="Z32" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AA32" s="15" t="s">
-        <v>58</v>
+      <c r="AA32" s="15" t="n">
+        <v>82630</v>
       </c>
       <c r="AB32" s="15" t="n">
-        <v>82630</v>
+        <v>98843</v>
       </c>
       <c r="AC32" s="15" t="n">
-        <v>98843</v>
+        <v>106366</v>
       </c>
       <c r="AD32" s="15" t="n">
-        <v>106366</v>
+        <v>67044</v>
       </c>
       <c r="AE32" s="15" t="n">
-        <v>67044</v>
+        <v>82167</v>
       </c>
       <c r="AF32" s="15" t="n">
-        <v>82167</v>
+        <v>98156</v>
       </c>
       <c r="AG32" s="15" t="n">
-        <v>98156</v>
+        <v>52200</v>
       </c>
       <c r="AH32" s="15" t="n">
-        <v>52200</v>
+        <v>59416</v>
       </c>
       <c r="AI32" s="15" t="n">
-        <v>59416</v>
+        <v>70437</v>
       </c>
       <c r="AJ32" s="15" t="n">
-        <v>70437</v>
+        <v>70191</v>
       </c>
       <c r="AK32" s="15" t="n">
-        <v>70191</v>
+        <v>80694</v>
       </c>
       <c r="AL32" s="15" t="n">
-        <v>80694</v>
+        <v>85104</v>
       </c>
       <c r="AM32" s="15" t="n">
-        <v>85104</v>
+        <v>70696</v>
       </c>
       <c r="AN32" s="15" t="n">
-        <v>70696</v>
+        <v>78327</v>
       </c>
       <c r="AO32" s="15" t="n">
-        <v>78327</v>
-      </c>
-      <c r="AP32" s="15" t="n">
         <v>83333</v>
+      </c>
+      <c r="AP32" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AQ32" s="15" t="s">
         <v>58</v>
@@ -6210,44 +6210,44 @@
       <c r="AO33" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP33" s="16" t="s">
-        <v>58</v>
+      <c r="AP33" s="16" t="n">
+        <v>58557</v>
       </c>
       <c r="AQ33" s="16" t="n">
-        <v>58557</v>
+        <v>84374</v>
       </c>
       <c r="AR33" s="16" t="n">
-        <v>84374</v>
+        <v>81661</v>
       </c>
       <c r="AS33" s="16" t="n">
-        <v>81661</v>
+        <v>80952</v>
       </c>
       <c r="AT33" s="16" t="n">
-        <v>80952</v>
+        <v>76696</v>
       </c>
       <c r="AU33" s="16" t="n">
-        <v>76696</v>
+        <v>86267</v>
       </c>
       <c r="AV33" s="16" t="n">
-        <v>86267</v>
+        <v>75618</v>
       </c>
       <c r="AW33" s="16" t="n">
-        <v>75618</v>
+        <v>73210</v>
       </c>
       <c r="AX33" s="16" t="n">
-        <v>73210</v>
+        <v>76249</v>
       </c>
       <c r="AY33" s="16" t="n">
-        <v>76249</v>
+        <v>73961</v>
       </c>
       <c r="AZ33" s="16" t="n">
-        <v>73961</v>
+        <v>77641</v>
       </c>
       <c r="BA33" s="16" t="n">
-        <v>77641</v>
+        <v>58659</v>
       </c>
       <c r="BB33" s="16" t="n">
-        <v>58659</v>
+        <v>72849</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6369,44 +6369,44 @@
       <c r="AO34" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP34" s="15" t="s">
-        <v>58</v>
+      <c r="AP34" s="15" t="n">
+        <v>73653</v>
       </c>
       <c r="AQ34" s="15" t="n">
-        <v>73653</v>
+        <v>90595</v>
       </c>
       <c r="AR34" s="15" t="n">
-        <v>90595</v>
+        <v>80455</v>
       </c>
       <c r="AS34" s="15" t="n">
-        <v>80455</v>
+        <v>72620</v>
       </c>
       <c r="AT34" s="15" t="n">
-        <v>72620</v>
+        <v>77866</v>
       </c>
       <c r="AU34" s="15" t="n">
-        <v>77866</v>
+        <v>98690</v>
       </c>
       <c r="AV34" s="15" t="n">
-        <v>98690</v>
+        <v>100865</v>
       </c>
       <c r="AW34" s="15" t="n">
-        <v>100865</v>
+        <v>90838</v>
       </c>
       <c r="AX34" s="15" t="n">
-        <v>90838</v>
+        <v>101727</v>
       </c>
       <c r="AY34" s="15" t="n">
-        <v>101727</v>
+        <v>81580</v>
       </c>
       <c r="AZ34" s="15" t="n">
-        <v>81580</v>
+        <v>69405</v>
       </c>
       <c r="BA34" s="15" t="n">
-        <v>69405</v>
+        <v>71040</v>
       </c>
       <c r="BB34" s="15" t="n">
-        <v>71040</v>
+        <v>69637</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6420,11 +6420,11 @@
       <c r="E35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="16" t="s">
-        <v>58</v>
+      <c r="F35" s="16" t="n">
+        <v>14880</v>
       </c>
       <c r="G35" s="16" t="n">
-        <v>14880</v>
+        <v>0</v>
       </c>
       <c r="H35" s="16" t="n">
         <v>0</v>
@@ -6447,8 +6447,8 @@
       <c r="N35" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="O35" s="16" t="n">
-        <v>0</v>
+      <c r="O35" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="P35" s="16" t="s">
         <v>58</v>
@@ -6483,53 +6483,53 @@
       <c r="Z35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA35" s="16" t="s">
-        <v>58</v>
+      <c r="AA35" s="16" t="n">
+        <v>3124</v>
       </c>
       <c r="AB35" s="16" t="n">
-        <v>3124</v>
+        <v>4812</v>
       </c>
       <c r="AC35" s="16" t="n">
-        <v>4812</v>
+        <v>14506</v>
       </c>
       <c r="AD35" s="16" t="n">
-        <v>14506</v>
+        <v>47996</v>
       </c>
       <c r="AE35" s="16" t="n">
-        <v>47996</v>
+        <v>25135</v>
       </c>
       <c r="AF35" s="16" t="n">
-        <v>25135</v>
+        <v>2432</v>
       </c>
       <c r="AG35" s="16" t="n">
-        <v>2432</v>
+        <v>2510</v>
       </c>
       <c r="AH35" s="16" t="n">
-        <v>2510</v>
+        <v>5681</v>
       </c>
       <c r="AI35" s="16" t="n">
-        <v>5681</v>
+        <v>4078</v>
       </c>
       <c r="AJ35" s="16" t="n">
-        <v>4078</v>
+        <v>8150</v>
       </c>
       <c r="AK35" s="16" t="n">
-        <v>8150</v>
+        <v>10954</v>
       </c>
       <c r="AL35" s="16" t="n">
-        <v>10954</v>
+        <v>11075</v>
       </c>
       <c r="AM35" s="16" t="n">
-        <v>11075</v>
+        <v>3040</v>
       </c>
       <c r="AN35" s="16" t="n">
-        <v>3040</v>
+        <v>9186</v>
       </c>
       <c r="AO35" s="16" t="n">
-        <v>9186</v>
-      </c>
-      <c r="AP35" s="16" t="n">
         <v>6764</v>
+      </c>
+      <c r="AP35" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ35" s="16" t="s">
         <v>58</v>
@@ -6582,68 +6582,68 @@
       <c r="F36" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="15" t="s">
-        <v>58</v>
+      <c r="G36" s="15" t="n">
+        <v>193985</v>
       </c>
       <c r="H36" s="15" t="n">
-        <v>193985</v>
+        <v>182498</v>
       </c>
       <c r="I36" s="15" t="n">
-        <v>182498</v>
+        <v>152259</v>
       </c>
       <c r="J36" s="15" t="n">
-        <v>152259</v>
+        <v>134317</v>
       </c>
       <c r="K36" s="15" t="n">
-        <v>134317</v>
+        <v>143490</v>
       </c>
       <c r="L36" s="15" t="n">
-        <v>143490</v>
+        <v>157504</v>
       </c>
       <c r="M36" s="15" t="n">
-        <v>157504</v>
+        <v>132389</v>
       </c>
       <c r="N36" s="15" t="n">
-        <v>132389</v>
+        <v>142453</v>
       </c>
       <c r="O36" s="15" t="n">
-        <v>142453</v>
+        <v>145859</v>
       </c>
       <c r="P36" s="15" t="n">
-        <v>145859</v>
+        <v>143747</v>
       </c>
       <c r="Q36" s="15" t="n">
-        <v>143747</v>
+        <v>170938</v>
       </c>
       <c r="R36" s="15" t="n">
-        <v>170938</v>
+        <v>109594</v>
       </c>
       <c r="S36" s="15" t="n">
-        <v>109594</v>
+        <v>153036</v>
       </c>
       <c r="T36" s="15" t="n">
-        <v>153036</v>
+        <v>210053</v>
       </c>
       <c r="U36" s="15" t="n">
-        <v>210053</v>
+        <v>211011</v>
       </c>
       <c r="V36" s="15" t="n">
-        <v>211011</v>
+        <v>164465</v>
       </c>
       <c r="W36" s="15" t="n">
-        <v>164465</v>
+        <v>192230</v>
       </c>
       <c r="X36" s="15" t="n">
-        <v>192230</v>
+        <v>207251</v>
       </c>
       <c r="Y36" s="15" t="n">
-        <v>207251</v>
+        <v>230802</v>
       </c>
       <c r="Z36" s="15" t="n">
-        <v>230802</v>
-      </c>
-      <c r="AA36" s="15" t="n">
         <v>185013</v>
+      </c>
+      <c r="AA36" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AB36" s="15" t="s">
         <v>58</v>
@@ -6837,11 +6837,11 @@
       <c r="AL37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM37" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN37" s="16" t="n">
-        <v>0</v>
+      <c r="AM37" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AO37" s="16" t="s">
         <v>58</v>
@@ -7015,8 +7015,8 @@
       <c r="Z39" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AA39" s="20" t="s">
-        <v>58</v>
+      <c r="AA39" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="AB39" s="20" t="n">
         <v>0</v>
@@ -7229,8 +7229,8 @@
       <c r="Z41" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AA41" s="20" t="s">
-        <v>58</v>
+      <c r="AA41" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="AB41" s="20" t="n">
         <v>0</v>
@@ -7321,154 +7321,154 @@
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22" t="n">
-        <v>125021</v>
+        <v>180528</v>
       </c>
       <c r="F42" s="22" t="n">
-        <v>180528</v>
+        <v>113111</v>
       </c>
       <c r="G42" s="22" t="n">
-        <v>113111</v>
+        <v>193985</v>
       </c>
       <c r="H42" s="22" t="n">
-        <v>193985</v>
+        <v>182498</v>
       </c>
       <c r="I42" s="22" t="n">
-        <v>182498</v>
+        <v>152259</v>
       </c>
       <c r="J42" s="22" t="n">
-        <v>152259</v>
+        <v>134317</v>
       </c>
       <c r="K42" s="22" t="n">
-        <v>134317</v>
+        <v>143490</v>
       </c>
       <c r="L42" s="22" t="n">
-        <v>143490</v>
+        <v>157504</v>
       </c>
       <c r="M42" s="22" t="n">
-        <v>157504</v>
+        <v>132389</v>
       </c>
       <c r="N42" s="22" t="n">
-        <v>132389</v>
+        <v>142453</v>
       </c>
       <c r="O42" s="22" t="n">
-        <v>142453</v>
+        <v>145859</v>
       </c>
       <c r="P42" s="22" t="n">
-        <v>145859</v>
+        <v>143747</v>
       </c>
       <c r="Q42" s="22" t="n">
-        <v>143747</v>
+        <v>170938</v>
       </c>
       <c r="R42" s="22" t="n">
-        <v>170938</v>
+        <v>109594</v>
       </c>
       <c r="S42" s="22" t="n">
-        <v>109594</v>
+        <v>153036</v>
       </c>
       <c r="T42" s="22" t="n">
-        <v>153036</v>
+        <v>210053</v>
       </c>
       <c r="U42" s="22" t="n">
-        <v>210053</v>
+        <v>211011</v>
       </c>
       <c r="V42" s="22" t="n">
-        <v>211011</v>
+        <v>164465</v>
       </c>
       <c r="W42" s="22" t="n">
-        <v>164465</v>
+        <v>192230</v>
       </c>
       <c r="X42" s="22" t="n">
-        <v>192230</v>
+        <v>207251</v>
       </c>
       <c r="Y42" s="22" t="n">
-        <v>207251</v>
+        <v>230802</v>
       </c>
       <c r="Z42" s="22" t="n">
-        <v>230802</v>
+        <v>185013</v>
       </c>
       <c r="AA42" s="22" t="n">
-        <v>185013</v>
+        <v>174915</v>
       </c>
       <c r="AB42" s="22" t="n">
-        <v>174915</v>
+        <v>217012</v>
       </c>
       <c r="AC42" s="22" t="n">
-        <v>217012</v>
+        <v>238450</v>
       </c>
       <c r="AD42" s="22" t="n">
-        <v>238450</v>
+        <v>209498</v>
       </c>
       <c r="AE42" s="22" t="n">
-        <v>209498</v>
+        <v>220495</v>
       </c>
       <c r="AF42" s="22" t="n">
-        <v>220495</v>
+        <v>215181</v>
       </c>
       <c r="AG42" s="22" t="n">
-        <v>215181</v>
+        <v>121414</v>
       </c>
       <c r="AH42" s="22" t="n">
-        <v>121414</v>
+        <v>125667</v>
       </c>
       <c r="AI42" s="22" t="n">
-        <v>125667</v>
+        <v>172608</v>
       </c>
       <c r="AJ42" s="22" t="n">
-        <v>172608</v>
+        <v>151328</v>
       </c>
       <c r="AK42" s="22" t="n">
-        <v>151328</v>
+        <v>170036</v>
       </c>
       <c r="AL42" s="22" t="n">
-        <v>170036</v>
+        <v>173143</v>
       </c>
       <c r="AM42" s="22" t="n">
-        <v>173143</v>
+        <v>143981</v>
       </c>
       <c r="AN42" s="22" t="n">
-        <v>143981</v>
+        <v>157845</v>
       </c>
       <c r="AO42" s="22" t="n">
-        <v>157845</v>
+        <v>167895</v>
       </c>
       <c r="AP42" s="22" t="n">
-        <v>167895</v>
+        <v>137975</v>
       </c>
       <c r="AQ42" s="22" t="n">
-        <v>137975</v>
+        <v>187904</v>
       </c>
       <c r="AR42" s="22" t="n">
-        <v>187904</v>
+        <v>178646</v>
       </c>
       <c r="AS42" s="22" t="n">
-        <v>178646</v>
+        <v>174445</v>
       </c>
       <c r="AT42" s="22" t="n">
-        <v>174445</v>
+        <v>174967</v>
       </c>
       <c r="AU42" s="22" t="n">
-        <v>174967</v>
+        <v>202726</v>
       </c>
       <c r="AV42" s="22" t="n">
-        <v>202726</v>
+        <v>197222</v>
       </c>
       <c r="AW42" s="22" t="n">
-        <v>197222</v>
+        <v>183835</v>
       </c>
       <c r="AX42" s="22" t="n">
-        <v>183835</v>
+        <v>194374</v>
       </c>
       <c r="AY42" s="22" t="n">
-        <v>194374</v>
+        <v>156042</v>
       </c>
       <c r="AZ42" s="22" t="n">
-        <v>156042</v>
+        <v>150046</v>
       </c>
       <c r="BA42" s="22" t="n">
-        <v>150046</v>
+        <v>139000</v>
       </c>
       <c r="BB42" s="22" t="n">
-        <v>139000</v>
+        <v>166082</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7992,19 +7992,19 @@
         <v>0</v>
       </c>
       <c r="AE49" s="16" t="n">
-        <v>0</v>
+        <v>20292</v>
       </c>
       <c r="AF49" s="16" t="n">
-        <v>20292</v>
+        <v>7945</v>
       </c>
       <c r="AG49" s="16" t="n">
-        <v>7945</v>
+        <v>0</v>
       </c>
       <c r="AH49" s="16" t="n">
-        <v>0</v>
+        <v>11155</v>
       </c>
       <c r="AI49" s="16" t="n">
-        <v>11155</v>
+        <v>0</v>
       </c>
       <c r="AJ49" s="16" t="n">
         <v>0</v>
@@ -8031,22 +8031,22 @@
         <v>0</v>
       </c>
       <c r="AR49" s="16" t="n">
-        <v>0</v>
+        <v>32576</v>
       </c>
       <c r="AS49" s="16" t="n">
-        <v>32576</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AU49" s="16" t="n">
-        <v>0</v>
+        <v>42722</v>
       </c>
       <c r="AV49" s="16" t="n">
-        <v>42722</v>
+        <v>29978</v>
       </c>
       <c r="AW49" s="16" t="n">
-        <v>29978</v>
+        <v>0</v>
       </c>
       <c r="AX49" s="16" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>0</v>
       </c>
       <c r="BA49" s="16" t="n">
-        <v>0</v>
+        <v>23174</v>
       </c>
       <c r="BB49" s="16" t="n">
-        <v>23174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8183,44 +8183,44 @@
       <c r="AO50" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP50" s="15" t="s">
-        <v>58</v>
+      <c r="AP50" s="15" t="n">
+        <v>45914</v>
       </c>
       <c r="AQ50" s="15" t="n">
-        <v>45914</v>
+        <v>108484</v>
       </c>
       <c r="AR50" s="15" t="n">
-        <v>108484</v>
+        <v>109898</v>
       </c>
       <c r="AS50" s="15" t="n">
-        <v>109898</v>
+        <v>198552</v>
       </c>
       <c r="AT50" s="15" t="n">
-        <v>198552</v>
+        <v>190889</v>
       </c>
       <c r="AU50" s="15" t="n">
-        <v>190889</v>
+        <v>117699</v>
       </c>
       <c r="AV50" s="15" t="n">
-        <v>117699</v>
+        <v>162783</v>
       </c>
       <c r="AW50" s="15" t="n">
-        <v>162783</v>
+        <v>190653</v>
       </c>
       <c r="AX50" s="15" t="n">
-        <v>190653</v>
+        <v>156537</v>
       </c>
       <c r="AY50" s="15" t="n">
-        <v>156537</v>
+        <v>5338</v>
       </c>
       <c r="AZ50" s="15" t="n">
-        <v>5338</v>
+        <v>29780</v>
       </c>
       <c r="BA50" s="15" t="n">
-        <v>29780</v>
+        <v>81862</v>
       </c>
       <c r="BB50" s="15" t="n">
-        <v>81862</v>
+        <v>289607</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8232,13 +8232,13 @@
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16" t="n">
-        <v>98062</v>
+        <v>120196</v>
       </c>
       <c r="F51" s="16" t="n">
-        <v>120196</v>
+        <v>52791</v>
       </c>
       <c r="G51" s="16" t="n">
-        <v>52791</v>
+        <v>0</v>
       </c>
       <c r="H51" s="16" t="n">
         <v>0</v>
@@ -8261,8 +8261,8 @@
       <c r="N51" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="O51" s="16" t="n">
-        <v>0</v>
+      <c r="O51" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="P51" s="16" t="s">
         <v>58</v>
@@ -8297,53 +8297,53 @@
       <c r="Z51" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA51" s="16" t="s">
-        <v>58</v>
+      <c r="AA51" s="16" t="n">
+        <v>198101</v>
       </c>
       <c r="AB51" s="16" t="n">
-        <v>198101</v>
+        <v>250404</v>
       </c>
       <c r="AC51" s="16" t="n">
-        <v>250404</v>
+        <v>259592</v>
       </c>
       <c r="AD51" s="16" t="n">
-        <v>259592</v>
+        <v>208235</v>
       </c>
       <c r="AE51" s="16" t="n">
-        <v>208235</v>
+        <v>333124</v>
       </c>
       <c r="AF51" s="16" t="n">
-        <v>333124</v>
+        <v>346687</v>
       </c>
       <c r="AG51" s="16" t="n">
-        <v>346687</v>
+        <v>218627</v>
       </c>
       <c r="AH51" s="16" t="n">
-        <v>218627</v>
+        <v>324515</v>
       </c>
       <c r="AI51" s="16" t="n">
-        <v>324515</v>
+        <v>561291</v>
       </c>
       <c r="AJ51" s="16" t="n">
-        <v>561291</v>
+        <v>306894</v>
       </c>
       <c r="AK51" s="16" t="n">
-        <v>306894</v>
+        <v>304178</v>
       </c>
       <c r="AL51" s="16" t="n">
-        <v>304178</v>
+        <v>387264</v>
       </c>
       <c r="AM51" s="16" t="n">
-        <v>387264</v>
+        <v>330725</v>
       </c>
       <c r="AN51" s="16" t="n">
-        <v>330725</v>
+        <v>365140</v>
       </c>
       <c r="AO51" s="16" t="n">
-        <v>365140</v>
-      </c>
-      <c r="AP51" s="16" t="n">
         <v>409980</v>
+      </c>
+      <c r="AP51" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ51" s="16" t="s">
         <v>58</v>
@@ -8391,13 +8391,13 @@
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15" t="n">
-        <v>65453</v>
+        <v>121597</v>
       </c>
       <c r="F52" s="15" t="n">
-        <v>121597</v>
+        <v>63966</v>
       </c>
       <c r="G52" s="15" t="n">
-        <v>63966</v>
+        <v>0</v>
       </c>
       <c r="H52" s="15" t="n">
         <v>0</v>
@@ -8420,8 +8420,8 @@
       <c r="N52" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="O52" s="15" t="n">
-        <v>0</v>
+      <c r="O52" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="P52" s="15" t="s">
         <v>58</v>
@@ -8456,53 +8456,53 @@
       <c r="Z52" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AA52" s="15" t="s">
-        <v>58</v>
+      <c r="AA52" s="15" t="n">
+        <v>256539</v>
       </c>
       <c r="AB52" s="15" t="n">
-        <v>256539</v>
+        <v>306680</v>
       </c>
       <c r="AC52" s="15" t="n">
-        <v>306680</v>
+        <v>330316</v>
       </c>
       <c r="AD52" s="15" t="n">
-        <v>330316</v>
+        <v>207645</v>
       </c>
       <c r="AE52" s="15" t="n">
-        <v>207645</v>
+        <v>351858</v>
       </c>
       <c r="AF52" s="15" t="n">
-        <v>351858</v>
+        <v>423311</v>
       </c>
       <c r="AG52" s="15" t="n">
-        <v>423311</v>
+        <v>231710</v>
       </c>
       <c r="AH52" s="15" t="n">
-        <v>231710</v>
+        <v>325137</v>
       </c>
       <c r="AI52" s="15" t="n">
-        <v>325137</v>
+        <v>489315</v>
       </c>
       <c r="AJ52" s="15" t="n">
-        <v>489315</v>
+        <v>392489</v>
       </c>
       <c r="AK52" s="15" t="n">
-        <v>392489</v>
+        <v>425572</v>
       </c>
       <c r="AL52" s="15" t="n">
-        <v>425572</v>
+        <v>523601</v>
       </c>
       <c r="AM52" s="15" t="n">
-        <v>523601</v>
+        <v>413552</v>
       </c>
       <c r="AN52" s="15" t="n">
-        <v>413552</v>
+        <v>460329</v>
       </c>
       <c r="AO52" s="15" t="n">
-        <v>460329</v>
-      </c>
-      <c r="AP52" s="15" t="n">
         <v>504371</v>
+      </c>
+      <c r="AP52" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AQ52" s="15" t="s">
         <v>58</v>
@@ -8660,44 +8660,44 @@
       <c r="AO53" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP53" s="16" t="s">
-        <v>58</v>
+      <c r="AP53" s="16" t="n">
+        <v>277405</v>
       </c>
       <c r="AQ53" s="16" t="n">
-        <v>277405</v>
+        <v>396597</v>
       </c>
       <c r="AR53" s="16" t="n">
-        <v>396597</v>
+        <v>492554</v>
       </c>
       <c r="AS53" s="16" t="n">
-        <v>492554</v>
+        <v>638025</v>
       </c>
       <c r="AT53" s="16" t="n">
-        <v>638025</v>
+        <v>547976</v>
       </c>
       <c r="AU53" s="16" t="n">
-        <v>547976</v>
+        <v>608837</v>
       </c>
       <c r="AV53" s="16" t="n">
-        <v>608837</v>
+        <v>521927</v>
       </c>
       <c r="AW53" s="16" t="n">
-        <v>521927</v>
+        <v>503058</v>
       </c>
       <c r="AX53" s="16" t="n">
-        <v>503058</v>
+        <v>518705</v>
       </c>
       <c r="AY53" s="16" t="n">
-        <v>518705</v>
+        <v>471146</v>
       </c>
       <c r="AZ53" s="16" t="n">
-        <v>471146</v>
+        <v>508335</v>
       </c>
       <c r="BA53" s="16" t="n">
-        <v>508335</v>
+        <v>378086</v>
       </c>
       <c r="BB53" s="16" t="n">
-        <v>378086</v>
+        <v>475272</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8819,44 +8819,44 @@
       <c r="AO54" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP54" s="15" t="s">
-        <v>58</v>
+      <c r="AP54" s="15" t="n">
+        <v>433325</v>
       </c>
       <c r="AQ54" s="15" t="n">
-        <v>433325</v>
+        <v>543797</v>
       </c>
       <c r="AR54" s="15" t="n">
-        <v>543797</v>
+        <v>573285</v>
       </c>
       <c r="AS54" s="15" t="n">
-        <v>573285</v>
+        <v>599537</v>
       </c>
       <c r="AT54" s="15" t="n">
-        <v>599537</v>
+        <v>591711</v>
       </c>
       <c r="AU54" s="15" t="n">
-        <v>591711</v>
+        <v>714559</v>
       </c>
       <c r="AV54" s="15" t="n">
-        <v>714559</v>
+        <v>737841</v>
       </c>
       <c r="AW54" s="15" t="n">
-        <v>737841</v>
+        <v>652799</v>
       </c>
       <c r="AX54" s="15" t="n">
-        <v>652799</v>
+        <v>714297</v>
       </c>
       <c r="AY54" s="15" t="n">
-        <v>714297</v>
+        <v>579466</v>
       </c>
       <c r="AZ54" s="15" t="n">
-        <v>579466</v>
+        <v>516710</v>
       </c>
       <c r="BA54" s="15" t="n">
-        <v>516710</v>
+        <v>545911</v>
       </c>
       <c r="BB54" s="15" t="n">
-        <v>545911</v>
+        <v>574911</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8870,11 +8870,11 @@
       <c r="E55" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F55" s="16" t="s">
-        <v>58</v>
+      <c r="F55" s="16" t="n">
+        <v>26604</v>
       </c>
       <c r="G55" s="16" t="n">
-        <v>26604</v>
+        <v>0</v>
       </c>
       <c r="H55" s="16" t="n">
         <v>0</v>
@@ -8897,8 +8897,8 @@
       <c r="N55" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="O55" s="16" t="n">
-        <v>0</v>
+      <c r="O55" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="P55" s="16" t="s">
         <v>58</v>
@@ -8933,53 +8933,53 @@
       <c r="Z55" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA55" s="16" t="s">
-        <v>58</v>
+      <c r="AA55" s="16" t="n">
+        <v>17821</v>
       </c>
       <c r="AB55" s="16" t="n">
-        <v>17821</v>
+        <v>26771</v>
       </c>
       <c r="AC55" s="16" t="n">
-        <v>26771</v>
+        <v>80811</v>
       </c>
       <c r="AD55" s="16" t="n">
-        <v>80811</v>
+        <v>264001</v>
       </c>
       <c r="AE55" s="16" t="n">
-        <v>264001</v>
+        <v>159120</v>
       </c>
       <c r="AF55" s="16" t="n">
-        <v>159120</v>
+        <v>15004</v>
       </c>
       <c r="AG55" s="16" t="n">
-        <v>15004</v>
+        <v>15583</v>
       </c>
       <c r="AH55" s="16" t="n">
-        <v>15583</v>
+        <v>49149</v>
       </c>
       <c r="AI55" s="16" t="n">
-        <v>49149</v>
+        <v>34879</v>
       </c>
       <c r="AJ55" s="16" t="n">
-        <v>34879</v>
+        <v>68148</v>
       </c>
       <c r="AK55" s="16" t="n">
-        <v>68148</v>
+        <v>89735</v>
       </c>
       <c r="AL55" s="16" t="n">
-        <v>89735</v>
+        <v>88788</v>
       </c>
       <c r="AM55" s="16" t="n">
-        <v>88788</v>
+        <v>24660</v>
       </c>
       <c r="AN55" s="16" t="n">
-        <v>24660</v>
+        <v>71298</v>
       </c>
       <c r="AO55" s="16" t="n">
-        <v>71298</v>
-      </c>
-      <c r="AP55" s="16" t="n">
         <v>52640</v>
+      </c>
+      <c r="AP55" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ55" s="16" t="s">
         <v>58</v>
@@ -9032,68 +9032,68 @@
       <c r="F56" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G56" s="15" t="s">
-        <v>58</v>
+      <c r="G56" s="15" t="n">
+        <v>281584</v>
       </c>
       <c r="H56" s="15" t="n">
-        <v>281584</v>
+        <v>269111</v>
       </c>
       <c r="I56" s="15" t="n">
-        <v>269111</v>
+        <v>252593</v>
       </c>
       <c r="J56" s="15" t="n">
-        <v>252593</v>
+        <v>257221</v>
       </c>
       <c r="K56" s="15" t="n">
-        <v>257221</v>
+        <v>275545</v>
       </c>
       <c r="L56" s="15" t="n">
-        <v>275545</v>
+        <v>299825</v>
       </c>
       <c r="M56" s="15" t="n">
-        <v>299825</v>
+        <v>252412</v>
       </c>
       <c r="N56" s="15" t="n">
-        <v>252412</v>
+        <v>271025</v>
       </c>
       <c r="O56" s="15" t="n">
-        <v>271025</v>
+        <v>277807</v>
       </c>
       <c r="P56" s="15" t="n">
-        <v>277807</v>
+        <v>279069</v>
       </c>
       <c r="Q56" s="15" t="n">
-        <v>279069</v>
+        <v>337088</v>
       </c>
       <c r="R56" s="15" t="n">
-        <v>337088</v>
+        <v>243035</v>
       </c>
       <c r="S56" s="15" t="n">
-        <v>243035</v>
+        <v>293181</v>
       </c>
       <c r="T56" s="15" t="n">
-        <v>293181</v>
+        <v>416739</v>
       </c>
       <c r="U56" s="15" t="n">
-        <v>416739</v>
+        <v>469882</v>
       </c>
       <c r="V56" s="15" t="n">
-        <v>469882</v>
+        <v>405092</v>
       </c>
       <c r="W56" s="15" t="n">
-        <v>405092</v>
+        <v>461960</v>
       </c>
       <c r="X56" s="15" t="n">
-        <v>461960</v>
+        <v>531956</v>
       </c>
       <c r="Y56" s="15" t="n">
-        <v>531956</v>
+        <v>631830</v>
       </c>
       <c r="Z56" s="15" t="n">
-        <v>631830</v>
-      </c>
-      <c r="AA56" s="15" t="n">
         <v>492755</v>
+      </c>
+      <c r="AA56" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AB56" s="15" t="s">
         <v>58</v>
@@ -9287,11 +9287,11 @@
       <c r="AL57" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM57" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN57" s="16" t="n">
-        <v>0</v>
+      <c r="AM57" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AO57" s="16" t="s">
         <v>58</v>
@@ -9467,8 +9467,8 @@
       <c r="Z59" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AA59" s="20" t="s">
-        <v>58</v>
+      <c r="AA59" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="AB59" s="23" t="n">
         <v>0</v>
@@ -9683,8 +9683,8 @@
       <c r="Z61" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AA61" s="20" t="s">
-        <v>58</v>
+      <c r="AA61" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="AB61" s="23" t="n">
         <v>0</v>
@@ -9899,8 +9899,8 @@
       <c r="Z63" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA63" s="16" t="s">
-        <v>58</v>
+      <c r="AA63" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AB63" s="16" t="n">
         <v>0</v>
@@ -9991,154 +9991,154 @@
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22" t="n">
-        <v>163515</v>
+        <v>241793</v>
       </c>
       <c r="F64" s="22" t="n">
-        <v>241793</v>
+        <v>143361</v>
       </c>
       <c r="G64" s="22" t="n">
-        <v>143361</v>
+        <v>281584</v>
       </c>
       <c r="H64" s="22" t="n">
-        <v>281584</v>
+        <v>269111</v>
       </c>
       <c r="I64" s="22" t="n">
-        <v>269111</v>
+        <v>252593</v>
       </c>
       <c r="J64" s="22" t="n">
-        <v>252593</v>
+        <v>257221</v>
       </c>
       <c r="K64" s="22" t="n">
-        <v>257221</v>
+        <v>275545</v>
       </c>
       <c r="L64" s="22" t="n">
-        <v>275545</v>
+        <v>299825</v>
       </c>
       <c r="M64" s="22" t="n">
-        <v>299825</v>
+        <v>252412</v>
       </c>
       <c r="N64" s="22" t="n">
-        <v>252412</v>
+        <v>271025</v>
       </c>
       <c r="O64" s="22" t="n">
-        <v>271025</v>
+        <v>277807</v>
       </c>
       <c r="P64" s="22" t="n">
-        <v>277807</v>
+        <v>279069</v>
       </c>
       <c r="Q64" s="22" t="n">
-        <v>279069</v>
+        <v>337088</v>
       </c>
       <c r="R64" s="22" t="n">
-        <v>337088</v>
+        <v>243035</v>
       </c>
       <c r="S64" s="22" t="n">
-        <v>243035</v>
+        <v>293181</v>
       </c>
       <c r="T64" s="22" t="n">
-        <v>293181</v>
+        <v>416739</v>
       </c>
       <c r="U64" s="22" t="n">
-        <v>416739</v>
+        <v>469882</v>
       </c>
       <c r="V64" s="22" t="n">
-        <v>469882</v>
+        <v>405092</v>
       </c>
       <c r="W64" s="22" t="n">
-        <v>405092</v>
+        <v>461960</v>
       </c>
       <c r="X64" s="22" t="n">
-        <v>461960</v>
+        <v>531956</v>
       </c>
       <c r="Y64" s="22" t="n">
-        <v>531956</v>
+        <v>631830</v>
       </c>
       <c r="Z64" s="22" t="n">
-        <v>631830</v>
+        <v>492755</v>
       </c>
       <c r="AA64" s="22" t="n">
-        <v>492755</v>
+        <v>472461</v>
       </c>
       <c r="AB64" s="22" t="n">
-        <v>472461</v>
+        <v>583855</v>
       </c>
       <c r="AC64" s="22" t="n">
-        <v>583855</v>
+        <v>670719</v>
       </c>
       <c r="AD64" s="22" t="n">
-        <v>670719</v>
+        <v>679881</v>
       </c>
       <c r="AE64" s="22" t="n">
-        <v>679881</v>
+        <v>864394</v>
       </c>
       <c r="AF64" s="22" t="n">
-        <v>864394</v>
+        <v>792947</v>
       </c>
       <c r="AG64" s="22" t="n">
-        <v>792947</v>
+        <v>465920</v>
       </c>
       <c r="AH64" s="22" t="n">
-        <v>465920</v>
+        <v>709956</v>
       </c>
       <c r="AI64" s="22" t="n">
-        <v>709956</v>
+        <v>1085485</v>
       </c>
       <c r="AJ64" s="22" t="n">
-        <v>1085485</v>
+        <v>767531</v>
       </c>
       <c r="AK64" s="22" t="n">
-        <v>767531</v>
+        <v>819485</v>
       </c>
       <c r="AL64" s="22" t="n">
-        <v>819485</v>
+        <v>999653</v>
       </c>
       <c r="AM64" s="22" t="n">
-        <v>999653</v>
+        <v>768937</v>
       </c>
       <c r="AN64" s="22" t="n">
-        <v>768937</v>
+        <v>896767</v>
       </c>
       <c r="AO64" s="22" t="n">
-        <v>896767</v>
+        <v>966991</v>
       </c>
       <c r="AP64" s="22" t="n">
-        <v>966991</v>
+        <v>756644</v>
       </c>
       <c r="AQ64" s="22" t="n">
-        <v>756644</v>
+        <v>1048878</v>
       </c>
       <c r="AR64" s="22" t="n">
-        <v>1048878</v>
+        <v>1208313</v>
       </c>
       <c r="AS64" s="22" t="n">
-        <v>1208313</v>
+        <v>1436114</v>
       </c>
       <c r="AT64" s="22" t="n">
-        <v>1436114</v>
+        <v>1330576</v>
       </c>
       <c r="AU64" s="22" t="n">
-        <v>1330576</v>
+        <v>1483817</v>
       </c>
       <c r="AV64" s="22" t="n">
-        <v>1483817</v>
+        <v>1452529</v>
       </c>
       <c r="AW64" s="22" t="n">
-        <v>1452529</v>
+        <v>1346510</v>
       </c>
       <c r="AX64" s="22" t="n">
-        <v>1346510</v>
+        <v>1389539</v>
       </c>
       <c r="AY64" s="22" t="n">
-        <v>1389539</v>
+        <v>1055950</v>
       </c>
       <c r="AZ64" s="22" t="n">
-        <v>1055950</v>
+        <v>1054825</v>
       </c>
       <c r="BA64" s="22" t="n">
-        <v>1054825</v>
+        <v>1029033</v>
       </c>
       <c r="BB64" s="22" t="n">
-        <v>1029033</v>
+        <v>1339790</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10649,8 +10649,8 @@
       <c r="Z71" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AA71" s="16" t="n">
-        <v>0</v>
+      <c r="AA71" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AB71" s="16" t="s">
         <v>58</v>
@@ -10661,21 +10661,21 @@
       <c r="AD71" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AE71" s="16" t="s">
-        <v>58</v>
+      <c r="AE71" s="16" t="n">
+        <v>4152241</v>
       </c>
       <c r="AF71" s="16" t="n">
-        <v>4152241</v>
-      </c>
-      <c r="AG71" s="16" t="n">
         <v>4155335</v>
       </c>
-      <c r="AH71" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI71" s="16" t="n">
+      <c r="AG71" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH71" s="16" t="n">
         <v>5088960</v>
       </c>
+      <c r="AI71" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ71" s="16" t="s">
         <v>58</v>
       </c>
@@ -10700,24 +10700,24 @@
       <c r="AQ71" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR71" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS71" s="16" t="n">
+      <c r="AR71" s="16" t="n">
         <v>8144000</v>
       </c>
+      <c r="AS71" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AT71" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU71" s="16" t="s">
-        <v>58</v>
+      <c r="AU71" s="16" t="n">
+        <v>7767636</v>
       </c>
       <c r="AV71" s="16" t="n">
-        <v>7767636</v>
-      </c>
-      <c r="AW71" s="16" t="n">
         <v>7686667</v>
       </c>
+      <c r="AW71" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AX71" s="16" t="s">
         <v>58</v>
       </c>
@@ -10727,11 +10727,11 @@
       <c r="AZ71" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BA71" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB71" s="16" t="n">
+      <c r="BA71" s="16" t="n">
         <v>7724667</v>
+      </c>
+      <c r="BB71" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10853,44 +10853,44 @@
       <c r="AO72" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP72" s="15" t="s">
-        <v>58</v>
+      <c r="AP72" s="15" t="n">
+        <v>7964267</v>
       </c>
       <c r="AQ72" s="15" t="n">
-        <v>7964267</v>
+        <v>8386857</v>
       </c>
       <c r="AR72" s="15" t="n">
-        <v>8386857</v>
+        <v>8770790</v>
       </c>
       <c r="AS72" s="15" t="n">
-        <v>8770790</v>
+        <v>9512384</v>
       </c>
       <c r="AT72" s="15" t="n">
-        <v>9512384</v>
+        <v>9355011</v>
       </c>
       <c r="AU72" s="15" t="n">
-        <v>9355011</v>
+        <v>9593202</v>
       </c>
       <c r="AV72" s="15" t="n">
-        <v>9593202</v>
+        <v>9667023</v>
       </c>
       <c r="AW72" s="15" t="n">
-        <v>9667023</v>
+        <v>9635606</v>
       </c>
       <c r="AX72" s="15" t="n">
-        <v>9635606</v>
+        <v>9546452</v>
       </c>
       <c r="AY72" s="15" t="n">
-        <v>9546452</v>
+        <v>10641946</v>
       </c>
       <c r="AZ72" s="15" t="n">
-        <v>10641946</v>
+        <v>9926667</v>
       </c>
       <c r="BA72" s="15" t="n">
-        <v>9926667</v>
+        <v>12990875</v>
       </c>
       <c r="BB72" s="15" t="n">
-        <v>12990875</v>
+        <v>12273303</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10902,13 +10902,13 @@
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16" t="n">
-        <v>1221028</v>
+        <v>1217989</v>
       </c>
       <c r="F73" s="16" t="n">
-        <v>1217989</v>
+        <v>1098188</v>
       </c>
       <c r="G73" s="16" t="n">
-        <v>1098188</v>
+        <v>0</v>
       </c>
       <c r="H73" s="16" t="n">
         <v>0</v>
@@ -10931,8 +10931,8 @@
       <c r="N73" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="O73" s="16" t="n">
-        <v>0</v>
+      <c r="O73" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="P73" s="16" t="s">
         <v>58</v>
@@ -10967,53 +10967,53 @@
       <c r="Z73" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA73" s="16" t="s">
-        <v>58</v>
+      <c r="AA73" s="16" t="n">
+        <v>2221835</v>
       </c>
       <c r="AB73" s="16" t="n">
-        <v>2221835</v>
+        <v>2208986</v>
       </c>
       <c r="AC73" s="16" t="n">
-        <v>2208986</v>
+        <v>2207828</v>
       </c>
       <c r="AD73" s="16" t="n">
-        <v>2207828</v>
+        <v>2204525</v>
       </c>
       <c r="AE73" s="16" t="n">
-        <v>2204525</v>
+        <v>3075767</v>
       </c>
       <c r="AF73" s="16" t="n">
-        <v>3075767</v>
+        <v>3076712</v>
       </c>
       <c r="AG73" s="16" t="n">
-        <v>3076712</v>
+        <v>3277570</v>
       </c>
       <c r="AH73" s="16" t="n">
-        <v>3277570</v>
+        <v>5558858</v>
       </c>
       <c r="AI73" s="16" t="n">
-        <v>5558858</v>
+        <v>5722029</v>
       </c>
       <c r="AJ73" s="16" t="n">
-        <v>5722029</v>
+        <v>4204776</v>
       </c>
       <c r="AK73" s="16" t="n">
-        <v>4204776</v>
+        <v>3880415</v>
       </c>
       <c r="AL73" s="16" t="n">
-        <v>3880415</v>
+        <v>5031755</v>
       </c>
       <c r="AM73" s="16" t="n">
-        <v>5031755</v>
+        <v>4708164</v>
       </c>
       <c r="AN73" s="16" t="n">
-        <v>4708164</v>
+        <v>5191662</v>
       </c>
       <c r="AO73" s="16" t="n">
-        <v>5191662</v>
-      </c>
-      <c r="AP73" s="16" t="n">
         <v>5269801</v>
+      </c>
+      <c r="AP73" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ73" s="16" t="s">
         <v>58</v>
@@ -11061,13 +11061,13 @@
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="15" t="n">
-        <v>1463945</v>
+        <v>1485717</v>
       </c>
       <c r="F74" s="15" t="n">
-        <v>1485717</v>
+        <v>1275239</v>
       </c>
       <c r="G74" s="15" t="n">
-        <v>1275239</v>
+        <v>0</v>
       </c>
       <c r="H74" s="15" t="n">
         <v>0</v>
@@ -11090,8 +11090,8 @@
       <c r="N74" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="O74" s="15" t="n">
-        <v>0</v>
+      <c r="O74" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="P74" s="15" t="s">
         <v>58</v>
@@ -11126,53 +11126,53 @@
       <c r="Z74" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AA74" s="15" t="s">
-        <v>58</v>
+      <c r="AA74" s="15" t="n">
+        <v>3104671</v>
       </c>
       <c r="AB74" s="15" t="n">
-        <v>3104671</v>
+        <v>3102698</v>
       </c>
       <c r="AC74" s="15" t="n">
-        <v>3102698</v>
+        <v>3105466</v>
       </c>
       <c r="AD74" s="15" t="n">
-        <v>3105466</v>
+        <v>3097145</v>
       </c>
       <c r="AE74" s="15" t="n">
-        <v>3097145</v>
+        <v>4282230</v>
       </c>
       <c r="AF74" s="15" t="n">
-        <v>4282230</v>
+        <v>4312635</v>
       </c>
       <c r="AG74" s="15" t="n">
-        <v>4312635</v>
+        <v>4438889</v>
       </c>
       <c r="AH74" s="15" t="n">
-        <v>4438889</v>
+        <v>5472213</v>
       </c>
       <c r="AI74" s="15" t="n">
-        <v>5472213</v>
+        <v>6946846</v>
       </c>
       <c r="AJ74" s="15" t="n">
-        <v>6946846</v>
+        <v>5591728</v>
       </c>
       <c r="AK74" s="15" t="n">
-        <v>5591728</v>
+        <v>5273899</v>
       </c>
       <c r="AL74" s="15" t="n">
-        <v>5273899</v>
+        <v>6152484</v>
       </c>
       <c r="AM74" s="15" t="n">
-        <v>6152484</v>
+        <v>5849723</v>
       </c>
       <c r="AN74" s="15" t="n">
-        <v>5849723</v>
+        <v>5877016</v>
       </c>
       <c r="AO74" s="15" t="n">
-        <v>5877016</v>
-      </c>
-      <c r="AP74" s="15" t="n">
         <v>6052476</v>
+      </c>
+      <c r="AP74" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AQ74" s="15" t="s">
         <v>58</v>
@@ -11330,44 +11330,44 @@
       <c r="AO75" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP75" s="16" t="s">
-        <v>58</v>
+      <c r="AP75" s="16" t="n">
+        <v>4737350</v>
       </c>
       <c r="AQ75" s="16" t="n">
-        <v>4737350</v>
+        <v>4700465</v>
       </c>
       <c r="AR75" s="16" t="n">
-        <v>4700465</v>
+        <v>6031692</v>
       </c>
       <c r="AS75" s="16" t="n">
-        <v>6031692</v>
+        <v>7881522</v>
       </c>
       <c r="AT75" s="16" t="n">
-        <v>7881522</v>
+        <v>7144779</v>
       </c>
       <c r="AU75" s="16" t="n">
-        <v>7144779</v>
+        <v>7057589</v>
       </c>
       <c r="AV75" s="16" t="n">
-        <v>7057589</v>
+        <v>6902147</v>
       </c>
       <c r="AW75" s="16" t="n">
-        <v>6902147</v>
+        <v>6871438</v>
       </c>
       <c r="AX75" s="16" t="n">
-        <v>6871438</v>
+        <v>6802753</v>
       </c>
       <c r="AY75" s="16" t="n">
-        <v>6802753</v>
+        <v>6370231</v>
       </c>
       <c r="AZ75" s="16" t="n">
-        <v>6370231</v>
+        <v>6547212</v>
       </c>
       <c r="BA75" s="16" t="n">
-        <v>6547212</v>
+        <v>6445500</v>
       </c>
       <c r="BB75" s="16" t="n">
-        <v>6445500</v>
+        <v>6524073</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11489,44 +11489,44 @@
       <c r="AO76" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP76" s="15" t="s">
-        <v>58</v>
+      <c r="AP76" s="15" t="n">
+        <v>5883331</v>
       </c>
       <c r="AQ76" s="15" t="n">
-        <v>5883331</v>
+        <v>6002506</v>
       </c>
       <c r="AR76" s="15" t="n">
-        <v>6002506</v>
+        <v>7125536</v>
       </c>
       <c r="AS76" s="15" t="n">
-        <v>7125536</v>
+        <v>8255811</v>
       </c>
       <c r="AT76" s="15" t="n">
-        <v>8255811</v>
+        <v>7599093</v>
       </c>
       <c r="AU76" s="15" t="n">
-        <v>7599093</v>
+        <v>7240440</v>
       </c>
       <c r="AV76" s="15" t="n">
-        <v>7240440</v>
+        <v>7315112</v>
       </c>
       <c r="AW76" s="15" t="n">
-        <v>7315112</v>
+        <v>7186385</v>
       </c>
       <c r="AX76" s="15" t="n">
-        <v>7186385</v>
+        <v>7021705</v>
       </c>
       <c r="AY76" s="15" t="n">
-        <v>7021705</v>
+        <v>7103057</v>
       </c>
       <c r="AZ76" s="15" t="n">
-        <v>7103057</v>
+        <v>7444853</v>
       </c>
       <c r="BA76" s="15" t="n">
-        <v>7444853</v>
+        <v>7684585</v>
       </c>
       <c r="BB76" s="15" t="n">
-        <v>7684585</v>
+        <v>8255886</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11540,11 +11540,11 @@
       <c r="E77" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F77" s="16" t="s">
-        <v>58</v>
+      <c r="F77" s="16" t="n">
+        <v>1787903</v>
       </c>
       <c r="G77" s="16" t="n">
-        <v>1787903</v>
+        <v>0</v>
       </c>
       <c r="H77" s="16" t="n">
         <v>0</v>
@@ -11567,8 +11567,8 @@
       <c r="N77" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="O77" s="16" t="n">
-        <v>0</v>
+      <c r="O77" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="P77" s="16" t="s">
         <v>58</v>
@@ -11603,53 +11603,53 @@
       <c r="Z77" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA77" s="16" t="s">
-        <v>58</v>
+      <c r="AA77" s="16" t="n">
+        <v>5704545</v>
       </c>
       <c r="AB77" s="16" t="n">
-        <v>5704545</v>
+        <v>5563383</v>
       </c>
       <c r="AC77" s="16" t="n">
-        <v>5563383</v>
+        <v>5570867</v>
       </c>
       <c r="AD77" s="16" t="n">
-        <v>5570867</v>
+        <v>5500479</v>
       </c>
       <c r="AE77" s="16" t="n">
-        <v>5500479</v>
+        <v>6330615</v>
       </c>
       <c r="AF77" s="16" t="n">
-        <v>6330615</v>
+        <v>6169408</v>
       </c>
       <c r="AG77" s="16" t="n">
-        <v>6169408</v>
+        <v>6208367</v>
       </c>
       <c r="AH77" s="16" t="n">
-        <v>6208367</v>
+        <v>8651470</v>
       </c>
       <c r="AI77" s="16" t="n">
-        <v>8651470</v>
+        <v>8552967</v>
       </c>
       <c r="AJ77" s="16" t="n">
-        <v>8552967</v>
+        <v>8361718</v>
       </c>
       <c r="AK77" s="16" t="n">
-        <v>8361718</v>
+        <v>8191985</v>
       </c>
       <c r="AL77" s="16" t="n">
-        <v>8191985</v>
+        <v>8016975</v>
       </c>
       <c r="AM77" s="16" t="n">
-        <v>8016975</v>
+        <v>8111842</v>
       </c>
       <c r="AN77" s="16" t="n">
-        <v>8111842</v>
+        <v>7761594</v>
       </c>
       <c r="AO77" s="16" t="n">
-        <v>7761594</v>
-      </c>
-      <c r="AP77" s="16" t="n">
         <v>7782377</v>
+      </c>
+      <c r="AP77" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ77" s="16" t="s">
         <v>58</v>
@@ -11702,68 +11702,68 @@
       <c r="F78" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G78" s="15" t="s">
-        <v>58</v>
+      <c r="G78" s="15" t="n">
+        <v>1451576</v>
       </c>
       <c r="H78" s="15" t="n">
-        <v>1451576</v>
+        <v>1474597</v>
       </c>
       <c r="I78" s="15" t="n">
-        <v>1474597</v>
+        <v>1658969</v>
       </c>
       <c r="J78" s="15" t="n">
-        <v>1658969</v>
+        <v>1915029</v>
       </c>
       <c r="K78" s="15" t="n">
-        <v>1915029</v>
+        <v>1920308</v>
       </c>
       <c r="L78" s="15" t="n">
-        <v>1920308</v>
+        <v>1903602</v>
       </c>
       <c r="M78" s="15" t="n">
-        <v>1903602</v>
+        <v>1906593</v>
       </c>
       <c r="N78" s="15" t="n">
-        <v>1906593</v>
+        <v>1902557</v>
       </c>
       <c r="O78" s="15" t="n">
-        <v>1902557</v>
+        <v>1904627</v>
       </c>
       <c r="P78" s="15" t="n">
-        <v>1904627</v>
+        <v>1941390</v>
       </c>
       <c r="Q78" s="15" t="n">
-        <v>1941390</v>
+        <v>1971990</v>
       </c>
       <c r="R78" s="15" t="n">
-        <v>1971990</v>
+        <v>2217594</v>
       </c>
       <c r="S78" s="15" t="n">
-        <v>2217594</v>
+        <v>1915765</v>
       </c>
       <c r="T78" s="15" t="n">
-        <v>1915765</v>
+        <v>1983971</v>
       </c>
       <c r="U78" s="15" t="n">
-        <v>1983971</v>
+        <v>2226813</v>
       </c>
       <c r="V78" s="15" t="n">
-        <v>2226813</v>
+        <v>2463089</v>
       </c>
       <c r="W78" s="15" t="n">
-        <v>2463089</v>
+        <v>2403163</v>
       </c>
       <c r="X78" s="15" t="n">
-        <v>2403163</v>
+        <v>2566723</v>
       </c>
       <c r="Y78" s="15" t="n">
-        <v>2566723</v>
+        <v>2737541</v>
       </c>
       <c r="Z78" s="15" t="n">
-        <v>2737541</v>
-      </c>
-      <c r="AA78" s="15" t="n">
         <v>2663353</v>
+      </c>
+      <c r="AA78" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AB78" s="15" t="s">
         <v>58</v>
